--- a/nablarch_sample/アプリケーション方式設計書_2全体概要.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_2全体概要.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8289F38-2B58-4AC6-8AF2-D583F9C731F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="16590" windowHeight="6570"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2.全体概要" sheetId="13" r:id="rId1"/>
@@ -16,7 +17,18 @@
     <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$77</definedName>
     <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$77</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -295,7 +307,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -725,9 +737,9 @@
   <cellStyles count="5">
     <cellStyle name="ハイパーリンク" xfId="4" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 3 2 3" xfId="3"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -741,6 +753,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -763,7 +778,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="192" name="グループ化 191"/>
+        <xdr:cNvPr id="192" name="グループ化 191">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -776,7 +797,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="193" name="正方形/長方形 192"/>
+          <xdr:cNvPr id="193" name="正方形/長方形 192">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C1000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -914,7 +941,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="194" name="正方形/長方形 193"/>
+          <xdr:cNvPr id="194" name="正方形/長方形 193">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C2000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1055,7 +1088,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="195" name="正方形/長方形 194"/>
+          <xdr:cNvPr id="195" name="正方形/長方形 194">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C3000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1198,7 +1237,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="196" name="正方形/長方形 195"/>
+          <xdr:cNvPr id="196" name="正方形/長方形 195">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C4000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1362,7 +1407,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="197" name="正方形/長方形 196"/>
+          <xdr:cNvPr id="197" name="正方形/長方形 196">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C5000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1506,7 +1557,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="198" name="正方形/長方形 197"/>
+          <xdr:cNvPr id="198" name="正方形/長方形 197">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C6000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1654,7 +1711,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="199" name="正方形/長方形 198"/>
+          <xdr:cNvPr id="199" name="正方形/長方形 198">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C7000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1806,7 +1869,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="200" name="正方形/長方形 199"/>
+          <xdr:cNvPr id="200" name="正方形/長方形 199">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C8000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1997,7 +2066,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="201" name="正方形/長方形 200"/>
+          <xdr:cNvPr id="201" name="正方形/長方形 200">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C9000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2140,7 +2215,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="202" name="正方形/長方形 201"/>
+          <xdr:cNvPr id="202" name="正方形/長方形 201">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CA000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2298,7 +2379,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="203" name="正方形/長方形 202"/>
+          <xdr:cNvPr id="203" name="正方形/長方形 202">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CB000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2441,7 +2528,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="204" name="正方形/長方形 203"/>
+          <xdr:cNvPr id="204" name="正方形/長方形 203">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CC000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2584,7 +2677,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="205" name="正方形/長方形 204"/>
+          <xdr:cNvPr id="205" name="正方形/長方形 204">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CD000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2775,7 +2874,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="206" name="正方形/長方形 205"/>
+          <xdr:cNvPr id="206" name="正方形/長方形 205">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CE000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2918,7 +3023,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="207" name="正方形/長方形 206"/>
+          <xdr:cNvPr id="207" name="正方形/長方形 206">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CF000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3076,7 +3187,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="208" name="正方形/長方形 207"/>
+          <xdr:cNvPr id="208" name="正方形/長方形 207">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D0000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3219,7 +3336,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="209" name="正方形/長方形 208"/>
+          <xdr:cNvPr id="209" name="正方形/長方形 208">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D1000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3362,7 +3485,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="210" name="正方形/長方形 209"/>
+          <xdr:cNvPr id="210" name="正方形/長方形 209">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D2000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3505,7 +3634,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="211" name="正方形/長方形 210"/>
+          <xdr:cNvPr id="211" name="正方形/長方形 210">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D3000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3648,7 +3783,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="212" name="正方形/長方形 211"/>
+          <xdr:cNvPr id="212" name="正方形/長方形 211">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D4000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3796,7 +3937,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="213" name="正方形/長方形 212"/>
+          <xdr:cNvPr id="213" name="正方形/長方形 212">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D5000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3980,7 +4127,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="214" name="正方形/長方形 213"/>
+          <xdr:cNvPr id="214" name="正方形/長方形 213">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D6000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4171,7 +4324,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="215" name="正方形/長方形 214"/>
+          <xdr:cNvPr id="215" name="正方形/長方形 214">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D7000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4314,7 +4473,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="216" name="正方形/長方形 215"/>
+          <xdr:cNvPr id="216" name="正方形/長方形 215">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D8000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4472,7 +4637,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="217" name="正方形/長方形 216"/>
+          <xdr:cNvPr id="217" name="正方形/長方形 216">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D9000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4615,7 +4786,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="218" name="正方形/長方形 217"/>
+          <xdr:cNvPr id="218" name="正方形/長方形 217">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DA000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4758,7 +4935,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="219" name="正方形/長方形 218"/>
+          <xdr:cNvPr id="219" name="正方形/長方形 218">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DB000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4926,7 +5109,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="220" name="正方形/長方形 219"/>
+          <xdr:cNvPr id="220" name="正方形/長方形 219">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DC000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5069,7 +5258,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="221" name="正方形/長方形 220"/>
+          <xdr:cNvPr id="221" name="正方形/長方形 220">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DD000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5237,7 +5432,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="222" name="正方形/長方形 221"/>
+          <xdr:cNvPr id="222" name="正方形/長方形 221">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DE000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5421,7 +5622,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="162" name="正方形/長方形 161"/>
+        <xdr:cNvPr id="162" name="正方形/長方形 161">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A2000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5489,7 +5696,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="グループ化 1"/>
+        <xdr:cNvPr id="2" name="グループ化 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -5502,7 +5715,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="137" name="グループ化 136"/>
+          <xdr:cNvPr id="137" name="グループ化 136">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000089000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -5515,7 +5734,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="140" name="円/楕円 139"/>
+            <xdr:cNvPr id="140" name="円/楕円 139">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5561,7 +5786,13 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="141" name="直線コネクタ 140"/>
+            <xdr:cNvPr id="141" name="直線コネクタ 140">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="140" idx="1"/>
               <a:endCxn id="140" idx="5"/>
@@ -5594,7 +5825,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="142" name="直線コネクタ 141"/>
+            <xdr:cNvPr id="142" name="直線コネクタ 141">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="140" idx="7"/>
               <a:endCxn id="140" idx="3"/>
@@ -5628,7 +5865,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="110" name="グループ化 109"/>
+          <xdr:cNvPr id="110" name="グループ化 109">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -5641,7 +5884,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="111" name="円/楕円 110"/>
+            <xdr:cNvPr id="111" name="円/楕円 110">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5687,7 +5936,13 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="115" name="直線コネクタ 114"/>
+            <xdr:cNvPr id="115" name="直線コネクタ 114">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000073000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="111" idx="1"/>
               <a:endCxn id="111" idx="5"/>
@@ -5720,7 +5975,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="116" name="直線コネクタ 115"/>
+            <xdr:cNvPr id="116" name="直線コネクタ 115">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="111" idx="7"/>
               <a:endCxn id="111" idx="3"/>
@@ -5754,7 +6015,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="19" name="グループ化 18"/>
+          <xdr:cNvPr id="19" name="グループ化 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -5767,7 +6034,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="円/楕円 11"/>
+            <xdr:cNvPr id="12" name="円/楕円 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5813,7 +6086,13 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="14" name="直線コネクタ 13"/>
+            <xdr:cNvPr id="14" name="直線コネクタ 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="12" idx="1"/>
               <a:endCxn id="12" idx="5"/>
@@ -5846,7 +6125,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="109" name="直線コネクタ 108"/>
+            <xdr:cNvPr id="109" name="直線コネクタ 108">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="12" idx="7"/>
               <a:endCxn id="12" idx="3"/>
@@ -5880,7 +6165,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="85" name="Rectangle 37"/>
+          <xdr:cNvPr id="85" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6026,7 +6317,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="86" name="Rectangle 37"/>
+          <xdr:cNvPr id="86" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6167,7 +6464,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="87" name="Rectangle 37"/>
+          <xdr:cNvPr id="87" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6332,7 +6635,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="88" name="Rectangle 37"/>
+          <xdr:cNvPr id="88" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6494,7 +6803,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="96" name="Rectangle 37"/>
+          <xdr:cNvPr id="96" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6651,7 +6966,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="97" name="Rectangle 37"/>
+          <xdr:cNvPr id="97" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6816,7 +7137,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="101" name="フローチャート : 磁気ディスク 100"/>
+          <xdr:cNvPr id="101" name="フローチャート : 磁気ディスク 100">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6978,7 +7305,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="102" name="Rectangle 37"/>
+          <xdr:cNvPr id="102" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -7143,13 +7476,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="103" name="正方形/長方形 102"/>
+          <xdr:cNvPr id="103" name="正方形/長方形 102">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5735127" y="3472006"/>
-            <a:ext cx="443577" cy="644066"/>
+            <a:off x="5702592" y="3472006"/>
+            <a:ext cx="508648" cy="644066"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -7308,13 +7647,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="104" name="正方形/長方形 103"/>
+          <xdr:cNvPr id="104" name="正方形/長方形 103">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6266962" y="3472006"/>
-            <a:ext cx="443577" cy="644066"/>
+            <a:off x="6234426" y="3472006"/>
+            <a:ext cx="508648" cy="644066"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -7468,13 +7813,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="105" name="正方形/長方形 104"/>
+          <xdr:cNvPr id="105" name="正方形/長方形 104">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6829675" y="3472006"/>
-            <a:ext cx="443577" cy="644066"/>
+            <a:off x="6797140" y="3472006"/>
+            <a:ext cx="508648" cy="644066"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -7628,7 +7979,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="106" name="正方形/長方形 105"/>
+          <xdr:cNvPr id="106" name="正方形/長方形 105">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7771,7 +8128,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="107" name="正方形/長方形 106"/>
+          <xdr:cNvPr id="107" name="正方形/長方形 106">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7914,7 +8277,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="108" name="正方形/長方形 107"/>
+          <xdr:cNvPr id="108" name="正方形/長方形 107">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8057,7 +8426,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="112" name="正方形/長方形 111"/>
+          <xdr:cNvPr id="112" name="正方形/長方形 111">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000070000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8208,7 +8583,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="113" name="正方形/長方形 112"/>
+          <xdr:cNvPr id="113" name="正方形/長方形 112">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000071000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8359,7 +8740,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="114" name="正方形/長方形 113"/>
+          <xdr:cNvPr id="114" name="正方形/長方形 113">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000072000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8510,7 +8897,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="118" name="正方形/長方形 117"/>
+          <xdr:cNvPr id="118" name="正方形/長方形 117">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000076000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8648,7 +9041,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="119" name="カギ線コネクタ 118"/>
+          <xdr:cNvPr id="119" name="カギ線コネクタ 118">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000077000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="118" idx="3"/>
             <a:endCxn id="105" idx="2"/>
@@ -8656,8 +9055,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipV="1">
-            <a:off x="5305513" y="4116072"/>
-            <a:ext cx="1745951" cy="329784"/>
+            <a:off x="5305512" y="4116072"/>
+            <a:ext cx="1745951" cy="328196"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector2">
             <a:avLst/>
@@ -8683,13 +9082,19 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="120" name="直線コネクタ 119"/>
+          <xdr:cNvPr id="120" name="直線コネクタ 119">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000078000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="103" idx="2"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipH="1">
+          <a:xfrm>
             <a:off x="5956916" y="4116072"/>
             <a:ext cx="1" cy="314656"/>
           </a:xfrm>
@@ -8717,14 +9122,20 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="121" name="直線コネクタ 120"/>
+          <xdr:cNvPr id="121" name="直線コネクタ 120">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="104" idx="2"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="6488751" y="4116072"/>
+          <a:xfrm>
+            <a:off x="6488750" y="4116072"/>
             <a:ext cx="1" cy="307509"/>
           </a:xfrm>
           <a:prstGeom prst="line">
@@ -8751,7 +9162,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="123" name="正方形/長方形 122"/>
+          <xdr:cNvPr id="123" name="正方形/長方形 122">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8890,7 +9307,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="125" name="正方形/長方形 124"/>
+          <xdr:cNvPr id="125" name="正方形/長方形 124">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9031,7 +9454,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="127" name="正方形/長方形 126"/>
+          <xdr:cNvPr id="127" name="正方形/長方形 126">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9170,7 +9599,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="128" name="カギ線コネクタ 127"/>
+          <xdr:cNvPr id="128" name="カギ線コネクタ 127">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="113" idx="3"/>
             <a:endCxn id="104" idx="0"/>
@@ -9178,8 +9613,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5357459" y="2760838"/>
-            <a:ext cx="1131292" cy="711168"/>
+            <a:off x="5357459" y="2759251"/>
+            <a:ext cx="1131291" cy="712755"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector2">
             <a:avLst/>
@@ -9210,7 +9645,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="131" name="カギ線コネクタ 130"/>
+          <xdr:cNvPr id="131" name="カギ線コネクタ 130">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="114" idx="3"/>
             <a:endCxn id="105" idx="0"/>
@@ -9218,8 +9659,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5357459" y="3193023"/>
-            <a:ext cx="1694005" cy="278983"/>
+            <a:off x="5357459" y="3194610"/>
+            <a:ext cx="1694005" cy="277396"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector2">
             <a:avLst/>
@@ -9248,7 +9689,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="133" name="Rectangle 37"/>
+          <xdr:cNvPr id="133" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -9389,7 +9836,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="134" name="Rectangle 37"/>
+          <xdr:cNvPr id="134" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000086000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -9573,7 +10026,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="135" name="カギ線コネクタ 134"/>
+          <xdr:cNvPr id="135" name="カギ線コネクタ 134">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000087000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="112" idx="3"/>
             <a:endCxn id="103" idx="0"/>
@@ -9581,8 +10040,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5357460" y="2350659"/>
-            <a:ext cx="599456" cy="1121347"/>
+            <a:off x="5357460" y="2349071"/>
+            <a:ext cx="599456" cy="1122935"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector2">
             <a:avLst/>
@@ -9611,7 +10070,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="138" name="右矢印 137"/>
+          <xdr:cNvPr id="138" name="右矢印 137">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9760,7 +10225,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="146" name="Rectangle 37"/>
+          <xdr:cNvPr id="146" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000092000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -9901,7 +10372,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="147" name="Rectangle 37"/>
+          <xdr:cNvPr id="147" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000093000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -10058,7 +10535,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="150" name="Rectangle 37"/>
+          <xdr:cNvPr id="150" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000096000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -10215,7 +10698,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="160" name="右矢印 159"/>
+          <xdr:cNvPr id="160" name="右矢印 159">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A0000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10364,7 +10853,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="161" name="正方形/長方形 160"/>
+          <xdr:cNvPr id="161" name="正方形/長方形 160">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10417,7 +10912,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="163" name="Rectangle 37"/>
+          <xdr:cNvPr id="163" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A3000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -10582,7 +11083,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="82" name="カギ線コネクタ 81"/>
+          <xdr:cNvPr id="82" name="カギ線コネクタ 81">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:endCxn id="127" idx="1"/>
           </xdr:cNvCxnSpPr>
@@ -10619,7 +11126,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="89" name="カギ線コネクタ 88"/>
+          <xdr:cNvPr id="89" name="カギ線コネクタ 88">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:endCxn id="107" idx="1"/>
           </xdr:cNvCxnSpPr>
@@ -10660,7 +11173,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="91" name="カギ線コネクタ 90"/>
+          <xdr:cNvPr id="91" name="カギ線コネクタ 90">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:endCxn id="123" idx="1"/>
           </xdr:cNvCxnSpPr>
@@ -10697,7 +11216,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
+          <xdr:cNvPr id="20" name="テキスト ボックス 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10749,7 +11274,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="117" name="テキスト ボックス 116"/>
+          <xdr:cNvPr id="117" name="テキスト ボックス 116">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000075000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10801,7 +11332,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="122" name="Rectangle 37"/>
+          <xdr:cNvPr id="122" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -10963,7 +11500,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="124" name="Rectangle 37"/>
+          <xdr:cNvPr id="124" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -11112,7 +11655,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="126" name="グループ化 125"/>
+          <xdr:cNvPr id="126" name="グループ化 125">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -11125,7 +11674,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="129" name="円/楕円 128"/>
+            <xdr:cNvPr id="129" name="円/楕円 128">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000081000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -11171,7 +11726,13 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="130" name="直線コネクタ 129"/>
+            <xdr:cNvPr id="130" name="直線コネクタ 129">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="129" idx="1"/>
               <a:endCxn id="129" idx="5"/>
@@ -11204,7 +11765,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="132" name="直線コネクタ 131"/>
+            <xdr:cNvPr id="132" name="直線コネクタ 131">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="129" idx="7"/>
               <a:endCxn id="129" idx="3"/>
@@ -11238,7 +11805,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="136" name="テキスト ボックス 135"/>
+          <xdr:cNvPr id="136" name="テキスト ボックス 135">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000088000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11290,7 +11863,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="139" name="右矢印 138"/>
+          <xdr:cNvPr id="139" name="右矢印 138">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11435,7 +12014,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="143" name="テキスト ボックス 142"/>
+          <xdr:cNvPr id="143" name="テキスト ボックス 142">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11487,7 +12072,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="144" name="グループ化 143"/>
+          <xdr:cNvPr id="144" name="グループ化 143">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000090000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -11500,7 +12091,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="145" name="円/楕円 144"/>
+            <xdr:cNvPr id="145" name="円/楕円 144">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000091000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -11546,7 +12143,13 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="151" name="直線コネクタ 150"/>
+            <xdr:cNvPr id="151" name="直線コネクタ 150">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000097000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="145" idx="1"/>
               <a:endCxn id="145" idx="5"/>
@@ -11579,7 +12182,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="152" name="直線コネクタ 151"/>
+            <xdr:cNvPr id="152" name="直線コネクタ 151">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000098000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="145" idx="7"/>
               <a:endCxn id="145" idx="3"/>
@@ -11613,7 +12222,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="153" name="テキスト ボックス 152"/>
+          <xdr:cNvPr id="153" name="テキスト ボックス 152">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000099000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11665,7 +12280,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="149" name="右矢印 148"/>
+          <xdr:cNvPr id="149" name="右矢印 148">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000095000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11814,7 +12435,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="148" name="右矢印 147"/>
+          <xdr:cNvPr id="148" name="右矢印 147">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000094000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11979,7 +12606,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="155" name="図 154" descr="çå£ãªé¡ã®ãã¬ãã©ã³ã»ãªãã¬ã¼ã¿ã¼ã®ã¤ã©ã¹ãï¼ç·æ§ï¼"/>
+        <xdr:cNvPr id="155" name="図 154" descr="çå£ãªé¡ã®ãã¬ãã©ã³ã»ãªãã¬ã¼ã¿ã¼ã®ã¤ã©ã¹ãï¼ç·æ§ï¼">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12034,7 +12667,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="165" name="図 164" descr="ãã½ã³ã³ãä½¿ãå¥³æ§ã®ã¤ã©ã¹ã"/>
+        <xdr:cNvPr id="165" name="図 164" descr="ãã½ã³ã³ãä½¿ãå¥³æ§ã®ã¤ã©ã¹ã">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A5000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12089,7 +12728,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="166" name="図 165" descr="ãã½ã³ã³ãä½¿ãã¹ãã¼ãã¦ã§ã¢ãçãäººã®ã¤ã©ã¹ãï¼ç·æ§ï¼"/>
+        <xdr:cNvPr id="166" name="図 165" descr="ãã½ã³ã³ãä½¿ãã¹ãã¼ãã¦ã§ã¢ãçãäººã®ã¤ã©ã¹ãï¼ç·æ§ï¼">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A6000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12133,7 +12778,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -12175,7 +12820,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12208,9 +12853,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12243,6 +12905,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -12418,7 +13097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -13654,7 +14333,7 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="D77" r:id="rId1"/>
+    <hyperlink ref="D77" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>

--- a/nablarch_sample/アプリケーション方式設計書_2全体概要.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_2全体概要.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8289F38-2B58-4AC6-8AF2-D583F9C731F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92168E32-E0D7-4C9F-A8A3-9D0DDE4F8994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2078,7 +2078,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="124077" y="4598329"/>
-            <a:ext cx="559491" cy="898475"/>
+            <a:ext cx="728643" cy="898475"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2226,8 +2226,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="683568" y="4598072"/>
-            <a:ext cx="476373" cy="901012"/>
+            <a:off x="859586" y="4598072"/>
+            <a:ext cx="822119" cy="901012"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2390,8 +2390,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1159941" y="4598329"/>
-            <a:ext cx="634360" cy="898473"/>
+            <a:off x="1683419" y="4598329"/>
+            <a:ext cx="776817" cy="898473"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2522,155 +2522,6 @@
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:t>Apache</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="204" name="正方形/長方形 203">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CC000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1764672" y="4598330"/>
-            <a:ext cx="702524" cy="898474"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent5"/>
-          </a:lnRef>
-          <a:fillRef idx="2">
-            <a:schemeClr val="accent5"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="accent5"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" lIns="36000" rIns="36000" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="900">
-                <a:solidFill>
-                  <a:schemeClr val="tx2">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>JDK(OpenJDK 8)</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -2886,7 +2737,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="2771801" y="4598329"/>
-            <a:ext cx="559513" cy="898475"/>
+            <a:ext cx="408250" cy="898475"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3034,8 +2885,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3331314" y="4598073"/>
-            <a:ext cx="468050" cy="901011"/>
+            <a:off x="3180277" y="4598073"/>
+            <a:ext cx="391095" cy="901011"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3198,8 +3049,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4864990" y="4600302"/>
-            <a:ext cx="1327523" cy="442836"/>
+            <a:off x="4350091" y="4857484"/>
+            <a:ext cx="910140" cy="198598"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3347,8 +3198,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4864990" y="5043138"/>
-            <a:ext cx="1327523" cy="455945"/>
+            <a:off x="4347149" y="5064561"/>
+            <a:ext cx="1845364" cy="434522"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3496,7 +3347,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3799364" y="4598947"/>
+            <a:off x="3572809" y="4598947"/>
             <a:ext cx="234025" cy="892351"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -3645,8 +3496,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4033389" y="4598947"/>
-            <a:ext cx="402881" cy="892351"/>
+            <a:off x="3813701" y="4598947"/>
+            <a:ext cx="258837" cy="892351"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3794,8 +3645,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4864990" y="4220521"/>
-            <a:ext cx="1327522" cy="360040"/>
+            <a:off x="4350093" y="4598638"/>
+            <a:ext cx="910138" cy="252375"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3948,8 +3799,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4860032" y="3716464"/>
-            <a:ext cx="1332480" cy="504057"/>
+            <a:off x="4338271" y="3919169"/>
+            <a:ext cx="908230" cy="663735"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4080,7 +3931,7 @@
                 <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>業務アプリケーション</a:t>
+              <a:t>業務</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
               <a:solidFill>
@@ -4093,34 +3944,34 @@
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
                 <a:solidFill>
                   <a:srgbClr val="C00000"/>
                 </a:solidFill>
                 <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>（</a:t>
+              <a:t>アプリケーション</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:rPr lang="en-US" altLang="ja-JP" sz="900">
                 <a:solidFill>
                   <a:srgbClr val="C00000"/>
                 </a:solidFill>
                 <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>Online / Batch</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>）</a:t>
+              <a:t>(Online)</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -4336,7 +4187,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="6477354" y="4586591"/>
-            <a:ext cx="559491" cy="930401"/>
+            <a:ext cx="739483" cy="930401"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4484,8 +4335,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7036845" y="4586866"/>
-            <a:ext cx="468050" cy="932403"/>
+            <a:off x="7223703" y="4586866"/>
+            <a:ext cx="699976" cy="932403"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4648,8 +4499,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7504894" y="4586563"/>
-            <a:ext cx="523490" cy="930669"/>
+            <a:off x="7930826" y="4586563"/>
+            <a:ext cx="818412" cy="930669"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4780,155 +4631,6 @@
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:t>PostgreSQL</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="218" name="正方形/長方形 217">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DA000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8028384" y="4586563"/>
-            <a:ext cx="720080" cy="930669"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent5"/>
-          </a:lnRef>
-          <a:fillRef idx="2">
-            <a:schemeClr val="accent5"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="accent5"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" lIns="36000" rIns="36000" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="900">
-                <a:solidFill>
-                  <a:schemeClr val="tx2">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>JDK(OpenJDK 8)</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -5120,8 +4822,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4436270" y="4598947"/>
-            <a:ext cx="428720" cy="892351"/>
+            <a:off x="4079275" y="4598947"/>
+            <a:ext cx="261008" cy="892351"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5604,19 +5306,383 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="154" name="正方形/長方形 153">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D64EAAE1-D7D2-4ED6-A58D-18B8856D438C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5253366" y="4592167"/>
+            <a:ext cx="940545" cy="465921"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" lIns="36000" rIns="36000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>Nablarch</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="156" name="正方形/長方形 155">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34324E4A-8E80-4C29-A4F2-A4F7E25C7321}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5246501" y="3919169"/>
+            <a:ext cx="954274" cy="663735"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" lIns="36000" rIns="36000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>業務</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>アプリケーション</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>Batch</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>）</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>259005</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>88916</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>92606</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>57439</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>166297</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>108960</xdr:rowOff>
     </xdr:to>
@@ -5633,8 +5699,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="20043632">
-          <a:off x="2745030" y="8207906"/>
-          <a:ext cx="4770484" cy="1873729"/>
+          <a:off x="3157327" y="7358820"/>
+          <a:ext cx="4819470" cy="2445229"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>

--- a/nablarch_sample/アプリケーション方式設計書_2全体概要.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_2全体概要.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92168E32-E0D7-4C9F-A8A3-9D0DDE4F8994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AED10E9-B690-486C-9D9D-0A762896D834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="2.全体概要" sheetId="13" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2.全体概要'!$A$1:$AI$92</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2.全体概要'!$A$1:$AI$90</definedName>
     <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$77</definedName>
     <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$77</definedName>
     <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$77</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -125,48 +125,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>サポートが行われることになっている。</t>
-    <rPh sb="5" eb="6">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>また、Java9、Java10は本システムリリース前に公式サポートが終了し、</t>
-    <rPh sb="16" eb="17">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>コウシキ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2019年1月までOracleによるサポートが行われており、Red HatのOpenJDK 8であれば、2020年10月まで</t>
-    <rPh sb="4" eb="5">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>XXXプロジェクト</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -229,10 +187,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>5u13</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>その他のソフトウェアに関しては、役割分担上、インフラ担当に割り当たっているため、インフラ担当の成果物にて定義する。</t>
     <rPh sb="2" eb="3">
       <t>タ</t>
@@ -270,10 +224,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>OpenJDK8</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>種類およびバージョン</t>
     <rPh sb="0" eb="2">
       <t>シュルイ</t>
@@ -281,25 +231,70 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>現時点の最新バージョンを利用するため。</t>
-    <rPh sb="0" eb="3">
-      <t>ゲンジテン</t>
+    <t>5u21</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OSがRHELであるため、同じRedHat社が提供するOpenJDKビルドを使用する。</t>
+    <rPh sb="13" eb="14">
+      <t>オナ</t>
     </rPh>
-    <rPh sb="4" eb="6">
-      <t>サイシン</t>
+    <rPh sb="21" eb="22">
+      <t>シャ</t>
     </rPh>
-    <rPh sb="12" eb="14">
-      <t>リヨウ</t>
+    <rPh sb="23" eb="25">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Java11は本プロジェクトのコーディングフェーズ時点では、リリースされていない。</t>
-    <rPh sb="7" eb="8">
-      <t>ホン</t>
+    <t>RedHat OpenJDK 17</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2022年7月現在、RedHatのOpenJDKで最もサポート期間が長いバージョンは17であるため、これを選択する。</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
     </rPh>
-    <rPh sb="25" eb="27">
-      <t>ジテン</t>
+    <rPh sb="6" eb="7">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2022年7月現在最新バージョンである5u21を選択する。</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センタク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -543,7 +538,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -733,6 +728,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="ハイパーリンク" xfId="4" builtinId="8"/>
@@ -3329,7 +3327,7 @@
                 <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>JDK(OpenJDK 8)</a:t>
+              <a:t>JDK(OpenJDK 17)</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -13167,7 +13165,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI454"/>
+  <dimension ref="A1:AI452"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="140" zoomScaleNormal="100" zoomScaleSheetLayoutView="140" workbookViewId="0"/>
   </sheetViews>
@@ -13184,7 +13182,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
       <c r="E1" s="44" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F1" s="45"/>
       <c r="G1" s="45"/>
@@ -13201,7 +13199,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="47" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="S1" s="48"/>
       <c r="T1" s="48"/>
@@ -13445,7 +13443,7 @@
     </row>
     <row r="76" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D76" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13465,7 +13463,7 @@
         <v>2.4.</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E79" s="18"/>
       <c r="F79" s="18"/>
@@ -13508,7 +13506,7 @@
         <v>2.4.1.</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F80" s="18"/>
       <c r="G80" s="18"/>
@@ -13584,7 +13582,7 @@
       <c r="C82" s="17"/>
       <c r="D82" s="19"/>
       <c r="E82" s="18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F82" s="18"/>
       <c r="G82" s="18"/>
@@ -13623,7 +13621,7 @@
       <c r="C83" s="17"/>
       <c r="D83" s="19"/>
       <c r="E83" s="18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F83" s="18"/>
       <c r="G83" s="18"/>
@@ -13699,12 +13697,12 @@
       <c r="C85" s="17"/>
       <c r="D85" s="19"/>
       <c r="E85" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F85" s="21"/>
       <c r="G85" s="22"/>
       <c r="H85" s="20" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I85" s="21"/>
       <c r="J85" s="21"/>
@@ -13742,19 +13740,19 @@
       <c r="C86" s="17"/>
       <c r="D86" s="19"/>
       <c r="E86" s="32" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F86" s="33"/>
       <c r="G86" s="34"/>
-      <c r="H86" s="32" t="s">
-        <v>32</v>
+      <c r="H86" s="63" t="s">
+        <v>31</v>
       </c>
       <c r="I86" s="33"/>
       <c r="J86" s="33"/>
       <c r="K86" s="33"/>
       <c r="L86" s="34"/>
       <c r="M86" s="23" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="N86" s="24"/>
       <c r="O86" s="24"/>
@@ -13793,7 +13791,7 @@
       <c r="K87" s="39"/>
       <c r="L87" s="40"/>
       <c r="M87" s="26" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N87" s="27"/>
       <c r="O87" s="27"/>
@@ -13823,38 +13821,42 @@
       <c r="B88" s="18"/>
       <c r="C88" s="17"/>
       <c r="D88" s="19"/>
-      <c r="E88" s="38"/>
-      <c r="F88" s="39"/>
-      <c r="G88" s="40"/>
-      <c r="H88" s="38"/>
-      <c r="I88" s="39"/>
-      <c r="J88" s="39"/>
-      <c r="K88" s="39"/>
-      <c r="L88" s="40"/>
-      <c r="M88" s="26" t="s">
-        <v>20</v>
+      <c r="E88" s="32" t="s">
+        <v>26</v>
       </c>
-      <c r="N88" s="27"/>
-      <c r="O88" s="27"/>
-      <c r="P88" s="27"/>
-      <c r="Q88" s="27"/>
-      <c r="R88" s="27"/>
-      <c r="S88" s="27"/>
-      <c r="T88" s="27"/>
-      <c r="U88" s="27"/>
-      <c r="V88" s="27"/>
-      <c r="W88" s="27"/>
-      <c r="X88" s="27"/>
-      <c r="Y88" s="27"/>
-      <c r="Z88" s="27"/>
-      <c r="AA88" s="27"/>
-      <c r="AB88" s="27"/>
-      <c r="AC88" s="27"/>
-      <c r="AD88" s="27"/>
-      <c r="AE88" s="27"/>
-      <c r="AF88" s="27"/>
-      <c r="AG88" s="27"/>
-      <c r="AH88" s="28"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I88" s="33"/>
+      <c r="J88" s="33"/>
+      <c r="K88" s="33"/>
+      <c r="L88" s="34"/>
+      <c r="M88" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="N88" s="24"/>
+      <c r="O88" s="24"/>
+      <c r="P88" s="24"/>
+      <c r="Q88" s="24"/>
+      <c r="R88" s="24"/>
+      <c r="S88" s="24"/>
+      <c r="T88" s="24"/>
+      <c r="U88" s="24"/>
+      <c r="V88" s="24"/>
+      <c r="W88" s="24"/>
+      <c r="X88" s="24"/>
+      <c r="Y88" s="24"/>
+      <c r="Z88" s="24"/>
+      <c r="AA88" s="24"/>
+      <c r="AB88" s="24"/>
+      <c r="AC88" s="24"/>
+      <c r="AD88" s="24"/>
+      <c r="AE88" s="24"/>
+      <c r="AF88" s="24"/>
+      <c r="AG88" s="24"/>
+      <c r="AH88" s="25"/>
       <c r="AI88" s="18"/>
     </row>
     <row r="89" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13870,9 +13872,7 @@
       <c r="J89" s="36"/>
       <c r="K89" s="36"/>
       <c r="L89" s="37"/>
-      <c r="M89" s="29" t="s">
-        <v>35</v>
-      </c>
+      <c r="M89" s="29"/>
       <c r="N89" s="30"/>
       <c r="O89" s="30"/>
       <c r="P89" s="30"/>
@@ -13901,124 +13901,46 @@
       <c r="B90" s="18"/>
       <c r="C90" s="17"/>
       <c r="D90" s="19"/>
-      <c r="E90" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="F90" s="33"/>
-      <c r="G90" s="34"/>
-      <c r="H90" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="I90" s="33"/>
-      <c r="J90" s="33"/>
-      <c r="K90" s="33"/>
-      <c r="L90" s="34"/>
-      <c r="M90" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="N90" s="24"/>
-      <c r="O90" s="24"/>
-      <c r="P90" s="24"/>
-      <c r="Q90" s="24"/>
-      <c r="R90" s="24"/>
-      <c r="S90" s="24"/>
-      <c r="T90" s="24"/>
-      <c r="U90" s="24"/>
-      <c r="V90" s="24"/>
-      <c r="W90" s="24"/>
-      <c r="X90" s="24"/>
-      <c r="Y90" s="24"/>
-      <c r="Z90" s="24"/>
-      <c r="AA90" s="24"/>
-      <c r="AB90" s="24"/>
-      <c r="AC90" s="24"/>
-      <c r="AD90" s="24"/>
-      <c r="AE90" s="24"/>
-      <c r="AF90" s="24"/>
-      <c r="AG90" s="24"/>
-      <c r="AH90" s="25"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="18"/>
+      <c r="K90" s="18"/>
+      <c r="L90" s="18"/>
+      <c r="M90" s="18"/>
+      <c r="N90" s="18"/>
+      <c r="O90" s="18"/>
+      <c r="P90" s="18"/>
+      <c r="Q90" s="18"/>
+      <c r="R90" s="18"/>
+      <c r="S90" s="18"/>
+      <c r="T90" s="18"/>
+      <c r="U90" s="18"/>
+      <c r="V90" s="18"/>
+      <c r="W90" s="18"/>
+      <c r="X90" s="18"/>
+      <c r="Y90" s="18"/>
+      <c r="Z90" s="18"/>
+      <c r="AA90" s="18"/>
+      <c r="AB90" s="18"/>
+      <c r="AC90" s="18"/>
+      <c r="AD90" s="18"/>
+      <c r="AE90" s="18"/>
+      <c r="AF90" s="18"/>
+      <c r="AG90" s="18"/>
+      <c r="AH90" s="18"/>
       <c r="AI90" s="18"/>
     </row>
     <row r="91" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="18"/>
-      <c r="B91" s="18"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="35"/>
-      <c r="F91" s="36"/>
-      <c r="G91" s="37"/>
-      <c r="H91" s="35"/>
-      <c r="I91" s="36"/>
-      <c r="J91" s="36"/>
-      <c r="K91" s="36"/>
-      <c r="L91" s="37"/>
-      <c r="M91" s="29"/>
-      <c r="N91" s="30"/>
-      <c r="O91" s="30"/>
-      <c r="P91" s="30"/>
-      <c r="Q91" s="30"/>
-      <c r="R91" s="30"/>
-      <c r="S91" s="30"/>
-      <c r="T91" s="30"/>
-      <c r="U91" s="30"/>
-      <c r="V91" s="30"/>
-      <c r="W91" s="30"/>
-      <c r="X91" s="30"/>
-      <c r="Y91" s="30"/>
-      <c r="Z91" s="30"/>
-      <c r="AA91" s="30"/>
-      <c r="AB91" s="30"/>
-      <c r="AC91" s="30"/>
-      <c r="AD91" s="30"/>
-      <c r="AE91" s="30"/>
-      <c r="AF91" s="30"/>
-      <c r="AG91" s="30"/>
-      <c r="AH91" s="31"/>
-      <c r="AI91" s="18"/>
+      <c r="C91" s="14"/>
     </row>
     <row r="92" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="18"/>
-      <c r="B92" s="18"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="18"/>
-      <c r="I92" s="18"/>
-      <c r="J92" s="18"/>
-      <c r="K92" s="18"/>
-      <c r="L92" s="18"/>
-      <c r="M92" s="18"/>
-      <c r="N92" s="18"/>
-      <c r="O92" s="18"/>
-      <c r="P92" s="18"/>
-      <c r="Q92" s="18"/>
-      <c r="R92" s="18"/>
-      <c r="S92" s="18"/>
-      <c r="T92" s="18"/>
-      <c r="U92" s="18"/>
-      <c r="V92" s="18"/>
-      <c r="W92" s="18"/>
-      <c r="X92" s="18"/>
-      <c r="Y92" s="18"/>
-      <c r="Z92" s="18"/>
-      <c r="AA92" s="18"/>
-      <c r="AB92" s="18"/>
-      <c r="AC92" s="18"/>
-      <c r="AD92" s="18"/>
-      <c r="AE92" s="18"/>
-      <c r="AF92" s="18"/>
-      <c r="AG92" s="18"/>
-      <c r="AH92" s="18"/>
-      <c r="AI92" s="18"/>
+      <c r="C92" s="14"/>
     </row>
-    <row r="93" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C93" s="14"/>
-    </row>
-    <row r="94" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C94" s="14"/>
-    </row>
+    <row r="93" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="95" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="96" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="97" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14377,13 +14299,11 @@
     <row r="450" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="451" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="452" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E90:G91"/>
-    <mergeCell ref="H86:L89"/>
-    <mergeCell ref="H90:L91"/>
+    <mergeCell ref="E88:G89"/>
+    <mergeCell ref="H86:L87"/>
+    <mergeCell ref="H88:L89"/>
     <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="E1:O1"/>
     <mergeCell ref="R1:X1"/>
@@ -14395,7 +14315,7 @@
     <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="E3:O3"/>
     <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="E86:G89"/>
+    <mergeCell ref="E86:G87"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>

--- a/nablarch_sample/アプリケーション方式設計書_2全体概要.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_2全体概要.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AED10E9-B690-486C-9D9D-0A762896D834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9C2FB2-9C9C-40F9-98A0-37C21314007D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,10 +119,6 @@
   </si>
   <si>
     <t>本システムで稼働するアプリケーションの全体図を以下に記載する。</t>
-  </si>
-  <si>
-    <t>https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/nablarch/big_picture.html</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>XXXプロジェクト</t>
@@ -296,6 +292,10 @@
     <rPh sb="24" eb="26">
       <t>センタク</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://nablarch.github.io/docs/5u21/doc/application_framework/application_framework/nablarch/big_picture.html</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -653,6 +653,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -727,9 +730,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -13181,45 +13181,45 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="44" t="s">
-        <v>19</v>
+      <c r="E1" s="45" t="s">
+        <v>18</v>
       </c>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="47"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="47" t="s">
-        <v>20</v>
+      <c r="R1" s="48" t="s">
+        <v>19</v>
       </c>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="50"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="43"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="44"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -13228,43 +13228,43 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="55"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="56"/>
       <c r="P2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="8"/>
-      <c r="R2" s="56" t="s">
+      <c r="R2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="59"/>
       <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="43"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="44"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -13273,39 +13273,39 @@
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="12"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="61"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="62"/>
       <c r="Y3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="Z3" s="13"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="51"/>
-      <c r="AD3" s="51"/>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="43"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="52"/>
+      <c r="AC3" s="52"/>
+      <c r="AD3" s="52"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="44"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13443,12 +13443,12 @@
     </row>
     <row r="76" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D76" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D77" s="16" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13463,7 +13463,7 @@
         <v>2.4.</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E79" s="18"/>
       <c r="F79" s="18"/>
@@ -13506,7 +13506,7 @@
         <v>2.4.1.</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F80" s="18"/>
       <c r="G80" s="18"/>
@@ -13582,7 +13582,7 @@
       <c r="C82" s="17"/>
       <c r="D82" s="19"/>
       <c r="E82" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F82" s="18"/>
       <c r="G82" s="18"/>
@@ -13621,7 +13621,7 @@
       <c r="C83" s="17"/>
       <c r="D83" s="19"/>
       <c r="E83" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F83" s="18"/>
       <c r="G83" s="18"/>
@@ -13697,12 +13697,12 @@
       <c r="C85" s="17"/>
       <c r="D85" s="19"/>
       <c r="E85" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F85" s="21"/>
       <c r="G85" s="22"/>
       <c r="H85" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I85" s="21"/>
       <c r="J85" s="21"/>
@@ -13740,19 +13740,19 @@
       <c r="C86" s="17"/>
       <c r="D86" s="19"/>
       <c r="E86" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F86" s="33"/>
       <c r="G86" s="34"/>
-      <c r="H86" s="63" t="s">
-        <v>31</v>
+      <c r="H86" s="38" t="s">
+        <v>30</v>
       </c>
       <c r="I86" s="33"/>
       <c r="J86" s="33"/>
       <c r="K86" s="33"/>
       <c r="L86" s="34"/>
       <c r="M86" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N86" s="24"/>
       <c r="O86" s="24"/>
@@ -13782,16 +13782,16 @@
       <c r="B87" s="18"/>
       <c r="C87" s="17"/>
       <c r="D87" s="19"/>
-      <c r="E87" s="38"/>
-      <c r="F87" s="39"/>
-      <c r="G87" s="40"/>
-      <c r="H87" s="38"/>
-      <c r="I87" s="39"/>
-      <c r="J87" s="39"/>
-      <c r="K87" s="39"/>
-      <c r="L87" s="40"/>
+      <c r="E87" s="39"/>
+      <c r="F87" s="40"/>
+      <c r="G87" s="41"/>
+      <c r="H87" s="39"/>
+      <c r="I87" s="40"/>
+      <c r="J87" s="40"/>
+      <c r="K87" s="40"/>
+      <c r="L87" s="41"/>
       <c r="M87" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N87" s="27"/>
       <c r="O87" s="27"/>
@@ -13822,19 +13822,19 @@
       <c r="C88" s="17"/>
       <c r="D88" s="19"/>
       <c r="E88" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F88" s="33"/>
       <c r="G88" s="34"/>
       <c r="H88" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I88" s="33"/>
       <c r="J88" s="33"/>
       <c r="K88" s="33"/>
       <c r="L88" s="34"/>
       <c r="M88" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N88" s="24"/>
       <c r="O88" s="24"/>

--- a/nablarch_sample/アプリケーション方式設計書_2全体概要.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_2全体概要.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9C2FB2-9C9C-40F9-98A0-37C21314007D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="16590" windowHeight="6570"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2.全体概要" sheetId="13" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2.全体概要'!$A$1:$AI$92</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2.全体概要'!$A$1:$AI$90</definedName>
     <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$77</definedName>
     <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$77</definedName>
     <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$77</definedName>
     <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$77</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -109,52 +121,6 @@
     <t>本システムで稼働するアプリケーションの全体図を以下に記載する。</t>
   </si>
   <si>
-    <t>https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/nablarch/big_picture.html</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>サポートが行われることになっている。</t>
-    <rPh sb="5" eb="6">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>また、Java9、Java10は本システムリリース前に公式サポートが終了し、</t>
-    <rPh sb="16" eb="17">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>コウシキ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2019年1月までOracleによるサポートが行われており、Red HatのOpenJDK 8であれば、2020年10月まで</t>
-    <rPh sb="4" eb="5">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>XXXプロジェクト</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -217,10 +183,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>5u13</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>その他のソフトウェアに関しては、役割分担上、インフラ担当に割り当たっているため、インフラ担当の成果物にて定義する。</t>
     <rPh sb="2" eb="3">
       <t>タ</t>
@@ -258,10 +220,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>OpenJDK8</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>種類およびバージョン</t>
     <rPh sb="0" eb="2">
       <t>シュルイ</t>
@@ -269,33 +227,82 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>現時点の最新バージョンを利用するため。</t>
-    <rPh sb="0" eb="3">
-      <t>ゲンジテン</t>
+    <t>5u21</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OSがRHELであるため、同じRedHat社が提供するOpenJDKビルドを使用する。</t>
+    <rPh sb="13" eb="14">
+      <t>オナ</t>
     </rPh>
-    <rPh sb="4" eb="6">
-      <t>サイシン</t>
+    <rPh sb="21" eb="22">
+      <t>シャ</t>
     </rPh>
-    <rPh sb="12" eb="14">
-      <t>リヨウ</t>
+    <rPh sb="23" eb="25">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Java11は本プロジェクトのコーディングフェーズ時点では、リリースされていない。</t>
-    <rPh sb="7" eb="8">
-      <t>ホン</t>
+    <t>RedHat OpenJDK 17</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2022年7月現在、RedHatのOpenJDKで最もサポート期間が長いバージョンは17であるため、これを選択する。</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
     </rPh>
-    <rPh sb="25" eb="27">
-      <t>ジテン</t>
+    <rPh sb="6" eb="7">
+      <t>ガツ</t>
     </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2022年7月現在最新バージョンである5u21を選択する。</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://nablarch.github.io/docs/5u21/doc/application_framework/application_framework/nablarch/big_picture.html</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -531,7 +538,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -646,6 +653,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -725,9 +735,9 @@
   <cellStyles count="5">
     <cellStyle name="ハイパーリンク" xfId="4" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 3 2 3" xfId="3"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -741,6 +751,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -763,7 +776,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="192" name="グループ化 191"/>
+        <xdr:cNvPr id="192" name="グループ化 191">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -776,7 +795,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="193" name="正方形/長方形 192"/>
+          <xdr:cNvPr id="193" name="正方形/長方形 192">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C1000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -914,7 +939,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="194" name="正方形/長方形 193"/>
+          <xdr:cNvPr id="194" name="正方形/長方形 193">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C2000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1055,7 +1086,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="195" name="正方形/長方形 194"/>
+          <xdr:cNvPr id="195" name="正方形/長方形 194">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C3000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1198,7 +1235,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="196" name="正方形/長方形 195"/>
+          <xdr:cNvPr id="196" name="正方形/長方形 195">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C4000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1362,7 +1405,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="197" name="正方形/長方形 196"/>
+          <xdr:cNvPr id="197" name="正方形/長方形 196">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C5000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1506,7 +1555,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="198" name="正方形/長方形 197"/>
+          <xdr:cNvPr id="198" name="正方形/長方形 197">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C6000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1654,7 +1709,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="199" name="正方形/長方形 198"/>
+          <xdr:cNvPr id="199" name="正方形/長方形 198">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C7000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1806,7 +1867,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="200" name="正方形/長方形 199"/>
+          <xdr:cNvPr id="200" name="正方形/長方形 199">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C8000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1997,13 +2064,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="201" name="正方形/長方形 200"/>
+          <xdr:cNvPr id="201" name="正方形/長方形 200">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C9000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
             <a:off x="124077" y="4598329"/>
-            <a:ext cx="559491" cy="898475"/>
+            <a:ext cx="728643" cy="898475"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2140,13 +2213,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="202" name="正方形/長方形 201"/>
+          <xdr:cNvPr id="202" name="正方形/長方形 201">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CA000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="683568" y="4598072"/>
-            <a:ext cx="476373" cy="901012"/>
+            <a:off x="859586" y="4598072"/>
+            <a:ext cx="822119" cy="901012"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2298,13 +2377,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="203" name="正方形/長方形 202"/>
+          <xdr:cNvPr id="203" name="正方形/長方形 202">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CB000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1159941" y="4598329"/>
-            <a:ext cx="634360" cy="898473"/>
+            <a:off x="1683419" y="4598329"/>
+            <a:ext cx="776817" cy="898473"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2441,150 +2526,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="204" name="正方形/長方形 203"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1764672" y="4598330"/>
-            <a:ext cx="702524" cy="898474"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent5"/>
-          </a:lnRef>
-          <a:fillRef idx="2">
-            <a:schemeClr val="accent5"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="accent5"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" lIns="36000" rIns="36000" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="900">
-                <a:solidFill>
-                  <a:schemeClr val="tx2">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>JDK(OpenJDK 8)</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="205" name="正方形/長方形 204"/>
+          <xdr:cNvPr id="205" name="正方形/長方形 204">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CD000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2775,13 +2723,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="206" name="正方形/長方形 205"/>
+          <xdr:cNvPr id="206" name="正方形/長方形 205">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CE000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
             <a:off x="2771801" y="4598329"/>
-            <a:ext cx="559513" cy="898475"/>
+            <a:ext cx="408250" cy="898475"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2918,13 +2872,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="207" name="正方形/長方形 206"/>
+          <xdr:cNvPr id="207" name="正方形/長方形 206">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CF000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3331314" y="4598073"/>
-            <a:ext cx="468050" cy="901011"/>
+            <a:off x="3180277" y="4598073"/>
+            <a:ext cx="391095" cy="901011"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3076,13 +3036,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="208" name="正方形/長方形 207"/>
+          <xdr:cNvPr id="208" name="正方形/長方形 207">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D0000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4864990" y="4600302"/>
-            <a:ext cx="1327523" cy="442836"/>
+            <a:off x="4350091" y="4857484"/>
+            <a:ext cx="910140" cy="198598"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3219,13 +3185,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="209" name="正方形/長方形 208"/>
+          <xdr:cNvPr id="209" name="正方形/長方形 208">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D1000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4864990" y="5043138"/>
-            <a:ext cx="1327523" cy="455945"/>
+            <a:off x="4347149" y="5064561"/>
+            <a:ext cx="1845364" cy="434522"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3355,19 +3327,25 @@
                 <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>JDK(OpenJDK 8)</a:t>
+              <a:t>JDK(OpenJDK 17)</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="210" name="正方形/長方形 209"/>
+          <xdr:cNvPr id="210" name="正方形/長方形 209">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D2000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3799364" y="4598947"/>
+            <a:off x="3572809" y="4598947"/>
             <a:ext cx="234025" cy="892351"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -3505,13 +3483,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="211" name="正方形/長方形 210"/>
+          <xdr:cNvPr id="211" name="正方形/長方形 210">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D3000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4033389" y="4598947"/>
-            <a:ext cx="402881" cy="892351"/>
+            <a:off x="3813701" y="4598947"/>
+            <a:ext cx="258837" cy="892351"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3648,13 +3632,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="212" name="正方形/長方形 211"/>
+          <xdr:cNvPr id="212" name="正方形/長方形 211">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D4000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4864990" y="4220521"/>
-            <a:ext cx="1327522" cy="360040"/>
+            <a:off x="4350093" y="4598638"/>
+            <a:ext cx="910138" cy="252375"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3796,13 +3786,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="213" name="正方形/長方形 212"/>
+          <xdr:cNvPr id="213" name="正方形/長方形 212">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D5000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4860032" y="3716464"/>
-            <a:ext cx="1332480" cy="504057"/>
+            <a:off x="4338271" y="3919169"/>
+            <a:ext cx="908230" cy="663735"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3933,7 +3929,7 @@
                 <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>業務アプリケーション</a:t>
+              <a:t>業務</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
               <a:solidFill>
@@ -3946,41 +3942,47 @@
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
                 <a:solidFill>
                   <a:srgbClr val="C00000"/>
                 </a:solidFill>
                 <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>（</a:t>
+              <a:t>アプリケーション</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:rPr lang="en-US" altLang="ja-JP" sz="900">
                 <a:solidFill>
                   <a:srgbClr val="C00000"/>
                 </a:solidFill>
                 <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>Online / Batch</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>）</a:t>
+              <a:t>(Online)</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="214" name="正方形/長方形 213"/>
+          <xdr:cNvPr id="214" name="正方形/長方形 213">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D6000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4171,13 +4173,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="215" name="正方形/長方形 214"/>
+          <xdr:cNvPr id="215" name="正方形/長方形 214">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D7000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
             <a:off x="6477354" y="4586591"/>
-            <a:ext cx="559491" cy="930401"/>
+            <a:ext cx="739483" cy="930401"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4314,13 +4322,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="216" name="正方形/長方形 215"/>
+          <xdr:cNvPr id="216" name="正方形/長方形 215">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D8000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7036845" y="4586866"/>
-            <a:ext cx="468050" cy="932403"/>
+            <a:off x="7223703" y="4586866"/>
+            <a:ext cx="699976" cy="932403"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4472,13 +4486,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="217" name="正方形/長方形 216"/>
+          <xdr:cNvPr id="217" name="正方形/長方形 216">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D9000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7504894" y="4586563"/>
-            <a:ext cx="523490" cy="930669"/>
+            <a:off x="7930826" y="4586563"/>
+            <a:ext cx="818412" cy="930669"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4615,150 +4635,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="218" name="正方形/長方形 217"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8028384" y="4586563"/>
-            <a:ext cx="720080" cy="930669"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent5"/>
-          </a:lnRef>
-          <a:fillRef idx="2">
-            <a:schemeClr val="accent5"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="accent5"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" lIns="36000" rIns="36000" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="900">
-                <a:solidFill>
-                  <a:schemeClr val="tx2">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>JDK(OpenJDK 8)</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="219" name="正方形/長方形 218"/>
+          <xdr:cNvPr id="219" name="正方形/長方形 218">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DB000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4926,13 +4809,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="220" name="正方形/長方形 219"/>
+          <xdr:cNvPr id="220" name="正方形/長方形 219">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DC000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4436270" y="4598947"/>
-            <a:ext cx="428720" cy="892351"/>
+            <a:off x="4079275" y="4598947"/>
+            <a:ext cx="261008" cy="892351"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5069,7 +4958,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="221" name="正方形/長方形 220"/>
+          <xdr:cNvPr id="221" name="正方形/長方形 220">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DD000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5237,7 +5132,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="222" name="正方形/長方形 221"/>
+          <xdr:cNvPr id="222" name="正方形/長方形 221">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DE000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5403,31 +5304,401 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="154" name="正方形/長方形 153">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D64EAAE1-D7D2-4ED6-A58D-18B8856D438C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5253366" y="4592167"/>
+            <a:ext cx="940545" cy="465921"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" lIns="36000" rIns="36000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>Nablarch</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="156" name="正方形/長方形 155">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34324E4A-8E80-4C29-A4F2-A4F7E25C7321}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5246501" y="3919169"/>
+            <a:ext cx="954274" cy="663735"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" lIns="36000" rIns="36000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>業務</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>アプリケーション</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>Batch</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>）</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>259005</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>88916</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>92606</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>57439</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>166297</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>108960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="162" name="正方形/長方形 161"/>
+        <xdr:cNvPr id="162" name="正方形/長方形 161">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A2000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="20043632">
-          <a:off x="2745030" y="8207906"/>
-          <a:ext cx="4770484" cy="1873729"/>
+          <a:off x="3157327" y="7358820"/>
+          <a:ext cx="4819470" cy="2445229"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5489,7 +5760,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="グループ化 1"/>
+        <xdr:cNvPr id="2" name="グループ化 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -5502,7 +5779,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="137" name="グループ化 136"/>
+          <xdr:cNvPr id="137" name="グループ化 136">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000089000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -5515,7 +5798,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="140" name="円/楕円 139"/>
+            <xdr:cNvPr id="140" name="円/楕円 139">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5561,7 +5850,13 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="141" name="直線コネクタ 140"/>
+            <xdr:cNvPr id="141" name="直線コネクタ 140">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="140" idx="1"/>
               <a:endCxn id="140" idx="5"/>
@@ -5594,7 +5889,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="142" name="直線コネクタ 141"/>
+            <xdr:cNvPr id="142" name="直線コネクタ 141">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="140" idx="7"/>
               <a:endCxn id="140" idx="3"/>
@@ -5628,7 +5929,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="110" name="グループ化 109"/>
+          <xdr:cNvPr id="110" name="グループ化 109">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -5641,7 +5948,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="111" name="円/楕円 110"/>
+            <xdr:cNvPr id="111" name="円/楕円 110">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5687,7 +6000,13 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="115" name="直線コネクタ 114"/>
+            <xdr:cNvPr id="115" name="直線コネクタ 114">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000073000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="111" idx="1"/>
               <a:endCxn id="111" idx="5"/>
@@ -5720,7 +6039,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="116" name="直線コネクタ 115"/>
+            <xdr:cNvPr id="116" name="直線コネクタ 115">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="111" idx="7"/>
               <a:endCxn id="111" idx="3"/>
@@ -5754,7 +6079,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="19" name="グループ化 18"/>
+          <xdr:cNvPr id="19" name="グループ化 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -5767,7 +6098,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="円/楕円 11"/>
+            <xdr:cNvPr id="12" name="円/楕円 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5813,7 +6150,13 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="14" name="直線コネクタ 13"/>
+            <xdr:cNvPr id="14" name="直線コネクタ 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="12" idx="1"/>
               <a:endCxn id="12" idx="5"/>
@@ -5846,7 +6189,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="109" name="直線コネクタ 108"/>
+            <xdr:cNvPr id="109" name="直線コネクタ 108">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="12" idx="7"/>
               <a:endCxn id="12" idx="3"/>
@@ -5880,7 +6229,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="85" name="Rectangle 37"/>
+          <xdr:cNvPr id="85" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6026,7 +6381,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="86" name="Rectangle 37"/>
+          <xdr:cNvPr id="86" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6167,7 +6528,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="87" name="Rectangle 37"/>
+          <xdr:cNvPr id="87" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6332,7 +6699,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="88" name="Rectangle 37"/>
+          <xdr:cNvPr id="88" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6494,7 +6867,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="96" name="Rectangle 37"/>
+          <xdr:cNvPr id="96" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6651,7 +7030,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="97" name="Rectangle 37"/>
+          <xdr:cNvPr id="97" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6816,7 +7201,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="101" name="フローチャート : 磁気ディスク 100"/>
+          <xdr:cNvPr id="101" name="フローチャート : 磁気ディスク 100">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6978,7 +7369,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="102" name="Rectangle 37"/>
+          <xdr:cNvPr id="102" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -7143,13 +7540,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="103" name="正方形/長方形 102"/>
+          <xdr:cNvPr id="103" name="正方形/長方形 102">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5735127" y="3472006"/>
-            <a:ext cx="443577" cy="644066"/>
+            <a:off x="5702592" y="3472006"/>
+            <a:ext cx="508648" cy="644066"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -7308,13 +7711,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="104" name="正方形/長方形 103"/>
+          <xdr:cNvPr id="104" name="正方形/長方形 103">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6266962" y="3472006"/>
-            <a:ext cx="443577" cy="644066"/>
+            <a:off x="6234426" y="3472006"/>
+            <a:ext cx="508648" cy="644066"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -7468,13 +7877,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="105" name="正方形/長方形 104"/>
+          <xdr:cNvPr id="105" name="正方形/長方形 104">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6829675" y="3472006"/>
-            <a:ext cx="443577" cy="644066"/>
+            <a:off x="6797140" y="3472006"/>
+            <a:ext cx="508648" cy="644066"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -7628,7 +8043,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="106" name="正方形/長方形 105"/>
+          <xdr:cNvPr id="106" name="正方形/長方形 105">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7771,7 +8192,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="107" name="正方形/長方形 106"/>
+          <xdr:cNvPr id="107" name="正方形/長方形 106">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7914,7 +8341,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="108" name="正方形/長方形 107"/>
+          <xdr:cNvPr id="108" name="正方形/長方形 107">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8057,7 +8490,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="112" name="正方形/長方形 111"/>
+          <xdr:cNvPr id="112" name="正方形/長方形 111">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000070000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8208,7 +8647,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="113" name="正方形/長方形 112"/>
+          <xdr:cNvPr id="113" name="正方形/長方形 112">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000071000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8359,7 +8804,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="114" name="正方形/長方形 113"/>
+          <xdr:cNvPr id="114" name="正方形/長方形 113">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000072000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8510,7 +8961,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="118" name="正方形/長方形 117"/>
+          <xdr:cNvPr id="118" name="正方形/長方形 117">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000076000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8648,7 +9105,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="119" name="カギ線コネクタ 118"/>
+          <xdr:cNvPr id="119" name="カギ線コネクタ 118">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000077000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="118" idx="3"/>
             <a:endCxn id="105" idx="2"/>
@@ -8656,8 +9119,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipV="1">
-            <a:off x="5305513" y="4116072"/>
-            <a:ext cx="1745951" cy="329784"/>
+            <a:off x="5305512" y="4116072"/>
+            <a:ext cx="1745951" cy="328196"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector2">
             <a:avLst/>
@@ -8683,13 +9146,19 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="120" name="直線コネクタ 119"/>
+          <xdr:cNvPr id="120" name="直線コネクタ 119">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000078000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="103" idx="2"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipH="1">
+          <a:xfrm>
             <a:off x="5956916" y="4116072"/>
             <a:ext cx="1" cy="314656"/>
           </a:xfrm>
@@ -8717,14 +9186,20 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="121" name="直線コネクタ 120"/>
+          <xdr:cNvPr id="121" name="直線コネクタ 120">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="104" idx="2"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="6488751" y="4116072"/>
+          <a:xfrm>
+            <a:off x="6488750" y="4116072"/>
             <a:ext cx="1" cy="307509"/>
           </a:xfrm>
           <a:prstGeom prst="line">
@@ -8751,7 +9226,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="123" name="正方形/長方形 122"/>
+          <xdr:cNvPr id="123" name="正方形/長方形 122">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8890,7 +9371,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="125" name="正方形/長方形 124"/>
+          <xdr:cNvPr id="125" name="正方形/長方形 124">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9031,7 +9518,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="127" name="正方形/長方形 126"/>
+          <xdr:cNvPr id="127" name="正方形/長方形 126">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9170,7 +9663,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="128" name="カギ線コネクタ 127"/>
+          <xdr:cNvPr id="128" name="カギ線コネクタ 127">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="113" idx="3"/>
             <a:endCxn id="104" idx="0"/>
@@ -9178,8 +9677,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5357459" y="2760838"/>
-            <a:ext cx="1131292" cy="711168"/>
+            <a:off x="5357459" y="2759251"/>
+            <a:ext cx="1131291" cy="712755"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector2">
             <a:avLst/>
@@ -9210,7 +9709,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="131" name="カギ線コネクタ 130"/>
+          <xdr:cNvPr id="131" name="カギ線コネクタ 130">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="114" idx="3"/>
             <a:endCxn id="105" idx="0"/>
@@ -9218,8 +9723,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5357459" y="3193023"/>
-            <a:ext cx="1694005" cy="278983"/>
+            <a:off x="5357459" y="3194610"/>
+            <a:ext cx="1694005" cy="277396"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector2">
             <a:avLst/>
@@ -9248,7 +9753,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="133" name="Rectangle 37"/>
+          <xdr:cNvPr id="133" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -9389,7 +9900,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="134" name="Rectangle 37"/>
+          <xdr:cNvPr id="134" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000086000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -9573,7 +10090,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="135" name="カギ線コネクタ 134"/>
+          <xdr:cNvPr id="135" name="カギ線コネクタ 134">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000087000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="112" idx="3"/>
             <a:endCxn id="103" idx="0"/>
@@ -9581,8 +10104,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5357460" y="2350659"/>
-            <a:ext cx="599456" cy="1121347"/>
+            <a:off x="5357460" y="2349071"/>
+            <a:ext cx="599456" cy="1122935"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector2">
             <a:avLst/>
@@ -9611,7 +10134,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="138" name="右矢印 137"/>
+          <xdr:cNvPr id="138" name="右矢印 137">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9760,7 +10289,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="146" name="Rectangle 37"/>
+          <xdr:cNvPr id="146" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000092000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -9901,7 +10436,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="147" name="Rectangle 37"/>
+          <xdr:cNvPr id="147" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000093000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -10058,7 +10599,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="150" name="Rectangle 37"/>
+          <xdr:cNvPr id="150" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000096000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -10215,7 +10762,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="160" name="右矢印 159"/>
+          <xdr:cNvPr id="160" name="右矢印 159">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A0000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10364,7 +10917,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="161" name="正方形/長方形 160"/>
+          <xdr:cNvPr id="161" name="正方形/長方形 160">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10417,7 +10976,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="163" name="Rectangle 37"/>
+          <xdr:cNvPr id="163" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A3000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -10582,7 +11147,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="82" name="カギ線コネクタ 81"/>
+          <xdr:cNvPr id="82" name="カギ線コネクタ 81">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:endCxn id="127" idx="1"/>
           </xdr:cNvCxnSpPr>
@@ -10619,7 +11190,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="89" name="カギ線コネクタ 88"/>
+          <xdr:cNvPr id="89" name="カギ線コネクタ 88">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:endCxn id="107" idx="1"/>
           </xdr:cNvCxnSpPr>
@@ -10660,7 +11237,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="91" name="カギ線コネクタ 90"/>
+          <xdr:cNvPr id="91" name="カギ線コネクタ 90">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:endCxn id="123" idx="1"/>
           </xdr:cNvCxnSpPr>
@@ -10697,7 +11280,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
+          <xdr:cNvPr id="20" name="テキスト ボックス 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10749,7 +11338,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="117" name="テキスト ボックス 116"/>
+          <xdr:cNvPr id="117" name="テキスト ボックス 116">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000075000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10801,7 +11396,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="122" name="Rectangle 37"/>
+          <xdr:cNvPr id="122" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -10963,7 +11564,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="124" name="Rectangle 37"/>
+          <xdr:cNvPr id="124" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -11112,7 +11719,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="126" name="グループ化 125"/>
+          <xdr:cNvPr id="126" name="グループ化 125">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -11125,7 +11738,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="129" name="円/楕円 128"/>
+            <xdr:cNvPr id="129" name="円/楕円 128">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000081000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -11171,7 +11790,13 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="130" name="直線コネクタ 129"/>
+            <xdr:cNvPr id="130" name="直線コネクタ 129">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="129" idx="1"/>
               <a:endCxn id="129" idx="5"/>
@@ -11204,7 +11829,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="132" name="直線コネクタ 131"/>
+            <xdr:cNvPr id="132" name="直線コネクタ 131">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="129" idx="7"/>
               <a:endCxn id="129" idx="3"/>
@@ -11238,7 +11869,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="136" name="テキスト ボックス 135"/>
+          <xdr:cNvPr id="136" name="テキスト ボックス 135">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000088000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11290,7 +11927,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="139" name="右矢印 138"/>
+          <xdr:cNvPr id="139" name="右矢印 138">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11435,7 +12078,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="143" name="テキスト ボックス 142"/>
+          <xdr:cNvPr id="143" name="テキスト ボックス 142">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11487,7 +12136,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="144" name="グループ化 143"/>
+          <xdr:cNvPr id="144" name="グループ化 143">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000090000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -11500,7 +12155,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="145" name="円/楕円 144"/>
+            <xdr:cNvPr id="145" name="円/楕円 144">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000091000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -11546,7 +12207,13 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="151" name="直線コネクタ 150"/>
+            <xdr:cNvPr id="151" name="直線コネクタ 150">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000097000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="145" idx="1"/>
               <a:endCxn id="145" idx="5"/>
@@ -11579,7 +12246,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="152" name="直線コネクタ 151"/>
+            <xdr:cNvPr id="152" name="直線コネクタ 151">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000098000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="145" idx="7"/>
               <a:endCxn id="145" idx="3"/>
@@ -11613,7 +12286,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="153" name="テキスト ボックス 152"/>
+          <xdr:cNvPr id="153" name="テキスト ボックス 152">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000099000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11665,7 +12344,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="149" name="右矢印 148"/>
+          <xdr:cNvPr id="149" name="右矢印 148">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000095000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11814,7 +12499,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="148" name="右矢印 147"/>
+          <xdr:cNvPr id="148" name="右矢印 147">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000094000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11979,7 +12670,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="155" name="図 154" descr="çå£ãªé¡ã®ãã¬ãã©ã³ã»ãªãã¬ã¼ã¿ã¼ã®ã¤ã©ã¹ãï¼ç·æ§ï¼"/>
+        <xdr:cNvPr id="155" name="図 154" descr="çå£ãªé¡ã®ãã¬ãã©ã³ã»ãªãã¬ã¼ã¿ã¼ã®ã¤ã©ã¹ãï¼ç·æ§ï¼">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12034,7 +12731,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="165" name="図 164" descr="ãã½ã³ã³ãä½¿ãå¥³æ§ã®ã¤ã©ã¹ã"/>
+        <xdr:cNvPr id="165" name="図 164" descr="ãã½ã³ã³ãä½¿ãå¥³æ§ã®ã¤ã©ã¹ã">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A5000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12089,7 +12792,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="166" name="図 165" descr="ãã½ã³ã³ãä½¿ãã¹ãã¼ãã¦ã§ã¢ãçãäººã®ã¤ã©ã¹ãï¼ç·æ§ï¼"/>
+        <xdr:cNvPr id="166" name="図 165" descr="ãã½ã³ã³ãä½¿ãã¹ãã¼ãã¦ã§ã¢ãçãäººã®ã¤ã©ã¹ãï¼ç·æ§ï¼">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A6000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12133,7 +12842,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -12175,7 +12884,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12208,9 +12917,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12243,6 +12969,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -12418,11 +13161,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI454"/>
+  <dimension ref="A1:AI452"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="140" zoomScaleNormal="100" zoomScaleSheetLayoutView="140" workbookViewId="0"/>
   </sheetViews>
@@ -12438,45 +13181,45 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="44" t="s">
-        <v>22</v>
+      <c r="E1" s="45" t="s">
+        <v>18</v>
       </c>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="47"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="47" t="s">
-        <v>23</v>
+      <c r="R1" s="48" t="s">
+        <v>19</v>
       </c>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="50"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="43"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="44"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -12485,43 +13228,43 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="55"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="56"/>
       <c r="P2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="8"/>
-      <c r="R2" s="56" t="s">
+      <c r="R2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="59"/>
       <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="43"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="44"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -12530,39 +13273,39 @@
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="12"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="61"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="62"/>
       <c r="Y3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="Z3" s="13"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="51"/>
-      <c r="AD3" s="51"/>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="43"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="52"/>
+      <c r="AC3" s="52"/>
+      <c r="AD3" s="52"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="44"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12700,12 +13443,12 @@
     </row>
     <row r="76" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D76" s="15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D77" s="16" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12720,7 +13463,7 @@
         <v>2.4.</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E79" s="18"/>
       <c r="F79" s="18"/>
@@ -12763,7 +13506,7 @@
         <v>2.4.1.</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F80" s="18"/>
       <c r="G80" s="18"/>
@@ -12839,7 +13582,7 @@
       <c r="C82" s="17"/>
       <c r="D82" s="19"/>
       <c r="E82" s="18" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F82" s="18"/>
       <c r="G82" s="18"/>
@@ -12878,7 +13621,7 @@
       <c r="C83" s="17"/>
       <c r="D83" s="19"/>
       <c r="E83" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F83" s="18"/>
       <c r="G83" s="18"/>
@@ -12954,12 +13697,12 @@
       <c r="C85" s="17"/>
       <c r="D85" s="19"/>
       <c r="E85" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F85" s="21"/>
       <c r="G85" s="22"/>
       <c r="H85" s="20" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I85" s="21"/>
       <c r="J85" s="21"/>
@@ -12997,19 +13740,19 @@
       <c r="C86" s="17"/>
       <c r="D86" s="19"/>
       <c r="E86" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F86" s="33"/>
       <c r="G86" s="34"/>
-      <c r="H86" s="32" t="s">
-        <v>32</v>
+      <c r="H86" s="38" t="s">
+        <v>30</v>
       </c>
       <c r="I86" s="33"/>
       <c r="J86" s="33"/>
       <c r="K86" s="33"/>
       <c r="L86" s="34"/>
       <c r="M86" s="23" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N86" s="24"/>
       <c r="O86" s="24"/>
@@ -13039,16 +13782,16 @@
       <c r="B87" s="18"/>
       <c r="C87" s="17"/>
       <c r="D87" s="19"/>
-      <c r="E87" s="38"/>
-      <c r="F87" s="39"/>
-      <c r="G87" s="40"/>
-      <c r="H87" s="38"/>
-      <c r="I87" s="39"/>
-      <c r="J87" s="39"/>
-      <c r="K87" s="39"/>
-      <c r="L87" s="40"/>
+      <c r="E87" s="39"/>
+      <c r="F87" s="40"/>
+      <c r="G87" s="41"/>
+      <c r="H87" s="39"/>
+      <c r="I87" s="40"/>
+      <c r="J87" s="40"/>
+      <c r="K87" s="40"/>
+      <c r="L87" s="41"/>
       <c r="M87" s="26" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N87" s="27"/>
       <c r="O87" s="27"/>
@@ -13078,38 +13821,42 @@
       <c r="B88" s="18"/>
       <c r="C88" s="17"/>
       <c r="D88" s="19"/>
-      <c r="E88" s="38"/>
-      <c r="F88" s="39"/>
-      <c r="G88" s="40"/>
-      <c r="H88" s="38"/>
-      <c r="I88" s="39"/>
-      <c r="J88" s="39"/>
-      <c r="K88" s="39"/>
-      <c r="L88" s="40"/>
-      <c r="M88" s="26" t="s">
-        <v>20</v>
+      <c r="E88" s="32" t="s">
+        <v>25</v>
       </c>
-      <c r="N88" s="27"/>
-      <c r="O88" s="27"/>
-      <c r="P88" s="27"/>
-      <c r="Q88" s="27"/>
-      <c r="R88" s="27"/>
-      <c r="S88" s="27"/>
-      <c r="T88" s="27"/>
-      <c r="U88" s="27"/>
-      <c r="V88" s="27"/>
-      <c r="W88" s="27"/>
-      <c r="X88" s="27"/>
-      <c r="Y88" s="27"/>
-      <c r="Z88" s="27"/>
-      <c r="AA88" s="27"/>
-      <c r="AB88" s="27"/>
-      <c r="AC88" s="27"/>
-      <c r="AD88" s="27"/>
-      <c r="AE88" s="27"/>
-      <c r="AF88" s="27"/>
-      <c r="AG88" s="27"/>
-      <c r="AH88" s="28"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I88" s="33"/>
+      <c r="J88" s="33"/>
+      <c r="K88" s="33"/>
+      <c r="L88" s="34"/>
+      <c r="M88" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="N88" s="24"/>
+      <c r="O88" s="24"/>
+      <c r="P88" s="24"/>
+      <c r="Q88" s="24"/>
+      <c r="R88" s="24"/>
+      <c r="S88" s="24"/>
+      <c r="T88" s="24"/>
+      <c r="U88" s="24"/>
+      <c r="V88" s="24"/>
+      <c r="W88" s="24"/>
+      <c r="X88" s="24"/>
+      <c r="Y88" s="24"/>
+      <c r="Z88" s="24"/>
+      <c r="AA88" s="24"/>
+      <c r="AB88" s="24"/>
+      <c r="AC88" s="24"/>
+      <c r="AD88" s="24"/>
+      <c r="AE88" s="24"/>
+      <c r="AF88" s="24"/>
+      <c r="AG88" s="24"/>
+      <c r="AH88" s="25"/>
       <c r="AI88" s="18"/>
     </row>
     <row r="89" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13125,9 +13872,7 @@
       <c r="J89" s="36"/>
       <c r="K89" s="36"/>
       <c r="L89" s="37"/>
-      <c r="M89" s="29" t="s">
-        <v>35</v>
-      </c>
+      <c r="M89" s="29"/>
       <c r="N89" s="30"/>
       <c r="O89" s="30"/>
       <c r="P89" s="30"/>
@@ -13156,124 +13901,46 @@
       <c r="B90" s="18"/>
       <c r="C90" s="17"/>
       <c r="D90" s="19"/>
-      <c r="E90" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="F90" s="33"/>
-      <c r="G90" s="34"/>
-      <c r="H90" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="I90" s="33"/>
-      <c r="J90" s="33"/>
-      <c r="K90" s="33"/>
-      <c r="L90" s="34"/>
-      <c r="M90" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="N90" s="24"/>
-      <c r="O90" s="24"/>
-      <c r="P90" s="24"/>
-      <c r="Q90" s="24"/>
-      <c r="R90" s="24"/>
-      <c r="S90" s="24"/>
-      <c r="T90" s="24"/>
-      <c r="U90" s="24"/>
-      <c r="V90" s="24"/>
-      <c r="W90" s="24"/>
-      <c r="X90" s="24"/>
-      <c r="Y90" s="24"/>
-      <c r="Z90" s="24"/>
-      <c r="AA90" s="24"/>
-      <c r="AB90" s="24"/>
-      <c r="AC90" s="24"/>
-      <c r="AD90" s="24"/>
-      <c r="AE90" s="24"/>
-      <c r="AF90" s="24"/>
-      <c r="AG90" s="24"/>
-      <c r="AH90" s="25"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="18"/>
+      <c r="K90" s="18"/>
+      <c r="L90" s="18"/>
+      <c r="M90" s="18"/>
+      <c r="N90" s="18"/>
+      <c r="O90" s="18"/>
+      <c r="P90" s="18"/>
+      <c r="Q90" s="18"/>
+      <c r="R90" s="18"/>
+      <c r="S90" s="18"/>
+      <c r="T90" s="18"/>
+      <c r="U90" s="18"/>
+      <c r="V90" s="18"/>
+      <c r="W90" s="18"/>
+      <c r="X90" s="18"/>
+      <c r="Y90" s="18"/>
+      <c r="Z90" s="18"/>
+      <c r="AA90" s="18"/>
+      <c r="AB90" s="18"/>
+      <c r="AC90" s="18"/>
+      <c r="AD90" s="18"/>
+      <c r="AE90" s="18"/>
+      <c r="AF90" s="18"/>
+      <c r="AG90" s="18"/>
+      <c r="AH90" s="18"/>
       <c r="AI90" s="18"/>
     </row>
     <row r="91" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="18"/>
-      <c r="B91" s="18"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="35"/>
-      <c r="F91" s="36"/>
-      <c r="G91" s="37"/>
-      <c r="H91" s="35"/>
-      <c r="I91" s="36"/>
-      <c r="J91" s="36"/>
-      <c r="K91" s="36"/>
-      <c r="L91" s="37"/>
-      <c r="M91" s="29"/>
-      <c r="N91" s="30"/>
-      <c r="O91" s="30"/>
-      <c r="P91" s="30"/>
-      <c r="Q91" s="30"/>
-      <c r="R91" s="30"/>
-      <c r="S91" s="30"/>
-      <c r="T91" s="30"/>
-      <c r="U91" s="30"/>
-      <c r="V91" s="30"/>
-      <c r="W91" s="30"/>
-      <c r="X91" s="30"/>
-      <c r="Y91" s="30"/>
-      <c r="Z91" s="30"/>
-      <c r="AA91" s="30"/>
-      <c r="AB91" s="30"/>
-      <c r="AC91" s="30"/>
-      <c r="AD91" s="30"/>
-      <c r="AE91" s="30"/>
-      <c r="AF91" s="30"/>
-      <c r="AG91" s="30"/>
-      <c r="AH91" s="31"/>
-      <c r="AI91" s="18"/>
+      <c r="C91" s="14"/>
     </row>
     <row r="92" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="18"/>
-      <c r="B92" s="18"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="18"/>
-      <c r="I92" s="18"/>
-      <c r="J92" s="18"/>
-      <c r="K92" s="18"/>
-      <c r="L92" s="18"/>
-      <c r="M92" s="18"/>
-      <c r="N92" s="18"/>
-      <c r="O92" s="18"/>
-      <c r="P92" s="18"/>
-      <c r="Q92" s="18"/>
-      <c r="R92" s="18"/>
-      <c r="S92" s="18"/>
-      <c r="T92" s="18"/>
-      <c r="U92" s="18"/>
-      <c r="V92" s="18"/>
-      <c r="W92" s="18"/>
-      <c r="X92" s="18"/>
-      <c r="Y92" s="18"/>
-      <c r="Z92" s="18"/>
-      <c r="AA92" s="18"/>
-      <c r="AB92" s="18"/>
-      <c r="AC92" s="18"/>
-      <c r="AD92" s="18"/>
-      <c r="AE92" s="18"/>
-      <c r="AF92" s="18"/>
-      <c r="AG92" s="18"/>
-      <c r="AH92" s="18"/>
-      <c r="AI92" s="18"/>
+      <c r="C92" s="14"/>
     </row>
-    <row r="93" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C93" s="14"/>
-    </row>
-    <row r="94" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C94" s="14"/>
-    </row>
+    <row r="93" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="95" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="96" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="97" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13632,13 +14299,11 @@
     <row r="450" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="451" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="452" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E90:G91"/>
-    <mergeCell ref="H86:L89"/>
-    <mergeCell ref="H90:L91"/>
+    <mergeCell ref="E88:G89"/>
+    <mergeCell ref="H86:L87"/>
+    <mergeCell ref="H88:L89"/>
     <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="E1:O1"/>
     <mergeCell ref="R1:X1"/>
@@ -13650,11 +14315,11 @@
     <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="E3:O3"/>
     <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="E86:G89"/>
+    <mergeCell ref="E86:G87"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="D77" r:id="rId1"/>
+    <hyperlink ref="D77" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>

--- a/nablarch_sample/アプリケーション方式設計書_2全体概要.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_2全体概要.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9C2FB2-9C9C-40F9-98A0-37C21314007D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3E86D0-C0BC-475C-9E2A-0A7502DBCC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8627,7 +8627,7 @@
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>オンラインアプリ</a:t>
+              <a:t>会員</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
@@ -8635,7 +8635,7 @@
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>1</a:t>
+              <a:t>WEB1</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -8784,7 +8784,7 @@
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>オンラインアプリ</a:t>
+              <a:t>会員</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" sz="800">
@@ -8792,7 +8792,7 @@
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>2</a:t>
+              <a:t>WEB2</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -8941,7 +8941,7 @@
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>オンラインアプリ</a:t>
+              <a:t>管理者</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" sz="800">
@@ -8949,7 +8949,7 @@
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>3</a:t>
+              <a:t>WEB</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -10928,8 +10928,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm rot="20043632">
-            <a:off x="2618032" y="2610381"/>
-            <a:ext cx="4392659" cy="1832454"/>
+            <a:off x="2723540" y="2610380"/>
+            <a:ext cx="4392659" cy="1832455"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>

--- a/nablarch_sample/アプリケーション方式設計書_2全体概要.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_2全体概要.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3E86D0-C0BC-475C-9E2A-0A7502DBCC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="16590" windowHeight="6570"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2.全体概要" sheetId="13" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2.全体概要'!$A$1:$AI$92</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2.全体概要'!$A$1:$AI$90</definedName>
     <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$77</definedName>
     <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$77</definedName>
     <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$77</definedName>
     <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$77</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -109,52 +121,6 @@
     <t>本システムで稼働するアプリケーションの全体図を以下に記載する。</t>
   </si>
   <si>
-    <t>https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/nablarch/big_picture.html</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>サポートが行われることになっている。</t>
-    <rPh sb="5" eb="6">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>また、Java9、Java10は本システムリリース前に公式サポートが終了し、</t>
-    <rPh sb="16" eb="17">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>コウシキ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2019年1月までOracleによるサポートが行われており、Red HatのOpenJDK 8であれば、2020年10月まで</t>
-    <rPh sb="4" eb="5">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>XXXプロジェクト</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -217,10 +183,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>5u13</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>その他のソフトウェアに関しては、役割分担上、インフラ担当に割り当たっているため、インフラ担当の成果物にて定義する。</t>
     <rPh sb="2" eb="3">
       <t>タ</t>
@@ -258,10 +220,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>OpenJDK8</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>種類およびバージョン</t>
     <rPh sb="0" eb="2">
       <t>シュルイ</t>
@@ -269,33 +227,82 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>現時点の最新バージョンを利用するため。</t>
-    <rPh sb="0" eb="3">
-      <t>ゲンジテン</t>
+    <t>5u21</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OSがRHELであるため、同じRedHat社が提供するOpenJDKビルドを使用する。</t>
+    <rPh sb="13" eb="14">
+      <t>オナ</t>
     </rPh>
-    <rPh sb="4" eb="6">
-      <t>サイシン</t>
+    <rPh sb="21" eb="22">
+      <t>シャ</t>
     </rPh>
-    <rPh sb="12" eb="14">
-      <t>リヨウ</t>
+    <rPh sb="23" eb="25">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Java11は本プロジェクトのコーディングフェーズ時点では、リリースされていない。</t>
-    <rPh sb="7" eb="8">
-      <t>ホン</t>
+    <t>RedHat OpenJDK 17</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2022年7月現在、RedHatのOpenJDKで最もサポート期間が長いバージョンは17であるため、これを選択する。</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
     </rPh>
-    <rPh sb="25" eb="27">
-      <t>ジテン</t>
+    <rPh sb="6" eb="7">
+      <t>ガツ</t>
     </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2022年7月現在最新バージョンである5u21を選択する。</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://nablarch.github.io/docs/5u21/doc/application_framework/application_framework/nablarch/big_picture.html</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -531,7 +538,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -646,6 +653,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -725,9 +735,9 @@
   <cellStyles count="5">
     <cellStyle name="ハイパーリンク" xfId="4" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 3 2 3" xfId="3"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -741,6 +751,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -763,7 +776,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="192" name="グループ化 191"/>
+        <xdr:cNvPr id="192" name="グループ化 191">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -776,7 +795,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="193" name="正方形/長方形 192"/>
+          <xdr:cNvPr id="193" name="正方形/長方形 192">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C1000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -914,7 +939,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="194" name="正方形/長方形 193"/>
+          <xdr:cNvPr id="194" name="正方形/長方形 193">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C2000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1055,7 +1086,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="195" name="正方形/長方形 194"/>
+          <xdr:cNvPr id="195" name="正方形/長方形 194">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C3000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1198,7 +1235,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="196" name="正方形/長方形 195"/>
+          <xdr:cNvPr id="196" name="正方形/長方形 195">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C4000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1362,7 +1405,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="197" name="正方形/長方形 196"/>
+          <xdr:cNvPr id="197" name="正方形/長方形 196">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C5000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1506,7 +1555,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="198" name="正方形/長方形 197"/>
+          <xdr:cNvPr id="198" name="正方形/長方形 197">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C6000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1654,7 +1709,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="199" name="正方形/長方形 198"/>
+          <xdr:cNvPr id="199" name="正方形/長方形 198">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C7000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1806,7 +1867,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="200" name="正方形/長方形 199"/>
+          <xdr:cNvPr id="200" name="正方形/長方形 199">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C8000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1997,13 +2064,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="201" name="正方形/長方形 200"/>
+          <xdr:cNvPr id="201" name="正方形/長方形 200">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C9000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
             <a:off x="124077" y="4598329"/>
-            <a:ext cx="559491" cy="898475"/>
+            <a:ext cx="728643" cy="898475"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2140,13 +2213,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="202" name="正方形/長方形 201"/>
+          <xdr:cNvPr id="202" name="正方形/長方形 201">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CA000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="683568" y="4598072"/>
-            <a:ext cx="476373" cy="901012"/>
+            <a:off x="859586" y="4598072"/>
+            <a:ext cx="822119" cy="901012"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2298,13 +2377,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="203" name="正方形/長方形 202"/>
+          <xdr:cNvPr id="203" name="正方形/長方形 202">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CB000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1159941" y="4598329"/>
-            <a:ext cx="634360" cy="898473"/>
+            <a:off x="1683419" y="4598329"/>
+            <a:ext cx="776817" cy="898473"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2441,150 +2526,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="204" name="正方形/長方形 203"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1764672" y="4598330"/>
-            <a:ext cx="702524" cy="898474"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent5"/>
-          </a:lnRef>
-          <a:fillRef idx="2">
-            <a:schemeClr val="accent5"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="accent5"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" lIns="36000" rIns="36000" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="900">
-                <a:solidFill>
-                  <a:schemeClr val="tx2">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>JDK(OpenJDK 8)</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="205" name="正方形/長方形 204"/>
+          <xdr:cNvPr id="205" name="正方形/長方形 204">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CD000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2775,13 +2723,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="206" name="正方形/長方形 205"/>
+          <xdr:cNvPr id="206" name="正方形/長方形 205">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CE000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
             <a:off x="2771801" y="4598329"/>
-            <a:ext cx="559513" cy="898475"/>
+            <a:ext cx="408250" cy="898475"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2918,13 +2872,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="207" name="正方形/長方形 206"/>
+          <xdr:cNvPr id="207" name="正方形/長方形 206">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CF000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3331314" y="4598073"/>
-            <a:ext cx="468050" cy="901011"/>
+            <a:off x="3180277" y="4598073"/>
+            <a:ext cx="391095" cy="901011"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3076,13 +3036,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="208" name="正方形/長方形 207"/>
+          <xdr:cNvPr id="208" name="正方形/長方形 207">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D0000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4864990" y="4600302"/>
-            <a:ext cx="1327523" cy="442836"/>
+            <a:off x="4350091" y="4857484"/>
+            <a:ext cx="910140" cy="198598"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3219,13 +3185,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="209" name="正方形/長方形 208"/>
+          <xdr:cNvPr id="209" name="正方形/長方形 208">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D1000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4864990" y="5043138"/>
-            <a:ext cx="1327523" cy="455945"/>
+            <a:off x="4347149" y="5064561"/>
+            <a:ext cx="1845364" cy="434522"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3355,19 +3327,25 @@
                 <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>JDK(OpenJDK 8)</a:t>
+              <a:t>JDK(OpenJDK 17)</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="210" name="正方形/長方形 209"/>
+          <xdr:cNvPr id="210" name="正方形/長方形 209">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D2000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3799364" y="4598947"/>
+            <a:off x="3572809" y="4598947"/>
             <a:ext cx="234025" cy="892351"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -3505,13 +3483,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="211" name="正方形/長方形 210"/>
+          <xdr:cNvPr id="211" name="正方形/長方形 210">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D3000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4033389" y="4598947"/>
-            <a:ext cx="402881" cy="892351"/>
+            <a:off x="3813701" y="4598947"/>
+            <a:ext cx="258837" cy="892351"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3648,13 +3632,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="212" name="正方形/長方形 211"/>
+          <xdr:cNvPr id="212" name="正方形/長方形 211">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D4000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4864990" y="4220521"/>
-            <a:ext cx="1327522" cy="360040"/>
+            <a:off x="4350093" y="4598638"/>
+            <a:ext cx="910138" cy="252375"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3796,13 +3786,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="213" name="正方形/長方形 212"/>
+          <xdr:cNvPr id="213" name="正方形/長方形 212">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D5000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4860032" y="3716464"/>
-            <a:ext cx="1332480" cy="504057"/>
+            <a:off x="4338271" y="3919169"/>
+            <a:ext cx="908230" cy="663735"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3933,7 +3929,7 @@
                 <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>業務アプリケーション</a:t>
+              <a:t>業務</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
               <a:solidFill>
@@ -3946,41 +3942,47 @@
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
                 <a:solidFill>
                   <a:srgbClr val="C00000"/>
                 </a:solidFill>
                 <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>（</a:t>
+              <a:t>アプリケーション</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:rPr lang="en-US" altLang="ja-JP" sz="900">
                 <a:solidFill>
                   <a:srgbClr val="C00000"/>
                 </a:solidFill>
                 <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>Online / Batch</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>）</a:t>
+              <a:t>(Online)</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="214" name="正方形/長方形 213"/>
+          <xdr:cNvPr id="214" name="正方形/長方形 213">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D6000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4171,13 +4173,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="215" name="正方形/長方形 214"/>
+          <xdr:cNvPr id="215" name="正方形/長方形 214">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D7000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
             <a:off x="6477354" y="4586591"/>
-            <a:ext cx="559491" cy="930401"/>
+            <a:ext cx="739483" cy="930401"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4314,13 +4322,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="216" name="正方形/長方形 215"/>
+          <xdr:cNvPr id="216" name="正方形/長方形 215">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D8000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7036845" y="4586866"/>
-            <a:ext cx="468050" cy="932403"/>
+            <a:off x="7223703" y="4586866"/>
+            <a:ext cx="699976" cy="932403"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4472,13 +4486,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="217" name="正方形/長方形 216"/>
+          <xdr:cNvPr id="217" name="正方形/長方形 216">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D9000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7504894" y="4586563"/>
-            <a:ext cx="523490" cy="930669"/>
+            <a:off x="7930826" y="4586563"/>
+            <a:ext cx="818412" cy="930669"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4615,150 +4635,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="218" name="正方形/長方形 217"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8028384" y="4586563"/>
-            <a:ext cx="720080" cy="930669"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent5"/>
-          </a:lnRef>
-          <a:fillRef idx="2">
-            <a:schemeClr val="accent5"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="accent5"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" lIns="36000" rIns="36000" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="900">
-                <a:solidFill>
-                  <a:schemeClr val="tx2">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>JDK(OpenJDK 8)</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="219" name="正方形/長方形 218"/>
+          <xdr:cNvPr id="219" name="正方形/長方形 218">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DB000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4926,13 +4809,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="220" name="正方形/長方形 219"/>
+          <xdr:cNvPr id="220" name="正方形/長方形 219">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DC000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4436270" y="4598947"/>
-            <a:ext cx="428720" cy="892351"/>
+            <a:off x="4079275" y="4598947"/>
+            <a:ext cx="261008" cy="892351"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5069,7 +4958,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="221" name="正方形/長方形 220"/>
+          <xdr:cNvPr id="221" name="正方形/長方形 220">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DD000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5237,7 +5132,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="222" name="正方形/長方形 221"/>
+          <xdr:cNvPr id="222" name="正方形/長方形 221">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DE000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5403,31 +5304,401 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="154" name="正方形/長方形 153">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D64EAAE1-D7D2-4ED6-A58D-18B8856D438C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5253366" y="4592167"/>
+            <a:ext cx="940545" cy="465921"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" lIns="36000" rIns="36000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>Nablarch</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="156" name="正方形/長方形 155">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34324E4A-8E80-4C29-A4F2-A4F7E25C7321}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5246501" y="3919169"/>
+            <a:ext cx="954274" cy="663735"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" lIns="36000" rIns="36000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>業務</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>アプリケーション</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>Batch</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>）</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>259005</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>88916</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>92606</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>57439</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>166297</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>108960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="162" name="正方形/長方形 161"/>
+        <xdr:cNvPr id="162" name="正方形/長方形 161">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A2000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="20043632">
-          <a:off x="2745030" y="8207906"/>
-          <a:ext cx="4770484" cy="1873729"/>
+          <a:off x="3157327" y="7358820"/>
+          <a:ext cx="4819470" cy="2445229"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5489,7 +5760,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="グループ化 1"/>
+        <xdr:cNvPr id="2" name="グループ化 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -5502,7 +5779,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="137" name="グループ化 136"/>
+          <xdr:cNvPr id="137" name="グループ化 136">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000089000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -5515,7 +5798,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="140" name="円/楕円 139"/>
+            <xdr:cNvPr id="140" name="円/楕円 139">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5561,7 +5850,13 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="141" name="直線コネクタ 140"/>
+            <xdr:cNvPr id="141" name="直線コネクタ 140">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="140" idx="1"/>
               <a:endCxn id="140" idx="5"/>
@@ -5594,7 +5889,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="142" name="直線コネクタ 141"/>
+            <xdr:cNvPr id="142" name="直線コネクタ 141">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="140" idx="7"/>
               <a:endCxn id="140" idx="3"/>
@@ -5628,7 +5929,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="110" name="グループ化 109"/>
+          <xdr:cNvPr id="110" name="グループ化 109">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -5641,7 +5948,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="111" name="円/楕円 110"/>
+            <xdr:cNvPr id="111" name="円/楕円 110">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5687,7 +6000,13 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="115" name="直線コネクタ 114"/>
+            <xdr:cNvPr id="115" name="直線コネクタ 114">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000073000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="111" idx="1"/>
               <a:endCxn id="111" idx="5"/>
@@ -5720,7 +6039,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="116" name="直線コネクタ 115"/>
+            <xdr:cNvPr id="116" name="直線コネクタ 115">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="111" idx="7"/>
               <a:endCxn id="111" idx="3"/>
@@ -5754,7 +6079,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="19" name="グループ化 18"/>
+          <xdr:cNvPr id="19" name="グループ化 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -5767,7 +6098,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="円/楕円 11"/>
+            <xdr:cNvPr id="12" name="円/楕円 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5813,7 +6150,13 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="14" name="直線コネクタ 13"/>
+            <xdr:cNvPr id="14" name="直線コネクタ 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="12" idx="1"/>
               <a:endCxn id="12" idx="5"/>
@@ -5846,7 +6189,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="109" name="直線コネクタ 108"/>
+            <xdr:cNvPr id="109" name="直線コネクタ 108">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="12" idx="7"/>
               <a:endCxn id="12" idx="3"/>
@@ -5880,7 +6229,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="85" name="Rectangle 37"/>
+          <xdr:cNvPr id="85" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6026,7 +6381,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="86" name="Rectangle 37"/>
+          <xdr:cNvPr id="86" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6167,7 +6528,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="87" name="Rectangle 37"/>
+          <xdr:cNvPr id="87" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6332,7 +6699,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="88" name="Rectangle 37"/>
+          <xdr:cNvPr id="88" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6494,7 +6867,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="96" name="Rectangle 37"/>
+          <xdr:cNvPr id="96" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6651,7 +7030,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="97" name="Rectangle 37"/>
+          <xdr:cNvPr id="97" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6816,7 +7201,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="101" name="フローチャート : 磁気ディスク 100"/>
+          <xdr:cNvPr id="101" name="フローチャート : 磁気ディスク 100">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6978,7 +7369,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="102" name="Rectangle 37"/>
+          <xdr:cNvPr id="102" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -7143,13 +7540,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="103" name="正方形/長方形 102"/>
+          <xdr:cNvPr id="103" name="正方形/長方形 102">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5735127" y="3472006"/>
-            <a:ext cx="443577" cy="644066"/>
+            <a:off x="5702592" y="3472006"/>
+            <a:ext cx="508648" cy="644066"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -7308,13 +7711,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="104" name="正方形/長方形 103"/>
+          <xdr:cNvPr id="104" name="正方形/長方形 103">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6266962" y="3472006"/>
-            <a:ext cx="443577" cy="644066"/>
+            <a:off x="6234426" y="3472006"/>
+            <a:ext cx="508648" cy="644066"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -7468,13 +7877,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="105" name="正方形/長方形 104"/>
+          <xdr:cNvPr id="105" name="正方形/長方形 104">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6829675" y="3472006"/>
-            <a:ext cx="443577" cy="644066"/>
+            <a:off x="6797140" y="3472006"/>
+            <a:ext cx="508648" cy="644066"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -7628,7 +8043,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="106" name="正方形/長方形 105"/>
+          <xdr:cNvPr id="106" name="正方形/長方形 105">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7771,7 +8192,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="107" name="正方形/長方形 106"/>
+          <xdr:cNvPr id="107" name="正方形/長方形 106">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7914,7 +8341,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="108" name="正方形/長方形 107"/>
+          <xdr:cNvPr id="108" name="正方形/長方形 107">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8057,7 +8490,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="112" name="正方形/長方形 111"/>
+          <xdr:cNvPr id="112" name="正方形/長方形 111">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000070000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8188,7 +8627,7 @@
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>オンラインアプリ</a:t>
+              <a:t>会員</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
@@ -8196,7 +8635,7 @@
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>1</a:t>
+              <a:t>WEB1</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -8208,7 +8647,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="113" name="正方形/長方形 112"/>
+          <xdr:cNvPr id="113" name="正方形/長方形 112">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000071000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8339,7 +8784,7 @@
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>オンラインアプリ</a:t>
+              <a:t>会員</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" sz="800">
@@ -8347,7 +8792,7 @@
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>2</a:t>
+              <a:t>WEB2</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -8359,7 +8804,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="114" name="正方形/長方形 113"/>
+          <xdr:cNvPr id="114" name="正方形/長方形 113">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000072000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8490,7 +8941,7 @@
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>オンラインアプリ</a:t>
+              <a:t>管理者</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" sz="800">
@@ -8498,7 +8949,7 @@
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>3</a:t>
+              <a:t>WEB</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -8510,7 +8961,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="118" name="正方形/長方形 117"/>
+          <xdr:cNvPr id="118" name="正方形/長方形 117">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000076000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8648,7 +9105,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="119" name="カギ線コネクタ 118"/>
+          <xdr:cNvPr id="119" name="カギ線コネクタ 118">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000077000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="118" idx="3"/>
             <a:endCxn id="105" idx="2"/>
@@ -8656,8 +9119,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipV="1">
-            <a:off x="5305513" y="4116072"/>
-            <a:ext cx="1745951" cy="329784"/>
+            <a:off x="5305512" y="4116072"/>
+            <a:ext cx="1745951" cy="328196"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector2">
             <a:avLst/>
@@ -8683,13 +9146,19 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="120" name="直線コネクタ 119"/>
+          <xdr:cNvPr id="120" name="直線コネクタ 119">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000078000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="103" idx="2"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipH="1">
+          <a:xfrm>
             <a:off x="5956916" y="4116072"/>
             <a:ext cx="1" cy="314656"/>
           </a:xfrm>
@@ -8717,14 +9186,20 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="121" name="直線コネクタ 120"/>
+          <xdr:cNvPr id="121" name="直線コネクタ 120">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="104" idx="2"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="6488751" y="4116072"/>
+          <a:xfrm>
+            <a:off x="6488750" y="4116072"/>
             <a:ext cx="1" cy="307509"/>
           </a:xfrm>
           <a:prstGeom prst="line">
@@ -8751,7 +9226,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="123" name="正方形/長方形 122"/>
+          <xdr:cNvPr id="123" name="正方形/長方形 122">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8890,7 +9371,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="125" name="正方形/長方形 124"/>
+          <xdr:cNvPr id="125" name="正方形/長方形 124">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9031,7 +9518,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="127" name="正方形/長方形 126"/>
+          <xdr:cNvPr id="127" name="正方形/長方形 126">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9170,7 +9663,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="128" name="カギ線コネクタ 127"/>
+          <xdr:cNvPr id="128" name="カギ線コネクタ 127">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="113" idx="3"/>
             <a:endCxn id="104" idx="0"/>
@@ -9178,8 +9677,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5357459" y="2760838"/>
-            <a:ext cx="1131292" cy="711168"/>
+            <a:off x="5357459" y="2759251"/>
+            <a:ext cx="1131291" cy="712755"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector2">
             <a:avLst/>
@@ -9210,7 +9709,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="131" name="カギ線コネクタ 130"/>
+          <xdr:cNvPr id="131" name="カギ線コネクタ 130">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="114" idx="3"/>
             <a:endCxn id="105" idx="0"/>
@@ -9218,8 +9723,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5357459" y="3193023"/>
-            <a:ext cx="1694005" cy="278983"/>
+            <a:off x="5357459" y="3194610"/>
+            <a:ext cx="1694005" cy="277396"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector2">
             <a:avLst/>
@@ -9248,7 +9753,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="133" name="Rectangle 37"/>
+          <xdr:cNvPr id="133" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -9389,7 +9900,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="134" name="Rectangle 37"/>
+          <xdr:cNvPr id="134" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000086000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -9573,7 +10090,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="135" name="カギ線コネクタ 134"/>
+          <xdr:cNvPr id="135" name="カギ線コネクタ 134">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000087000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="112" idx="3"/>
             <a:endCxn id="103" idx="0"/>
@@ -9581,8 +10104,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5357460" y="2350659"/>
-            <a:ext cx="599456" cy="1121347"/>
+            <a:off x="5357460" y="2349071"/>
+            <a:ext cx="599456" cy="1122935"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector2">
             <a:avLst/>
@@ -9611,7 +10134,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="138" name="右矢印 137"/>
+          <xdr:cNvPr id="138" name="右矢印 137">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9760,7 +10289,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="146" name="Rectangle 37"/>
+          <xdr:cNvPr id="146" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000092000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -9901,7 +10436,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="147" name="Rectangle 37"/>
+          <xdr:cNvPr id="147" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000093000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -10058,7 +10599,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="150" name="Rectangle 37"/>
+          <xdr:cNvPr id="150" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000096000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -10215,7 +10762,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="160" name="右矢印 159"/>
+          <xdr:cNvPr id="160" name="右矢印 159">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A0000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10364,13 +10917,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="161" name="正方形/長方形 160"/>
+          <xdr:cNvPr id="161" name="正方形/長方形 160">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm rot="20043632">
-            <a:off x="2618032" y="2610381"/>
-            <a:ext cx="4392659" cy="1832454"/>
+            <a:off x="2723540" y="2610380"/>
+            <a:ext cx="4392659" cy="1832455"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -10417,7 +10976,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="163" name="Rectangle 37"/>
+          <xdr:cNvPr id="163" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A3000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -10582,7 +11147,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="82" name="カギ線コネクタ 81"/>
+          <xdr:cNvPr id="82" name="カギ線コネクタ 81">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:endCxn id="127" idx="1"/>
           </xdr:cNvCxnSpPr>
@@ -10619,7 +11190,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="89" name="カギ線コネクタ 88"/>
+          <xdr:cNvPr id="89" name="カギ線コネクタ 88">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:endCxn id="107" idx="1"/>
           </xdr:cNvCxnSpPr>
@@ -10660,7 +11237,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="91" name="カギ線コネクタ 90"/>
+          <xdr:cNvPr id="91" name="カギ線コネクタ 90">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:endCxn id="123" idx="1"/>
           </xdr:cNvCxnSpPr>
@@ -10697,7 +11280,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
+          <xdr:cNvPr id="20" name="テキスト ボックス 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10749,7 +11338,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="117" name="テキスト ボックス 116"/>
+          <xdr:cNvPr id="117" name="テキスト ボックス 116">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000075000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10801,7 +11396,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="122" name="Rectangle 37"/>
+          <xdr:cNvPr id="122" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -10963,7 +11564,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="124" name="Rectangle 37"/>
+          <xdr:cNvPr id="124" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -11112,7 +11719,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="126" name="グループ化 125"/>
+          <xdr:cNvPr id="126" name="グループ化 125">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -11125,7 +11738,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="129" name="円/楕円 128"/>
+            <xdr:cNvPr id="129" name="円/楕円 128">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000081000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -11171,7 +11790,13 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="130" name="直線コネクタ 129"/>
+            <xdr:cNvPr id="130" name="直線コネクタ 129">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="129" idx="1"/>
               <a:endCxn id="129" idx="5"/>
@@ -11204,7 +11829,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="132" name="直線コネクタ 131"/>
+            <xdr:cNvPr id="132" name="直線コネクタ 131">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="129" idx="7"/>
               <a:endCxn id="129" idx="3"/>
@@ -11238,7 +11869,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="136" name="テキスト ボックス 135"/>
+          <xdr:cNvPr id="136" name="テキスト ボックス 135">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000088000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11290,7 +11927,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="139" name="右矢印 138"/>
+          <xdr:cNvPr id="139" name="右矢印 138">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11435,7 +12078,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="143" name="テキスト ボックス 142"/>
+          <xdr:cNvPr id="143" name="テキスト ボックス 142">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11487,7 +12136,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="144" name="グループ化 143"/>
+          <xdr:cNvPr id="144" name="グループ化 143">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000090000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -11500,7 +12155,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="145" name="円/楕円 144"/>
+            <xdr:cNvPr id="145" name="円/楕円 144">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000091000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -11546,7 +12207,13 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="151" name="直線コネクタ 150"/>
+            <xdr:cNvPr id="151" name="直線コネクタ 150">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000097000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="145" idx="1"/>
               <a:endCxn id="145" idx="5"/>
@@ -11579,7 +12246,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="152" name="直線コネクタ 151"/>
+            <xdr:cNvPr id="152" name="直線コネクタ 151">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000098000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="145" idx="7"/>
               <a:endCxn id="145" idx="3"/>
@@ -11613,7 +12286,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="153" name="テキスト ボックス 152"/>
+          <xdr:cNvPr id="153" name="テキスト ボックス 152">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000099000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11665,7 +12344,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="149" name="右矢印 148"/>
+          <xdr:cNvPr id="149" name="右矢印 148">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000095000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11814,7 +12499,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="148" name="右矢印 147"/>
+          <xdr:cNvPr id="148" name="右矢印 147">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000094000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11979,7 +12670,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="155" name="図 154" descr="çå£ãªé¡ã®ãã¬ãã©ã³ã»ãªãã¬ã¼ã¿ã¼ã®ã¤ã©ã¹ãï¼ç·æ§ï¼"/>
+        <xdr:cNvPr id="155" name="図 154" descr="çå£ãªé¡ã®ãã¬ãã©ã³ã»ãªãã¬ã¼ã¿ã¼ã®ã¤ã©ã¹ãï¼ç·æ§ï¼">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12034,7 +12731,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="165" name="図 164" descr="ãã½ã³ã³ãä½¿ãå¥³æ§ã®ã¤ã©ã¹ã"/>
+        <xdr:cNvPr id="165" name="図 164" descr="ãã½ã³ã³ãä½¿ãå¥³æ§ã®ã¤ã©ã¹ã">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A5000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12089,7 +12792,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="166" name="図 165" descr="ãã½ã³ã³ãä½¿ãã¹ãã¼ãã¦ã§ã¢ãçãäººã®ã¤ã©ã¹ãï¼ç·æ§ï¼"/>
+        <xdr:cNvPr id="166" name="図 165" descr="ãã½ã³ã³ãä½¿ãã¹ãã¼ãã¦ã§ã¢ãçãäººã®ã¤ã©ã¹ãï¼ç·æ§ï¼">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A6000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12133,7 +12842,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -12175,7 +12884,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12208,9 +12917,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12243,6 +12969,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -12418,11 +13161,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI454"/>
+  <dimension ref="A1:AI452"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="140" zoomScaleNormal="100" zoomScaleSheetLayoutView="140" workbookViewId="0"/>
   </sheetViews>
@@ -12438,45 +13181,45 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="44" t="s">
-        <v>22</v>
+      <c r="E1" s="45" t="s">
+        <v>18</v>
       </c>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="47"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="47" t="s">
-        <v>23</v>
+      <c r="R1" s="48" t="s">
+        <v>19</v>
       </c>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="50"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="43"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="44"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -12485,43 +13228,43 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="55"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="56"/>
       <c r="P2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="8"/>
-      <c r="R2" s="56" t="s">
+      <c r="R2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="59"/>
       <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="43"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="44"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -12530,39 +13273,39 @@
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="12"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="61"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="62"/>
       <c r="Y3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="Z3" s="13"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="51"/>
-      <c r="AD3" s="51"/>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="43"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="52"/>
+      <c r="AC3" s="52"/>
+      <c r="AD3" s="52"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="44"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12700,12 +13443,12 @@
     </row>
     <row r="76" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D76" s="15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D77" s="16" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12720,7 +13463,7 @@
         <v>2.4.</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E79" s="18"/>
       <c r="F79" s="18"/>
@@ -12763,7 +13506,7 @@
         <v>2.4.1.</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F80" s="18"/>
       <c r="G80" s="18"/>
@@ -12839,7 +13582,7 @@
       <c r="C82" s="17"/>
       <c r="D82" s="19"/>
       <c r="E82" s="18" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F82" s="18"/>
       <c r="G82" s="18"/>
@@ -12878,7 +13621,7 @@
       <c r="C83" s="17"/>
       <c r="D83" s="19"/>
       <c r="E83" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F83" s="18"/>
       <c r="G83" s="18"/>
@@ -12954,12 +13697,12 @@
       <c r="C85" s="17"/>
       <c r="D85" s="19"/>
       <c r="E85" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F85" s="21"/>
       <c r="G85" s="22"/>
       <c r="H85" s="20" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I85" s="21"/>
       <c r="J85" s="21"/>
@@ -12997,19 +13740,19 @@
       <c r="C86" s="17"/>
       <c r="D86" s="19"/>
       <c r="E86" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F86" s="33"/>
       <c r="G86" s="34"/>
-      <c r="H86" s="32" t="s">
-        <v>32</v>
+      <c r="H86" s="38" t="s">
+        <v>30</v>
       </c>
       <c r="I86" s="33"/>
       <c r="J86" s="33"/>
       <c r="K86" s="33"/>
       <c r="L86" s="34"/>
       <c r="M86" s="23" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N86" s="24"/>
       <c r="O86" s="24"/>
@@ -13039,16 +13782,16 @@
       <c r="B87" s="18"/>
       <c r="C87" s="17"/>
       <c r="D87" s="19"/>
-      <c r="E87" s="38"/>
-      <c r="F87" s="39"/>
-      <c r="G87" s="40"/>
-      <c r="H87" s="38"/>
-      <c r="I87" s="39"/>
-      <c r="J87" s="39"/>
-      <c r="K87" s="39"/>
-      <c r="L87" s="40"/>
+      <c r="E87" s="39"/>
+      <c r="F87" s="40"/>
+      <c r="G87" s="41"/>
+      <c r="H87" s="39"/>
+      <c r="I87" s="40"/>
+      <c r="J87" s="40"/>
+      <c r="K87" s="40"/>
+      <c r="L87" s="41"/>
       <c r="M87" s="26" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N87" s="27"/>
       <c r="O87" s="27"/>
@@ -13078,38 +13821,42 @@
       <c r="B88" s="18"/>
       <c r="C88" s="17"/>
       <c r="D88" s="19"/>
-      <c r="E88" s="38"/>
-      <c r="F88" s="39"/>
-      <c r="G88" s="40"/>
-      <c r="H88" s="38"/>
-      <c r="I88" s="39"/>
-      <c r="J88" s="39"/>
-      <c r="K88" s="39"/>
-      <c r="L88" s="40"/>
-      <c r="M88" s="26" t="s">
-        <v>20</v>
+      <c r="E88" s="32" t="s">
+        <v>25</v>
       </c>
-      <c r="N88" s="27"/>
-      <c r="O88" s="27"/>
-      <c r="P88" s="27"/>
-      <c r="Q88" s="27"/>
-      <c r="R88" s="27"/>
-      <c r="S88" s="27"/>
-      <c r="T88" s="27"/>
-      <c r="U88" s="27"/>
-      <c r="V88" s="27"/>
-      <c r="W88" s="27"/>
-      <c r="X88" s="27"/>
-      <c r="Y88" s="27"/>
-      <c r="Z88" s="27"/>
-      <c r="AA88" s="27"/>
-      <c r="AB88" s="27"/>
-      <c r="AC88" s="27"/>
-      <c r="AD88" s="27"/>
-      <c r="AE88" s="27"/>
-      <c r="AF88" s="27"/>
-      <c r="AG88" s="27"/>
-      <c r="AH88" s="28"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I88" s="33"/>
+      <c r="J88" s="33"/>
+      <c r="K88" s="33"/>
+      <c r="L88" s="34"/>
+      <c r="M88" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="N88" s="24"/>
+      <c r="O88" s="24"/>
+      <c r="P88" s="24"/>
+      <c r="Q88" s="24"/>
+      <c r="R88" s="24"/>
+      <c r="S88" s="24"/>
+      <c r="T88" s="24"/>
+      <c r="U88" s="24"/>
+      <c r="V88" s="24"/>
+      <c r="W88" s="24"/>
+      <c r="X88" s="24"/>
+      <c r="Y88" s="24"/>
+      <c r="Z88" s="24"/>
+      <c r="AA88" s="24"/>
+      <c r="AB88" s="24"/>
+      <c r="AC88" s="24"/>
+      <c r="AD88" s="24"/>
+      <c r="AE88" s="24"/>
+      <c r="AF88" s="24"/>
+      <c r="AG88" s="24"/>
+      <c r="AH88" s="25"/>
       <c r="AI88" s="18"/>
     </row>
     <row r="89" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13125,9 +13872,7 @@
       <c r="J89" s="36"/>
       <c r="K89" s="36"/>
       <c r="L89" s="37"/>
-      <c r="M89" s="29" t="s">
-        <v>35</v>
-      </c>
+      <c r="M89" s="29"/>
       <c r="N89" s="30"/>
       <c r="O89" s="30"/>
       <c r="P89" s="30"/>
@@ -13156,124 +13901,46 @@
       <c r="B90" s="18"/>
       <c r="C90" s="17"/>
       <c r="D90" s="19"/>
-      <c r="E90" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="F90" s="33"/>
-      <c r="G90" s="34"/>
-      <c r="H90" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="I90" s="33"/>
-      <c r="J90" s="33"/>
-      <c r="K90" s="33"/>
-      <c r="L90" s="34"/>
-      <c r="M90" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="N90" s="24"/>
-      <c r="O90" s="24"/>
-      <c r="P90" s="24"/>
-      <c r="Q90" s="24"/>
-      <c r="R90" s="24"/>
-      <c r="S90" s="24"/>
-      <c r="T90" s="24"/>
-      <c r="U90" s="24"/>
-      <c r="V90" s="24"/>
-      <c r="W90" s="24"/>
-      <c r="X90" s="24"/>
-      <c r="Y90" s="24"/>
-      <c r="Z90" s="24"/>
-      <c r="AA90" s="24"/>
-      <c r="AB90" s="24"/>
-      <c r="AC90" s="24"/>
-      <c r="AD90" s="24"/>
-      <c r="AE90" s="24"/>
-      <c r="AF90" s="24"/>
-      <c r="AG90" s="24"/>
-      <c r="AH90" s="25"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="18"/>
+      <c r="K90" s="18"/>
+      <c r="L90" s="18"/>
+      <c r="M90" s="18"/>
+      <c r="N90" s="18"/>
+      <c r="O90" s="18"/>
+      <c r="P90" s="18"/>
+      <c r="Q90" s="18"/>
+      <c r="R90" s="18"/>
+      <c r="S90" s="18"/>
+      <c r="T90" s="18"/>
+      <c r="U90" s="18"/>
+      <c r="V90" s="18"/>
+      <c r="W90" s="18"/>
+      <c r="X90" s="18"/>
+      <c r="Y90" s="18"/>
+      <c r="Z90" s="18"/>
+      <c r="AA90" s="18"/>
+      <c r="AB90" s="18"/>
+      <c r="AC90" s="18"/>
+      <c r="AD90" s="18"/>
+      <c r="AE90" s="18"/>
+      <c r="AF90" s="18"/>
+      <c r="AG90" s="18"/>
+      <c r="AH90" s="18"/>
       <c r="AI90" s="18"/>
     </row>
     <row r="91" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="18"/>
-      <c r="B91" s="18"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="35"/>
-      <c r="F91" s="36"/>
-      <c r="G91" s="37"/>
-      <c r="H91" s="35"/>
-      <c r="I91" s="36"/>
-      <c r="J91" s="36"/>
-      <c r="K91" s="36"/>
-      <c r="L91" s="37"/>
-      <c r="M91" s="29"/>
-      <c r="N91" s="30"/>
-      <c r="O91" s="30"/>
-      <c r="P91" s="30"/>
-      <c r="Q91" s="30"/>
-      <c r="R91" s="30"/>
-      <c r="S91" s="30"/>
-      <c r="T91" s="30"/>
-      <c r="U91" s="30"/>
-      <c r="V91" s="30"/>
-      <c r="W91" s="30"/>
-      <c r="X91" s="30"/>
-      <c r="Y91" s="30"/>
-      <c r="Z91" s="30"/>
-      <c r="AA91" s="30"/>
-      <c r="AB91" s="30"/>
-      <c r="AC91" s="30"/>
-      <c r="AD91" s="30"/>
-      <c r="AE91" s="30"/>
-      <c r="AF91" s="30"/>
-      <c r="AG91" s="30"/>
-      <c r="AH91" s="31"/>
-      <c r="AI91" s="18"/>
+      <c r="C91" s="14"/>
     </row>
     <row r="92" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="18"/>
-      <c r="B92" s="18"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="18"/>
-      <c r="I92" s="18"/>
-      <c r="J92" s="18"/>
-      <c r="K92" s="18"/>
-      <c r="L92" s="18"/>
-      <c r="M92" s="18"/>
-      <c r="N92" s="18"/>
-      <c r="O92" s="18"/>
-      <c r="P92" s="18"/>
-      <c r="Q92" s="18"/>
-      <c r="R92" s="18"/>
-      <c r="S92" s="18"/>
-      <c r="T92" s="18"/>
-      <c r="U92" s="18"/>
-      <c r="V92" s="18"/>
-      <c r="W92" s="18"/>
-      <c r="X92" s="18"/>
-      <c r="Y92" s="18"/>
-      <c r="Z92" s="18"/>
-      <c r="AA92" s="18"/>
-      <c r="AB92" s="18"/>
-      <c r="AC92" s="18"/>
-      <c r="AD92" s="18"/>
-      <c r="AE92" s="18"/>
-      <c r="AF92" s="18"/>
-      <c r="AG92" s="18"/>
-      <c r="AH92" s="18"/>
-      <c r="AI92" s="18"/>
+      <c r="C92" s="14"/>
     </row>
-    <row r="93" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C93" s="14"/>
-    </row>
-    <row r="94" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C94" s="14"/>
-    </row>
+    <row r="93" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="95" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="96" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="97" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13632,13 +14299,11 @@
     <row r="450" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="451" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="452" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E90:G91"/>
-    <mergeCell ref="H86:L89"/>
-    <mergeCell ref="H90:L91"/>
+    <mergeCell ref="E88:G89"/>
+    <mergeCell ref="H86:L87"/>
+    <mergeCell ref="H88:L89"/>
     <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="E1:O1"/>
     <mergeCell ref="R1:X1"/>
@@ -13650,11 +14315,11 @@
     <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="E3:O3"/>
     <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="E86:G89"/>
+    <mergeCell ref="E86:G87"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="D77" r:id="rId1"/>
+    <hyperlink ref="D77" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>

--- a/nablarch_sample/アプリケーション方式設計書_2全体概要.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_2全体概要.xlsx
@@ -1,39 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3E86D0-C0BC-475C-9E2A-0A7502DBCC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="16590" windowHeight="6570"/>
   </bookViews>
   <sheets>
     <sheet name="2.全体概要" sheetId="13" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2.全体概要'!$A$1:$AI$90</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2.全体概要'!$A$1:$AI$92</definedName>
     <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$77</definedName>
     <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$77</definedName>
     <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$77</definedName>
     <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$77</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -121,6 +109,52 @@
     <t>本システムで稼働するアプリケーションの全体図を以下に記載する。</t>
   </si>
   <si>
+    <t>https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/nablarch/big_picture.html</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サポートが行われることになっている。</t>
+    <rPh sb="5" eb="6">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>また、Java9、Java10は本システムリリース前に公式サポートが終了し、</t>
+    <rPh sb="16" eb="17">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウシキ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2019年1月までOracleによるサポートが行われており、Red HatのOpenJDK 8であれば、2020年10月まで</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>XXXプロジェクト</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -183,6 +217,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>5u13</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>その他のソフトウェアに関しては、役割分担上、インフラ担当に割り当たっているため、インフラ担当の成果物にて定義する。</t>
     <rPh sb="2" eb="3">
       <t>タ</t>
@@ -220,6 +258,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>OpenJDK8</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>種類およびバージョン</t>
     <rPh sb="0" eb="2">
       <t>シュルイ</t>
@@ -227,82 +269,33 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>5u21</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OSがRHELであるため、同じRedHat社が提供するOpenJDKビルドを使用する。</t>
-    <rPh sb="13" eb="14">
-      <t>オナ</t>
+    <t>現時点の最新バージョンを利用するため。</t>
+    <rPh sb="0" eb="3">
+      <t>ゲンジテン</t>
     </rPh>
-    <rPh sb="21" eb="22">
-      <t>シャ</t>
+    <rPh sb="4" eb="6">
+      <t>サイシン</t>
     </rPh>
-    <rPh sb="23" eb="25">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>シヨウ</t>
+    <rPh sb="12" eb="14">
+      <t>リヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>RedHat OpenJDK 17</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2022年7月現在、RedHatのOpenJDKで最もサポート期間が長いバージョンは17であるため、これを選択する。</t>
-    <rPh sb="4" eb="5">
-      <t>ネン</t>
+    <t>Java11は本プロジェクトのコーディングフェーズ時点では、リリースされていない。</t>
+    <rPh sb="7" eb="8">
+      <t>ホン</t>
     </rPh>
-    <rPh sb="6" eb="7">
-      <t>ガツ</t>
+    <rPh sb="25" eb="27">
+      <t>ジテン</t>
     </rPh>
-    <rPh sb="7" eb="9">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>モット</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>キカン</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2022年7月現在最新バージョンである5u21を選択する。</t>
-    <rPh sb="4" eb="5">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>サイシン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://nablarch.github.io/docs/5u21/doc/application_framework/application_framework/nablarch/big_picture.html</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -538,7 +531,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -653,9 +646,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -735,9 +725,9 @@
   <cellStyles count="5">
     <cellStyle name="ハイパーリンク" xfId="4" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準 3 2 3" xfId="3"/>
+    <cellStyle name="標準_画面標準" xfId="1"/>
+    <cellStyle name="標準_画面標準定義" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -751,9 +741,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -776,13 +763,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="192" name="グループ化 191">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C0000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="192" name="グループ化 191"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -795,13 +776,7 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="193" name="正方形/長方形 192">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C1000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="193" name="正方形/長方形 192"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -939,13 +914,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="194" name="正方形/長方形 193">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C2000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="194" name="正方形/長方形 193"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1086,13 +1055,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="195" name="正方形/長方形 194">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C3000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="195" name="正方形/長方形 194"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1235,13 +1198,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="196" name="正方形/長方形 195">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C4000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="196" name="正方形/長方形 195"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1405,13 +1362,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="197" name="正方形/長方形 196">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C5000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="197" name="正方形/長方形 196"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1555,13 +1506,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="198" name="正方形/長方形 197">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C6000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="198" name="正方形/長方形 197"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1709,13 +1654,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="199" name="正方形/長方形 198">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C7000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="199" name="正方形/長方形 198"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1867,13 +1806,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="200" name="正方形/長方形 199">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C8000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="200" name="正方形/長方形 199"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2064,19 +1997,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="201" name="正方形/長方形 200">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C9000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="201" name="正方形/長方形 200"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
             <a:off x="124077" y="4598329"/>
-            <a:ext cx="728643" cy="898475"/>
+            <a:ext cx="559491" cy="898475"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2213,19 +2140,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="202" name="正方形/長方形 201">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CA000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="202" name="正方形/長方形 201"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="859586" y="4598072"/>
-            <a:ext cx="822119" cy="901012"/>
+            <a:off x="683568" y="4598072"/>
+            <a:ext cx="476373" cy="901012"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2377,19 +2298,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="203" name="正方形/長方形 202">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CB000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="203" name="正方形/長方形 202"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1683419" y="4598329"/>
-            <a:ext cx="776817" cy="898473"/>
+            <a:off x="1159941" y="4598329"/>
+            <a:ext cx="634360" cy="898473"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2526,13 +2441,150 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="205" name="正方形/長方形 204">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CD000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="204" name="正方形/長方形 203"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1764672" y="4598330"/>
+            <a:ext cx="702524" cy="898474"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" lIns="36000" rIns="36000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>JDK(OpenJDK 8)</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="205" name="正方形/長方形 204"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2723,19 +2775,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="206" name="正方形/長方形 205">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CE000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="206" name="正方形/長方形 205"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
             <a:off x="2771801" y="4598329"/>
-            <a:ext cx="408250" cy="898475"/>
+            <a:ext cx="559513" cy="898475"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2872,19 +2918,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="207" name="正方形/長方形 206">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CF000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="207" name="正方形/長方形 206"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3180277" y="4598073"/>
-            <a:ext cx="391095" cy="901011"/>
+            <a:off x="3331314" y="4598073"/>
+            <a:ext cx="468050" cy="901011"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3036,19 +3076,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="208" name="正方形/長方形 207">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D0000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="208" name="正方形/長方形 207"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4350091" y="4857484"/>
-            <a:ext cx="910140" cy="198598"/>
+            <a:off x="4864990" y="4600302"/>
+            <a:ext cx="1327523" cy="442836"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3185,19 +3219,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="209" name="正方形/長方形 208">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D1000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="209" name="正方形/長方形 208"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4347149" y="5064561"/>
-            <a:ext cx="1845364" cy="434522"/>
+            <a:off x="4864990" y="5043138"/>
+            <a:ext cx="1327523" cy="455945"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3327,25 +3355,19 @@
                 <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>JDK(OpenJDK 17)</a:t>
+              <a:t>JDK(OpenJDK 8)</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="210" name="正方形/長方形 209">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D2000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="210" name="正方形/長方形 209"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3572809" y="4598947"/>
+            <a:off x="3799364" y="4598947"/>
             <a:ext cx="234025" cy="892351"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -3483,19 +3505,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="211" name="正方形/長方形 210">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D3000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="211" name="正方形/長方形 210"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3813701" y="4598947"/>
-            <a:ext cx="258837" cy="892351"/>
+            <a:off x="4033389" y="4598947"/>
+            <a:ext cx="402881" cy="892351"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3632,19 +3648,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="212" name="正方形/長方形 211">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D4000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="212" name="正方形/長方形 211"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4350093" y="4598638"/>
-            <a:ext cx="910138" cy="252375"/>
+            <a:off x="4864990" y="4220521"/>
+            <a:ext cx="1327522" cy="360040"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3786,19 +3796,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="213" name="正方形/長方形 212">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D5000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="213" name="正方形/長方形 212"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4338271" y="3919169"/>
-            <a:ext cx="908230" cy="663735"/>
+            <a:off x="4860032" y="3716464"/>
+            <a:ext cx="1332480" cy="504057"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3929,7 +3933,7 @@
                 <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>業務</a:t>
+              <a:t>業務アプリケーション</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
               <a:solidFill>
@@ -3942,47 +3946,41 @@
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
                 <a:solidFill>
                   <a:srgbClr val="C00000"/>
                 </a:solidFill>
                 <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>アプリケーション</a:t>
+              <a:t>（</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
                 <a:solidFill>
                   <a:srgbClr val="C00000"/>
                 </a:solidFill>
                 <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>(Online)</a:t>
+              <a:t>Online / Batch</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>）</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="214" name="正方形/長方形 213">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D6000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="214" name="正方形/長方形 213"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4173,19 +4171,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="215" name="正方形/長方形 214">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D7000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="215" name="正方形/長方形 214"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
             <a:off x="6477354" y="4586591"/>
-            <a:ext cx="739483" cy="930401"/>
+            <a:ext cx="559491" cy="930401"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4322,19 +4314,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="216" name="正方形/長方形 215">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D8000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="216" name="正方形/長方形 215"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7223703" y="4586866"/>
-            <a:ext cx="699976" cy="932403"/>
+            <a:off x="7036845" y="4586866"/>
+            <a:ext cx="468050" cy="932403"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4486,19 +4472,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="217" name="正方形/長方形 216">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D9000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="217" name="正方形/長方形 216"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7930826" y="4586563"/>
-            <a:ext cx="818412" cy="930669"/>
+            <a:off x="7504894" y="4586563"/>
+            <a:ext cx="523490" cy="930669"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4635,13 +4615,150 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="219" name="正方形/長方形 218">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DB000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="218" name="正方形/長方形 217"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8028384" y="4586563"/>
+            <a:ext cx="720080" cy="930669"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" lIns="36000" rIns="36000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>JDK(OpenJDK 8)</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="219" name="正方形/長方形 218"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4809,19 +4926,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="220" name="正方形/長方形 219">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DC000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="220" name="正方形/長方形 219"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4079275" y="4598947"/>
-            <a:ext cx="261008" cy="892351"/>
+            <a:off x="4436270" y="4598947"/>
+            <a:ext cx="428720" cy="892351"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4958,13 +5069,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="221" name="正方形/長方形 220">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DD000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="221" name="正方形/長方形 220"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5132,13 +5237,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="222" name="正方形/長方形 221">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DE000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="222" name="正方形/長方形 221"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5304,401 +5403,31 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="154" name="正方形/長方形 153">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D64EAAE1-D7D2-4ED6-A58D-18B8856D438C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5253366" y="4592167"/>
-            <a:ext cx="940545" cy="465921"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent2"/>
-          </a:lnRef>
-          <a:fillRef idx="2">
-            <a:schemeClr val="accent2"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="accent2"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" lIns="36000" rIns="36000" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>Nablarch</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="156" name="正方形/長方形 155">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34324E4A-8E80-4C29-A4F2-A4F7E25C7321}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5246501" y="3919169"/>
-            <a:ext cx="954274" cy="663735"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="FFFF00"/>
-          </a:solidFill>
-          <a:ln/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" lIns="36000" rIns="36000" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>業務</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>アプリケーション</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>（</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>Batch</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>）</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>88916</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>259005</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>92606</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>166297</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>57439</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>108960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="162" name="正方形/長方形 161">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A2000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="162" name="正方形/長方形 161"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="20043632">
-          <a:off x="3157327" y="7358820"/>
-          <a:ext cx="4819470" cy="2445229"/>
+          <a:off x="2745030" y="8207906"/>
+          <a:ext cx="4770484" cy="1873729"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5760,13 +5489,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="グループ化 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="グループ化 1"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -5779,13 +5502,7 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="137" name="グループ化 136">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000089000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="137" name="グループ化 136"/>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -5798,13 +5515,7 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="140" name="円/楕円 139">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008C000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
+            <xdr:cNvPr id="140" name="円/楕円 139"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5850,13 +5561,7 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="141" name="直線コネクタ 140">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008D000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
+            <xdr:cNvPr id="141" name="直線コネクタ 140"/>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="140" idx="1"/>
               <a:endCxn id="140" idx="5"/>
@@ -5889,13 +5594,7 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="142" name="直線コネクタ 141">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008E000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
+            <xdr:cNvPr id="142" name="直線コネクタ 141"/>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="140" idx="7"/>
               <a:endCxn id="140" idx="3"/>
@@ -5929,13 +5628,7 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="110" name="グループ化 109">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="110" name="グループ化 109"/>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -5948,13 +5641,7 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="111" name="円/楕円 110">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
+            <xdr:cNvPr id="111" name="円/楕円 110"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6000,13 +5687,7 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="115" name="直線コネクタ 114">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000073000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
+            <xdr:cNvPr id="115" name="直線コネクタ 114"/>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="111" idx="1"/>
               <a:endCxn id="111" idx="5"/>
@@ -6039,13 +5720,7 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="116" name="直線コネクタ 115">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
+            <xdr:cNvPr id="116" name="直線コネクタ 115"/>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="111" idx="7"/>
               <a:endCxn id="111" idx="3"/>
@@ -6079,13 +5754,7 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="19" name="グループ化 18">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="19" name="グループ化 18"/>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -6098,13 +5767,7 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="円/楕円 11">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
+            <xdr:cNvPr id="12" name="円/楕円 11"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6150,13 +5813,7 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="14" name="直線コネクタ 13">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
+            <xdr:cNvPr id="14" name="直線コネクタ 13"/>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="12" idx="1"/>
               <a:endCxn id="12" idx="5"/>
@@ -6189,13 +5846,7 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="109" name="直線コネクタ 108">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
+            <xdr:cNvPr id="109" name="直線コネクタ 108"/>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="12" idx="7"/>
               <a:endCxn id="12" idx="3"/>
@@ -6229,13 +5880,7 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="85" name="Rectangle 37">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="85" name="Rectangle 37"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6381,13 +6026,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="86" name="Rectangle 37">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="86" name="Rectangle 37"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6528,13 +6167,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="87" name="Rectangle 37">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="87" name="Rectangle 37"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6699,13 +6332,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="88" name="Rectangle 37">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="88" name="Rectangle 37"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6867,13 +6494,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="96" name="Rectangle 37">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="96" name="Rectangle 37"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -7030,13 +6651,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="97" name="Rectangle 37">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="97" name="Rectangle 37"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -7201,13 +6816,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="101" name="フローチャート : 磁気ディスク 100">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="101" name="フローチャート : 磁気ディスク 100"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7369,13 +6978,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="102" name="Rectangle 37">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="102" name="Rectangle 37"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -7540,19 +7143,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="103" name="正方形/長方形 102">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="103" name="正方形/長方形 102"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5702592" y="3472006"/>
-            <a:ext cx="508648" cy="644066"/>
+            <a:off x="5735127" y="3472006"/>
+            <a:ext cx="443577" cy="644066"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -7711,19 +7308,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="104" name="正方形/長方形 103">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="104" name="正方形/長方形 103"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6234426" y="3472006"/>
-            <a:ext cx="508648" cy="644066"/>
+            <a:off x="6266962" y="3472006"/>
+            <a:ext cx="443577" cy="644066"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -7877,19 +7468,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="105" name="正方形/長方形 104">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="105" name="正方形/長方形 104"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6797140" y="3472006"/>
-            <a:ext cx="508648" cy="644066"/>
+            <a:off x="6829675" y="3472006"/>
+            <a:ext cx="443577" cy="644066"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -8043,13 +7628,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="106" name="正方形/長方形 105">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="106" name="正方形/長方形 105"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8192,13 +7771,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="107" name="正方形/長方形 106">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="107" name="正方形/長方形 106"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8341,13 +7914,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="108" name="正方形/長方形 107">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="108" name="正方形/長方形 107"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8490,13 +8057,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="112" name="正方形/長方形 111">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000070000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="112" name="正方形/長方形 111"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8627,7 +8188,7 @@
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>会員</a:t>
+              <a:t>オンラインアプリ</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
@@ -8635,7 +8196,7 @@
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>WEB1</a:t>
+              <a:t>1</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -8647,13 +8208,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="113" name="正方形/長方形 112">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000071000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="113" name="正方形/長方形 112"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8784,7 +8339,7 @@
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>会員</a:t>
+              <a:t>オンラインアプリ</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" sz="800">
@@ -8792,7 +8347,7 @@
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>WEB2</a:t>
+              <a:t>2</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -8804,13 +8359,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="114" name="正方形/長方形 113">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000072000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="114" name="正方形/長方形 113"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8941,7 +8490,7 @@
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>管理者</a:t>
+              <a:t>オンラインアプリ</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" sz="800">
@@ -8949,7 +8498,7 @@
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>WEB</a:t>
+              <a:t>3</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -8961,13 +8510,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="118" name="正方形/長方形 117">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000076000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="118" name="正方形/長方形 117"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9105,13 +8648,7 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="119" name="カギ線コネクタ 118">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000077000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="119" name="カギ線コネクタ 118"/>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="118" idx="3"/>
             <a:endCxn id="105" idx="2"/>
@@ -9119,8 +8656,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipV="1">
-            <a:off x="5305512" y="4116072"/>
-            <a:ext cx="1745951" cy="328196"/>
+            <a:off x="5305513" y="4116072"/>
+            <a:ext cx="1745951" cy="329784"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector2">
             <a:avLst/>
@@ -9146,19 +8683,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="120" name="直線コネクタ 119">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000078000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="120" name="直線コネクタ 119"/>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="103" idx="2"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm>
+          <a:xfrm flipH="1">
             <a:off x="5956916" y="4116072"/>
             <a:ext cx="1" cy="314656"/>
           </a:xfrm>
@@ -9186,20 +8717,14 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="121" name="直線コネクタ 120">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="121" name="直線コネクタ 120"/>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="104" idx="2"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6488750" y="4116072"/>
+          <a:xfrm flipH="1">
+            <a:off x="6488751" y="4116072"/>
             <a:ext cx="1" cy="307509"/>
           </a:xfrm>
           <a:prstGeom prst="line">
@@ -9226,13 +8751,7 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="123" name="正方形/長方形 122">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="123" name="正方形/長方形 122"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9371,13 +8890,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="125" name="正方形/長方形 124">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007D000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="125" name="正方形/長方形 124"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9518,13 +9031,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="127" name="正方形/長方形 126">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007F000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="127" name="正方形/長方形 126"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9663,13 +9170,7 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="128" name="カギ線コネクタ 127">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="128" name="カギ線コネクタ 127"/>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="113" idx="3"/>
             <a:endCxn id="104" idx="0"/>
@@ -9677,8 +9178,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5357459" y="2759251"/>
-            <a:ext cx="1131291" cy="712755"/>
+            <a:off x="5357459" y="2760838"/>
+            <a:ext cx="1131292" cy="711168"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector2">
             <a:avLst/>
@@ -9709,13 +9210,7 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="131" name="カギ線コネクタ 130">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="131" name="カギ線コネクタ 130"/>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="114" idx="3"/>
             <a:endCxn id="105" idx="0"/>
@@ -9723,8 +9218,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5357459" y="3194610"/>
-            <a:ext cx="1694005" cy="277396"/>
+            <a:off x="5357459" y="3193023"/>
+            <a:ext cx="1694005" cy="278983"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector2">
             <a:avLst/>
@@ -9753,13 +9248,7 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="133" name="Rectangle 37">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="133" name="Rectangle 37"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -9900,13 +9389,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="134" name="Rectangle 37">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000086000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="134" name="Rectangle 37"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -10090,13 +9573,7 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="135" name="カギ線コネクタ 134">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000087000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="135" name="カギ線コネクタ 134"/>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="112" idx="3"/>
             <a:endCxn id="103" idx="0"/>
@@ -10104,8 +9581,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5357460" y="2349071"/>
-            <a:ext cx="599456" cy="1122935"/>
+            <a:off x="5357460" y="2350659"/>
+            <a:ext cx="599456" cy="1121347"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector2">
             <a:avLst/>
@@ -10134,13 +9611,7 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="138" name="右矢印 137">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008A000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="138" name="右矢印 137"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10289,13 +9760,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="146" name="Rectangle 37">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000092000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="146" name="Rectangle 37"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -10436,13 +9901,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="147" name="Rectangle 37">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000093000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="147" name="Rectangle 37"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -10599,13 +10058,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="150" name="Rectangle 37">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000096000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="150" name="Rectangle 37"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -10762,13 +10215,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="160" name="右矢印 159">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A0000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="160" name="右矢印 159"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10917,19 +10364,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="161" name="正方形/長方形 160">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="161" name="正方形/長方形 160"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm rot="20043632">
-            <a:off x="2723540" y="2610380"/>
-            <a:ext cx="4392659" cy="1832455"/>
+            <a:off x="2618032" y="2610381"/>
+            <a:ext cx="4392659" cy="1832454"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -10976,13 +10417,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="163" name="Rectangle 37">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A3000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="163" name="Rectangle 37"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -11147,13 +10582,7 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="82" name="カギ線コネクタ 81">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="82" name="カギ線コネクタ 81"/>
           <xdr:cNvCxnSpPr>
             <a:endCxn id="127" idx="1"/>
           </xdr:cNvCxnSpPr>
@@ -11190,13 +10619,7 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="89" name="カギ線コネクタ 88">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="89" name="カギ線コネクタ 88"/>
           <xdr:cNvCxnSpPr>
             <a:endCxn id="107" idx="1"/>
           </xdr:cNvCxnSpPr>
@@ -11237,13 +10660,7 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="91" name="カギ線コネクタ 90">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="91" name="カギ線コネクタ 90"/>
           <xdr:cNvCxnSpPr>
             <a:endCxn id="123" idx="1"/>
           </xdr:cNvCxnSpPr>
@@ -11280,13 +10697,7 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="テキスト ボックス 19">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11338,13 +10749,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="117" name="テキスト ボックス 116">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000075000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="117" name="テキスト ボックス 116"/>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11396,13 +10801,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="122" name="Rectangle 37">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007A000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="122" name="Rectangle 37"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -11564,13 +10963,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="124" name="Rectangle 37">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007C000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="124" name="Rectangle 37"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -11719,13 +11112,7 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="126" name="グループ化 125">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007E000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="126" name="グループ化 125"/>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -11738,13 +11125,7 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="129" name="円/楕円 128">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000081000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
+            <xdr:cNvPr id="129" name="円/楕円 128"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -11790,13 +11171,7 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="130" name="直線コネクタ 129">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
+            <xdr:cNvPr id="130" name="直線コネクタ 129"/>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="129" idx="1"/>
               <a:endCxn id="129" idx="5"/>
@@ -11829,13 +11204,7 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="132" name="直線コネクタ 131">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
+            <xdr:cNvPr id="132" name="直線コネクタ 131"/>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="129" idx="7"/>
               <a:endCxn id="129" idx="3"/>
@@ -11869,13 +11238,7 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="136" name="テキスト ボックス 135">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000088000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="136" name="テキスト ボックス 135"/>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11927,13 +11290,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="139" name="右矢印 138">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008B000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="139" name="右矢印 138"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12078,13 +11435,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="143" name="テキスト ボックス 142">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="143" name="テキスト ボックス 142"/>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12136,13 +11487,7 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="144" name="グループ化 143">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000090000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="144" name="グループ化 143"/>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -12155,13 +11500,7 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="145" name="円/楕円 144">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000091000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
+            <xdr:cNvPr id="145" name="円/楕円 144"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -12207,13 +11546,7 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="151" name="直線コネクタ 150">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000097000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
+            <xdr:cNvPr id="151" name="直線コネクタ 150"/>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="145" idx="1"/>
               <a:endCxn id="145" idx="5"/>
@@ -12246,13 +11579,7 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="152" name="直線コネクタ 151">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000098000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
+            <xdr:cNvPr id="152" name="直線コネクタ 151"/>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="145" idx="7"/>
               <a:endCxn id="145" idx="3"/>
@@ -12286,13 +11613,7 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="153" name="テキスト ボックス 152">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000099000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="153" name="テキスト ボックス 152"/>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12344,13 +11665,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="149" name="右矢印 148">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000095000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="149" name="右矢印 148"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12499,13 +11814,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="148" name="右矢印 147">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000094000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="148" name="右矢印 147"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12670,13 +11979,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="155" name="図 154" descr="çå£ãªé¡ã®ãã¬ãã©ã³ã»ãªãã¬ã¼ã¿ã¼ã®ã¤ã©ã¹ãï¼ç·æ§ï¼">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="155" name="図 154" descr="çå£ãªé¡ã®ãã¬ãã©ã³ã»ãªãã¬ã¼ã¿ã¼ã®ã¤ã©ã¹ãï¼ç·æ§ï¼"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12731,13 +12034,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="165" name="図 164" descr="ãã½ã³ã³ãä½¿ãå¥³æ§ã®ã¤ã©ã¹ã">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A5000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="165" name="図 164" descr="ãã½ã³ã³ãä½¿ãå¥³æ§ã®ã¤ã©ã¹ã"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12792,13 +12089,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="166" name="図 165" descr="ãã½ã³ã³ãä½¿ãã¹ãã¼ãã¦ã§ã¢ãçãäººã®ã¤ã©ã¹ãï¼ç·æ§ï¼">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A6000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="166" name="図 165" descr="ãã½ã³ã³ãä½¿ãã¹ãã¼ãã¦ã§ã¢ãçãäººã®ã¤ã©ã¹ãï¼ç·æ§ï¼"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12842,7 +12133,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -12884,7 +12175,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12917,26 +12208,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12969,23 +12243,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -13161,11 +12418,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI452"/>
+  <dimension ref="A1:AI454"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="140" zoomScaleNormal="100" zoomScaleSheetLayoutView="140" workbookViewId="0"/>
   </sheetViews>
@@ -13181,45 +12438,45 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="45" t="s">
-        <v>18</v>
+      <c r="E1" s="44" t="s">
+        <v>22</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="47"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="46"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="48" t="s">
-        <v>19</v>
+      <c r="R1" s="47" t="s">
+        <v>23</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="50"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="49"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="44"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="43"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -13228,43 +12485,43 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="56"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="55"/>
       <c r="P2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="8"/>
-      <c r="R2" s="57" t="s">
+      <c r="R2" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="59"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="58"/>
       <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="42"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="44"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="43"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -13273,39 +12530,39 @@
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="12"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="62"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="61"/>
       <c r="Y3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="Z3" s="13"/>
-      <c r="AA3" s="51"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="44"/>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="51"/>
+      <c r="AD3" s="51"/>
+      <c r="AE3" s="52"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="43"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13443,12 +12700,12 @@
     </row>
     <row r="76" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D76" s="15" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D77" s="16" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13463,7 +12720,7 @@
         <v>2.4.</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E79" s="18"/>
       <c r="F79" s="18"/>
@@ -13506,7 +12763,7 @@
         <v>2.4.1.</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F80" s="18"/>
       <c r="G80" s="18"/>
@@ -13582,7 +12839,7 @@
       <c r="C82" s="17"/>
       <c r="D82" s="19"/>
       <c r="E82" s="18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F82" s="18"/>
       <c r="G82" s="18"/>
@@ -13621,7 +12878,7 @@
       <c r="C83" s="17"/>
       <c r="D83" s="19"/>
       <c r="E83" s="18" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F83" s="18"/>
       <c r="G83" s="18"/>
@@ -13697,12 +12954,12 @@
       <c r="C85" s="17"/>
       <c r="D85" s="19"/>
       <c r="E85" s="20" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F85" s="21"/>
       <c r="G85" s="22"/>
       <c r="H85" s="20" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I85" s="21"/>
       <c r="J85" s="21"/>
@@ -13740,19 +12997,19 @@
       <c r="C86" s="17"/>
       <c r="D86" s="19"/>
       <c r="E86" s="32" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F86" s="33"/>
       <c r="G86" s="34"/>
-      <c r="H86" s="38" t="s">
-        <v>30</v>
+      <c r="H86" s="32" t="s">
+        <v>32</v>
       </c>
       <c r="I86" s="33"/>
       <c r="J86" s="33"/>
       <c r="K86" s="33"/>
       <c r="L86" s="34"/>
       <c r="M86" s="23" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="N86" s="24"/>
       <c r="O86" s="24"/>
@@ -13782,16 +13039,16 @@
       <c r="B87" s="18"/>
       <c r="C87" s="17"/>
       <c r="D87" s="19"/>
-      <c r="E87" s="39"/>
-      <c r="F87" s="40"/>
-      <c r="G87" s="41"/>
-      <c r="H87" s="39"/>
-      <c r="I87" s="40"/>
-      <c r="J87" s="40"/>
-      <c r="K87" s="40"/>
-      <c r="L87" s="41"/>
+      <c r="E87" s="38"/>
+      <c r="F87" s="39"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="38"/>
+      <c r="I87" s="39"/>
+      <c r="J87" s="39"/>
+      <c r="K87" s="39"/>
+      <c r="L87" s="40"/>
       <c r="M87" s="26" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="N87" s="27"/>
       <c r="O87" s="27"/>
@@ -13821,42 +13078,38 @@
       <c r="B88" s="18"/>
       <c r="C88" s="17"/>
       <c r="D88" s="19"/>
-      <c r="E88" s="32" t="s">
-        <v>25</v>
+      <c r="E88" s="38"/>
+      <c r="F88" s="39"/>
+      <c r="G88" s="40"/>
+      <c r="H88" s="38"/>
+      <c r="I88" s="39"/>
+      <c r="J88" s="39"/>
+      <c r="K88" s="39"/>
+      <c r="L88" s="40"/>
+      <c r="M88" s="26" t="s">
+        <v>20</v>
       </c>
-      <c r="F88" s="33"/>
-      <c r="G88" s="34"/>
-      <c r="H88" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="I88" s="33"/>
-      <c r="J88" s="33"/>
-      <c r="K88" s="33"/>
-      <c r="L88" s="34"/>
-      <c r="M88" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="N88" s="24"/>
-      <c r="O88" s="24"/>
-      <c r="P88" s="24"/>
-      <c r="Q88" s="24"/>
-      <c r="R88" s="24"/>
-      <c r="S88" s="24"/>
-      <c r="T88" s="24"/>
-      <c r="U88" s="24"/>
-      <c r="V88" s="24"/>
-      <c r="W88" s="24"/>
-      <c r="X88" s="24"/>
-      <c r="Y88" s="24"/>
-      <c r="Z88" s="24"/>
-      <c r="AA88" s="24"/>
-      <c r="AB88" s="24"/>
-      <c r="AC88" s="24"/>
-      <c r="AD88" s="24"/>
-      <c r="AE88" s="24"/>
-      <c r="AF88" s="24"/>
-      <c r="AG88" s="24"/>
-      <c r="AH88" s="25"/>
+      <c r="N88" s="27"/>
+      <c r="O88" s="27"/>
+      <c r="P88" s="27"/>
+      <c r="Q88" s="27"/>
+      <c r="R88" s="27"/>
+      <c r="S88" s="27"/>
+      <c r="T88" s="27"/>
+      <c r="U88" s="27"/>
+      <c r="V88" s="27"/>
+      <c r="W88" s="27"/>
+      <c r="X88" s="27"/>
+      <c r="Y88" s="27"/>
+      <c r="Z88" s="27"/>
+      <c r="AA88" s="27"/>
+      <c r="AB88" s="27"/>
+      <c r="AC88" s="27"/>
+      <c r="AD88" s="27"/>
+      <c r="AE88" s="27"/>
+      <c r="AF88" s="27"/>
+      <c r="AG88" s="27"/>
+      <c r="AH88" s="28"/>
       <c r="AI88" s="18"/>
     </row>
     <row r="89" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13872,7 +13125,9 @@
       <c r="J89" s="36"/>
       <c r="K89" s="36"/>
       <c r="L89" s="37"/>
-      <c r="M89" s="29"/>
+      <c r="M89" s="29" t="s">
+        <v>35</v>
+      </c>
       <c r="N89" s="30"/>
       <c r="O89" s="30"/>
       <c r="P89" s="30"/>
@@ -13901,46 +13156,124 @@
       <c r="B90" s="18"/>
       <c r="C90" s="17"/>
       <c r="D90" s="19"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="18"/>
-      <c r="I90" s="18"/>
-      <c r="J90" s="18"/>
-      <c r="K90" s="18"/>
-      <c r="L90" s="18"/>
-      <c r="M90" s="18"/>
-      <c r="N90" s="18"/>
-      <c r="O90" s="18"/>
-      <c r="P90" s="18"/>
-      <c r="Q90" s="18"/>
-      <c r="R90" s="18"/>
-      <c r="S90" s="18"/>
-      <c r="T90" s="18"/>
-      <c r="U90" s="18"/>
-      <c r="V90" s="18"/>
-      <c r="W90" s="18"/>
-      <c r="X90" s="18"/>
-      <c r="Y90" s="18"/>
-      <c r="Z90" s="18"/>
-      <c r="AA90" s="18"/>
-      <c r="AB90" s="18"/>
-      <c r="AC90" s="18"/>
-      <c r="AD90" s="18"/>
-      <c r="AE90" s="18"/>
-      <c r="AF90" s="18"/>
-      <c r="AG90" s="18"/>
-      <c r="AH90" s="18"/>
+      <c r="E90" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F90" s="33"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I90" s="33"/>
+      <c r="J90" s="33"/>
+      <c r="K90" s="33"/>
+      <c r="L90" s="34"/>
+      <c r="M90" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="N90" s="24"/>
+      <c r="O90" s="24"/>
+      <c r="P90" s="24"/>
+      <c r="Q90" s="24"/>
+      <c r="R90" s="24"/>
+      <c r="S90" s="24"/>
+      <c r="T90" s="24"/>
+      <c r="U90" s="24"/>
+      <c r="V90" s="24"/>
+      <c r="W90" s="24"/>
+      <c r="X90" s="24"/>
+      <c r="Y90" s="24"/>
+      <c r="Z90" s="24"/>
+      <c r="AA90" s="24"/>
+      <c r="AB90" s="24"/>
+      <c r="AC90" s="24"/>
+      <c r="AD90" s="24"/>
+      <c r="AE90" s="24"/>
+      <c r="AF90" s="24"/>
+      <c r="AG90" s="24"/>
+      <c r="AH90" s="25"/>
       <c r="AI90" s="18"/>
     </row>
     <row r="91" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C91" s="14"/>
+      <c r="A91" s="18"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="35"/>
+      <c r="F91" s="36"/>
+      <c r="G91" s="37"/>
+      <c r="H91" s="35"/>
+      <c r="I91" s="36"/>
+      <c r="J91" s="36"/>
+      <c r="K91" s="36"/>
+      <c r="L91" s="37"/>
+      <c r="M91" s="29"/>
+      <c r="N91" s="30"/>
+      <c r="O91" s="30"/>
+      <c r="P91" s="30"/>
+      <c r="Q91" s="30"/>
+      <c r="R91" s="30"/>
+      <c r="S91" s="30"/>
+      <c r="T91" s="30"/>
+      <c r="U91" s="30"/>
+      <c r="V91" s="30"/>
+      <c r="W91" s="30"/>
+      <c r="X91" s="30"/>
+      <c r="Y91" s="30"/>
+      <c r="Z91" s="30"/>
+      <c r="AA91" s="30"/>
+      <c r="AB91" s="30"/>
+      <c r="AC91" s="30"/>
+      <c r="AD91" s="30"/>
+      <c r="AE91" s="30"/>
+      <c r="AF91" s="30"/>
+      <c r="AG91" s="30"/>
+      <c r="AH91" s="31"/>
+      <c r="AI91" s="18"/>
     </row>
     <row r="92" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C92" s="14"/>
+      <c r="A92" s="18"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
+      <c r="J92" s="18"/>
+      <c r="K92" s="18"/>
+      <c r="L92" s="18"/>
+      <c r="M92" s="18"/>
+      <c r="N92" s="18"/>
+      <c r="O92" s="18"/>
+      <c r="P92" s="18"/>
+      <c r="Q92" s="18"/>
+      <c r="R92" s="18"/>
+      <c r="S92" s="18"/>
+      <c r="T92" s="18"/>
+      <c r="U92" s="18"/>
+      <c r="V92" s="18"/>
+      <c r="W92" s="18"/>
+      <c r="X92" s="18"/>
+      <c r="Y92" s="18"/>
+      <c r="Z92" s="18"/>
+      <c r="AA92" s="18"/>
+      <c r="AB92" s="18"/>
+      <c r="AC92" s="18"/>
+      <c r="AD92" s="18"/>
+      <c r="AE92" s="18"/>
+      <c r="AF92" s="18"/>
+      <c r="AG92" s="18"/>
+      <c r="AH92" s="18"/>
+      <c r="AI92" s="18"/>
     </row>
-    <row r="93" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C93" s="14"/>
+    </row>
+    <row r="94" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C94" s="14"/>
+    </row>
     <row r="95" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="96" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="97" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14299,11 +13632,13 @@
     <row r="450" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="451" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="452" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E88:G89"/>
-    <mergeCell ref="H86:L87"/>
-    <mergeCell ref="H88:L89"/>
+    <mergeCell ref="E90:G91"/>
+    <mergeCell ref="H86:L89"/>
+    <mergeCell ref="H90:L91"/>
     <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="E1:O1"/>
     <mergeCell ref="R1:X1"/>
@@ -14315,11 +13650,11 @@
     <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="E3:O3"/>
     <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="E86:G87"/>
+    <mergeCell ref="E86:G89"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="D77" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D77" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>

--- a/nablarch_sample/アプリケーション方式設計書_2全体概要.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_2全体概要.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3E86D0-C0BC-475C-9E2A-0A7502DBCC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88236AC2-984B-4B42-949E-8D271233E9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="2.全体概要" sheetId="13" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2.全体概要'!$A$1:$AI$90</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2.全体概要'!$A$1:$AI$122</definedName>
     <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$77</definedName>
     <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$77</definedName>
     <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$77</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -297,6 +297,110 @@
   <si>
     <t>https://nablarch.github.io/docs/5u21/doc/application_framework/application_framework/nablarch/big_picture.html</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラー処理概要</t>
+    <rPh sb="3" eb="7">
+      <t>ショリガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本項では、本システムの統一的なエラー発生時の処理概要を記載する。各入力処理方式及び出力ライブラリに依存するエラー処理については、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各章に記載するため、個別のセクションの「エラー処理」の章を参照すること。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーの種類</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムでは、エラーの種類を下記の２種類に分類する。</t>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務エラー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力値（ユーザ入力値や外部システムからの連携値等）として不正な値が送信された場合のエラー。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>このエラーは、予期可能なエラーであり、多くは業務処理の中で行う精査処理で発生する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>精査処理の詳細は、【7.1入力値精査】を参照。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>システムエラー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>事前に予期できないエラーの事を指す。例えば、データベース等のミドルウェアに起因するエラーやプログラムバグが該当する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラー発生時の共通方針</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーハンドリング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラー発生時の制御は、エラーを処理するハンドラで共通的に行う。このため、個別プログラムでのエラーハンドリングは行わない。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ただし、本来システムエラーとなるデータベースの重複エラーを業務エラーに付け替える必要がある場合（業務精査として重複エラーを</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>使用する場合）や、業務エラーをトリガーとして業務処理を行う必要が有る場合はこの限りではない。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トランザクションのロールバック</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラー発生時には現在のトランザクションをロールバックし、更新内容を全て破棄する。これにより、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務データが不正な状態（データの不整合等）となることを防止する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>なお、トランザクションのロールバック処理は、透過的トランザクション機能(実行制御基盤)で行う。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>このため、個別プログラムでのトランザクション制御は必要ない。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログ出力</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザからの問い合わせに対応するための証跡ログや、障害が発生したことを障害監視ツールに通知することを目的としたログ出力を行う。</t>
+  </si>
+  <si>
+    <t>ログ出力内容は入力処理方式によって異なるため、詳細は【アプリケーションログ設計書】を参照。</t>
   </si>
 </sst>
 </file>
@@ -787,8 +891,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="836839" y="6951889"/>
-          <a:ext cx="8694965" cy="3476626"/>
+          <a:off x="828675" y="6943725"/>
+          <a:ext cx="8610600" cy="3476626"/>
           <a:chOff x="63212" y="3335473"/>
           <a:chExt cx="8773832" cy="3306750"/>
         </a:xfrm>
@@ -5771,8 +5875,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="364671" y="1347241"/>
-          <a:ext cx="9125858" cy="4944248"/>
+          <a:off x="361950" y="1339077"/>
+          <a:ext cx="9036050" cy="4944248"/>
           <a:chOff x="339725" y="1313677"/>
           <a:chExt cx="8324850" cy="5182373"/>
         </a:xfrm>
@@ -13167,7 +13271,7 @@
   </sheetPr>
   <dimension ref="A1:AI452"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="140" zoomScaleNormal="100" zoomScaleSheetLayoutView="140" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -13934,47 +14038,174 @@
       <c r="AI90" s="18"/>
     </row>
     <row r="91" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C91" s="14"/>
+      <c r="C91" s="17" t="str">
+        <f>$B$5&amp;"5."</f>
+        <v>2.5.</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="92" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C92" s="14"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="15" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="93" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C93" s="17"/>
+      <c r="D93" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="94" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C94" s="17"/>
+    </row>
+    <row r="95" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C95" s="14"/>
+      <c r="D95" s="19" t="str">
+        <f>$C$91&amp;"1."</f>
+        <v>2.5.1.</v>
+      </c>
+      <c r="E95" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="96" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E96" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="97" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E98" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F98" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F99" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="100" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F100" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="101" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F101" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="102" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E103" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="104" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F104" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="105" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D106" s="19" t="str">
+        <f>$C$91&amp;"2."</f>
+        <v>2.5.2.</v>
+      </c>
+      <c r="E106" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="107" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E108" s="19" t="str">
+        <f>$D$108&amp;"1."</f>
+        <v>1.</v>
+      </c>
+      <c r="F108" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="109" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F109" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="110" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F110" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="111" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F111" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="112" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E113" s="19" t="str">
+        <f>$D$108&amp;"2."</f>
+        <v>2.</v>
+      </c>
+      <c r="F113" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="114" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F114" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="115" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F115" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="116" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F116" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="117" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F117" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="118" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E119" s="19" t="str">
+        <f>$D$108&amp;"3."</f>
+        <v>3.</v>
+      </c>
+      <c r="F119" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="120" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F120" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="121" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F121" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="122" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="129" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="130" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="131" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14323,8 +14554,9 @@
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
-  <rowBreaks count="1" manualBreakCount="1">
+  <rowBreaks count="2" manualBreakCount="2">
     <brk id="45" max="34" man="1"/>
+    <brk id="90" max="34" man="1"/>
   </rowBreaks>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/nablarch_sample/アプリケーション方式設計書_2全体概要.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_2全体概要.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88236AC2-984B-4B42-949E-8D271233E9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EE09BE-1716-401D-ADB2-87556B28AE5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -400,7 +400,8 @@
     <t>ユーザからの問い合わせに対応するための証跡ログや、障害が発生したことを障害監視ツールに通知することを目的としたログ出力を行う。</t>
   </si>
   <si>
-    <t>ログ出力内容は入力処理方式によって異なるため、詳細は【アプリケーションログ設計書】を参照。</t>
+    <t>ログ出力内容は入力処理方式によって異なるため、詳細は「7.13.ログ」を参照。</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>

--- a/nablarch_sample/アプリケーション方式設計書_2全体概要.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_2全体概要.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EE09BE-1716-401D-ADB2-87556B28AE5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D758ED5-C303-46DB-852A-AB32F8366A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="2.全体概要" sheetId="13" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2.全体概要'!$A$1:$AI$122</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2.全体概要'!$A$1:$AI$123</definedName>
     <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$77</definedName>
     <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$77</definedName>
     <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$77</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -401,6 +401,40 @@
   </si>
   <si>
     <t>ログ出力内容は入力処理方式によって異なるため、詳細は「7.13.ログ」を参照。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>必要なログ出力は共通処理の中で行うため、個別プログラムでログ出力を実装する必要はない。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒツヨウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -13270,7 +13304,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI452"/>
+  <dimension ref="A1:AI453"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -14197,10 +14231,14 @@
     </row>
     <row r="121" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F121" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="122" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F122" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="122" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="123" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="124" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="125" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14531,6 +14569,7 @@
     <row r="450" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="451" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="452" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="E88:G89"/>

--- a/nablarch_sample/アプリケーション方式設計書_2全体概要.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_2全体概要.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D758ED5-C303-46DB-852A-AB32F8366A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010A490D-1DB2-493F-81A1-D01755DB0281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,11 +11,11 @@
     <sheet name="2.全体概要" sheetId="13" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2.全体概要'!$A$1:$AI$123</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$77</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$77</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$77</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$77</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2.全体概要'!$A$1:$AI$125</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$79</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$79</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$79</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$79</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -434,6 +434,22 @@
     </rPh>
     <rPh sb="37" eb="39">
       <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※WEBサーバー・Applicationサーバーは複数台で構成し、前段にロードバランサーを配置する。</t>
+    <rPh sb="25" eb="28">
+      <t>フクスウダイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ゼンダン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ハイチ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -904,13 +920,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -926,7 +942,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="828675" y="6943725"/>
+          <a:off x="828675" y="7229475"/>
           <a:ext cx="8610600" cy="3476626"/>
           <a:chOff x="63212" y="3335473"/>
           <a:chExt cx="8773832" cy="3306750"/>
@@ -2874,7 +2890,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="2771801" y="4598329"/>
-            <a:ext cx="408250" cy="898475"/>
+            <a:ext cx="484543" cy="898475"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3022,8 +3038,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3180277" y="4598073"/>
-            <a:ext cx="391095" cy="901011"/>
+            <a:off x="3257922" y="4598073"/>
+            <a:ext cx="454583" cy="901011"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3484,8 +3500,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3572809" y="4598947"/>
-            <a:ext cx="234025" cy="892351"/>
+            <a:off x="3708687" y="4598947"/>
+            <a:ext cx="285279" cy="892351"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3616,155 +3632,6 @@
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:t>HULFT</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="211" name="正方形/長方形 210">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D3000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3813701" y="4598947"/>
-            <a:ext cx="258837" cy="892351"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent5"/>
-          </a:lnRef>
-          <a:fillRef idx="2">
-            <a:schemeClr val="accent5"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="accent5"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vert="vert" wrap="square" lIns="36000" rIns="36000" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="900">
-                <a:solidFill>
-                  <a:schemeClr val="tx2">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>pgpool-Ⅱ</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -4959,8 +4826,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4079275" y="4598947"/>
-            <a:ext cx="261008" cy="892351"/>
+            <a:off x="4003672" y="4598947"/>
+            <a:ext cx="336611" cy="892351"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5812,15 +5679,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>88916</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>98441</xdr:colOff>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>92606</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>166297</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>175822</xdr:colOff>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>108960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5836,8 +5703,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="20043632">
-          <a:off x="3157327" y="7358820"/>
-          <a:ext cx="4819470" cy="2445229"/>
+          <a:off x="3413141" y="7636406"/>
+          <a:ext cx="4773206" cy="2445229"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13304,7 +13171,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI453"/>
+  <dimension ref="A1:AI455"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -13524,165 +13391,92 @@
     <row r="42" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="44" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C46" s="14" t="str">
+    <row r="45" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D45" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C48" s="14" t="str">
         <f>$B$5&amp;"2."</f>
         <v>2.2.</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D48" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D47" s="15" t="s">
+    <row r="49" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D49" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C74" s="14" t="str">
+    <row r="50" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C76" s="14" t="str">
         <f>$B$5&amp;"3."</f>
         <v>2.3.</v>
       </c>
-      <c r="D74" s="15" t="s">
+      <c r="D76" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C75" s="14"/>
-      <c r="D75" s="15" t="s">
+    <row r="77" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C77" s="14"/>
+      <c r="D77" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D76" s="15" t="s">
+    <row r="78" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D78" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D77" s="16" t="s">
+    <row r="79" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D79" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-    </row>
-    <row r="79" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="18"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="17" t="str">
-        <f>$B$5&amp;"4."</f>
-        <v>2.4.</v>
-      </c>
-      <c r="D79" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18"/>
-      <c r="K79" s="18"/>
-      <c r="L79" s="18"/>
-      <c r="M79" s="18"/>
-      <c r="N79" s="18"/>
-      <c r="O79" s="18"/>
-      <c r="P79" s="18"/>
-      <c r="Q79" s="18"/>
-      <c r="R79" s="18"/>
-      <c r="S79" s="18"/>
-      <c r="T79" s="18"/>
-      <c r="U79" s="18"/>
-      <c r="V79" s="18"/>
-      <c r="W79" s="18"/>
-      <c r="X79" s="18"/>
-      <c r="Y79" s="18"/>
-      <c r="Z79" s="18"/>
-      <c r="AA79" s="18"/>
-      <c r="AB79" s="18"/>
-      <c r="AC79" s="18"/>
-      <c r="AD79" s="18"/>
-      <c r="AE79" s="18"/>
-      <c r="AF79" s="18"/>
-      <c r="AG79" s="18"/>
-      <c r="AH79" s="18"/>
-      <c r="AI79" s="18"/>
-    </row>
-    <row r="80" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="18"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="17"/>
-      <c r="D80" s="19" t="str">
-        <f>$C$79&amp;"1."</f>
-        <v>2.4.1.</v>
-      </c>
-      <c r="E80" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="18"/>
-      <c r="L80" s="18"/>
-      <c r="M80" s="18"/>
-      <c r="N80" s="18"/>
-      <c r="O80" s="18"/>
-      <c r="P80" s="18"/>
-      <c r="Q80" s="18"/>
-      <c r="R80" s="18"/>
-      <c r="S80" s="18"/>
-      <c r="T80" s="18"/>
-      <c r="U80" s="18"/>
-      <c r="V80" s="18"/>
-      <c r="W80" s="18"/>
-      <c r="X80" s="18"/>
-      <c r="Y80" s="18"/>
-      <c r="Z80" s="18"/>
-      <c r="AA80" s="18"/>
-      <c r="AB80" s="18"/>
-      <c r="AC80" s="18"/>
-      <c r="AD80" s="18"/>
-      <c r="AE80" s="18"/>
-      <c r="AF80" s="18"/>
-      <c r="AG80" s="18"/>
-      <c r="AH80" s="18"/>
-      <c r="AI80" s="18"/>
+    <row r="80" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
     </row>
     <row r="81" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="18"/>
       <c r="B81" s="18"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="19"/>
+      <c r="C81" s="17" t="str">
+        <f>$B$5&amp;"4."</f>
+        <v>2.4.</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>21</v>
+      </c>
       <c r="E81" s="18"/>
       <c r="F81" s="18"/>
       <c r="G81" s="18"/>
@@ -13719,9 +13513,12 @@
       <c r="A82" s="18"/>
       <c r="B82" s="18"/>
       <c r="C82" s="17"/>
-      <c r="D82" s="19"/>
+      <c r="D82" s="19" t="str">
+        <f>$C$81&amp;"1."</f>
+        <v>2.4.1.</v>
+      </c>
       <c r="E82" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F82" s="18"/>
       <c r="G82" s="18"/>
@@ -13759,9 +13556,7 @@
       <c r="B83" s="18"/>
       <c r="C83" s="17"/>
       <c r="D83" s="19"/>
-      <c r="E83" s="18" t="s">
-        <v>26</v>
-      </c>
+      <c r="E83" s="18"/>
       <c r="F83" s="18"/>
       <c r="G83" s="18"/>
       <c r="H83" s="18"/>
@@ -13798,7 +13593,9 @@
       <c r="B84" s="18"/>
       <c r="C84" s="17"/>
       <c r="D84" s="19"/>
-      <c r="E84" s="18"/>
+      <c r="E84" s="18" t="s">
+        <v>22</v>
+      </c>
       <c r="F84" s="18"/>
       <c r="G84" s="18"/>
       <c r="H84" s="18"/>
@@ -13835,42 +13632,38 @@
       <c r="B85" s="18"/>
       <c r="C85" s="17"/>
       <c r="D85" s="19"/>
-      <c r="E85" s="20" t="s">
-        <v>24</v>
+      <c r="E85" s="18" t="s">
+        <v>26</v>
       </c>
-      <c r="F85" s="21"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I85" s="21"/>
-      <c r="J85" s="21"/>
-      <c r="K85" s="21"/>
-      <c r="L85" s="22"/>
-      <c r="M85" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="N85" s="21"/>
-      <c r="O85" s="21"/>
-      <c r="P85" s="21"/>
-      <c r="Q85" s="21"/>
-      <c r="R85" s="21"/>
-      <c r="S85" s="21"/>
-      <c r="T85" s="21"/>
-      <c r="U85" s="21"/>
-      <c r="V85" s="21"/>
-      <c r="W85" s="21"/>
-      <c r="X85" s="21"/>
-      <c r="Y85" s="21"/>
-      <c r="Z85" s="21"/>
-      <c r="AA85" s="21"/>
-      <c r="AB85" s="21"/>
-      <c r="AC85" s="21"/>
-      <c r="AD85" s="21"/>
-      <c r="AE85" s="21"/>
-      <c r="AF85" s="21"/>
-      <c r="AG85" s="21"/>
-      <c r="AH85" s="22"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18"/>
+      <c r="J85" s="18"/>
+      <c r="K85" s="18"/>
+      <c r="L85" s="18"/>
+      <c r="M85" s="18"/>
+      <c r="N85" s="18"/>
+      <c r="O85" s="18"/>
+      <c r="P85" s="18"/>
+      <c r="Q85" s="18"/>
+      <c r="R85" s="18"/>
+      <c r="S85" s="18"/>
+      <c r="T85" s="18"/>
+      <c r="U85" s="18"/>
+      <c r="V85" s="18"/>
+      <c r="W85" s="18"/>
+      <c r="X85" s="18"/>
+      <c r="Y85" s="18"/>
+      <c r="Z85" s="18"/>
+      <c r="AA85" s="18"/>
+      <c r="AB85" s="18"/>
+      <c r="AC85" s="18"/>
+      <c r="AD85" s="18"/>
+      <c r="AE85" s="18"/>
+      <c r="AF85" s="18"/>
+      <c r="AG85" s="18"/>
+      <c r="AH85" s="18"/>
       <c r="AI85" s="18"/>
     </row>
     <row r="86" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13878,42 +13671,36 @@
       <c r="B86" s="18"/>
       <c r="C86" s="17"/>
       <c r="D86" s="19"/>
-      <c r="E86" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F86" s="33"/>
-      <c r="G86" s="34"/>
-      <c r="H86" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="I86" s="33"/>
-      <c r="J86" s="33"/>
-      <c r="K86" s="33"/>
-      <c r="L86" s="34"/>
-      <c r="M86" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="N86" s="24"/>
-      <c r="O86" s="24"/>
-      <c r="P86" s="24"/>
-      <c r="Q86" s="24"/>
-      <c r="R86" s="24"/>
-      <c r="S86" s="24"/>
-      <c r="T86" s="24"/>
-      <c r="U86" s="24"/>
-      <c r="V86" s="24"/>
-      <c r="W86" s="24"/>
-      <c r="X86" s="24"/>
-      <c r="Y86" s="24"/>
-      <c r="Z86" s="24"/>
-      <c r="AA86" s="24"/>
-      <c r="AB86" s="24"/>
-      <c r="AC86" s="24"/>
-      <c r="AD86" s="24"/>
-      <c r="AE86" s="24"/>
-      <c r="AF86" s="24"/>
-      <c r="AG86" s="24"/>
-      <c r="AH86" s="25"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18"/>
+      <c r="J86" s="18"/>
+      <c r="K86" s="18"/>
+      <c r="L86" s="18"/>
+      <c r="M86" s="18"/>
+      <c r="N86" s="18"/>
+      <c r="O86" s="18"/>
+      <c r="P86" s="18"/>
+      <c r="Q86" s="18"/>
+      <c r="R86" s="18"/>
+      <c r="S86" s="18"/>
+      <c r="T86" s="18"/>
+      <c r="U86" s="18"/>
+      <c r="V86" s="18"/>
+      <c r="W86" s="18"/>
+      <c r="X86" s="18"/>
+      <c r="Y86" s="18"/>
+      <c r="Z86" s="18"/>
+      <c r="AA86" s="18"/>
+      <c r="AB86" s="18"/>
+      <c r="AC86" s="18"/>
+      <c r="AD86" s="18"/>
+      <c r="AE86" s="18"/>
+      <c r="AF86" s="18"/>
+      <c r="AG86" s="18"/>
+      <c r="AH86" s="18"/>
       <c r="AI86" s="18"/>
     </row>
     <row r="87" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13921,38 +13708,42 @@
       <c r="B87" s="18"/>
       <c r="C87" s="17"/>
       <c r="D87" s="19"/>
-      <c r="E87" s="39"/>
-      <c r="F87" s="40"/>
-      <c r="G87" s="41"/>
-      <c r="H87" s="39"/>
-      <c r="I87" s="40"/>
-      <c r="J87" s="40"/>
-      <c r="K87" s="40"/>
-      <c r="L87" s="41"/>
-      <c r="M87" s="26" t="s">
-        <v>31</v>
+      <c r="E87" s="20" t="s">
+        <v>24</v>
       </c>
-      <c r="N87" s="27"/>
-      <c r="O87" s="27"/>
-      <c r="P87" s="27"/>
-      <c r="Q87" s="27"/>
-      <c r="R87" s="27"/>
-      <c r="S87" s="27"/>
-      <c r="T87" s="27"/>
-      <c r="U87" s="27"/>
-      <c r="V87" s="27"/>
-      <c r="W87" s="27"/>
-      <c r="X87" s="27"/>
-      <c r="Y87" s="27"/>
-      <c r="Z87" s="27"/>
-      <c r="AA87" s="27"/>
-      <c r="AB87" s="27"/>
-      <c r="AC87" s="27"/>
-      <c r="AD87" s="27"/>
-      <c r="AE87" s="27"/>
-      <c r="AF87" s="27"/>
-      <c r="AG87" s="27"/>
-      <c r="AH87" s="28"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I87" s="21"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="22"/>
+      <c r="M87" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N87" s="21"/>
+      <c r="O87" s="21"/>
+      <c r="P87" s="21"/>
+      <c r="Q87" s="21"/>
+      <c r="R87" s="21"/>
+      <c r="S87" s="21"/>
+      <c r="T87" s="21"/>
+      <c r="U87" s="21"/>
+      <c r="V87" s="21"/>
+      <c r="W87" s="21"/>
+      <c r="X87" s="21"/>
+      <c r="Y87" s="21"/>
+      <c r="Z87" s="21"/>
+      <c r="AA87" s="21"/>
+      <c r="AB87" s="21"/>
+      <c r="AC87" s="21"/>
+      <c r="AD87" s="21"/>
+      <c r="AE87" s="21"/>
+      <c r="AF87" s="21"/>
+      <c r="AG87" s="21"/>
+      <c r="AH87" s="22"/>
       <c r="AI87" s="18"/>
     </row>
     <row r="88" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13961,19 +13752,19 @@
       <c r="C88" s="17"/>
       <c r="D88" s="19"/>
       <c r="E88" s="32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F88" s="33"/>
       <c r="G88" s="34"/>
-      <c r="H88" s="32" t="s">
-        <v>28</v>
+      <c r="H88" s="38" t="s">
+        <v>30</v>
       </c>
       <c r="I88" s="33"/>
       <c r="J88" s="33"/>
       <c r="K88" s="33"/>
       <c r="L88" s="34"/>
       <c r="M88" s="23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N88" s="24"/>
       <c r="O88" s="24"/>
@@ -14003,36 +13794,38 @@
       <c r="B89" s="18"/>
       <c r="C89" s="17"/>
       <c r="D89" s="19"/>
-      <c r="E89" s="35"/>
-      <c r="F89" s="36"/>
-      <c r="G89" s="37"/>
-      <c r="H89" s="35"/>
-      <c r="I89" s="36"/>
-      <c r="J89" s="36"/>
-      <c r="K89" s="36"/>
-      <c r="L89" s="37"/>
-      <c r="M89" s="29"/>
-      <c r="N89" s="30"/>
-      <c r="O89" s="30"/>
-      <c r="P89" s="30"/>
-      <c r="Q89" s="30"/>
-      <c r="R89" s="30"/>
-      <c r="S89" s="30"/>
-      <c r="T89" s="30"/>
-      <c r="U89" s="30"/>
-      <c r="V89" s="30"/>
-      <c r="W89" s="30"/>
-      <c r="X89" s="30"/>
-      <c r="Y89" s="30"/>
-      <c r="Z89" s="30"/>
-      <c r="AA89" s="30"/>
-      <c r="AB89" s="30"/>
-      <c r="AC89" s="30"/>
-      <c r="AD89" s="30"/>
-      <c r="AE89" s="30"/>
-      <c r="AF89" s="30"/>
-      <c r="AG89" s="30"/>
-      <c r="AH89" s="31"/>
+      <c r="E89" s="39"/>
+      <c r="F89" s="40"/>
+      <c r="G89" s="41"/>
+      <c r="H89" s="39"/>
+      <c r="I89" s="40"/>
+      <c r="J89" s="40"/>
+      <c r="K89" s="40"/>
+      <c r="L89" s="41"/>
+      <c r="M89" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="N89" s="27"/>
+      <c r="O89" s="27"/>
+      <c r="P89" s="27"/>
+      <c r="Q89" s="27"/>
+      <c r="R89" s="27"/>
+      <c r="S89" s="27"/>
+      <c r="T89" s="27"/>
+      <c r="U89" s="27"/>
+      <c r="V89" s="27"/>
+      <c r="W89" s="27"/>
+      <c r="X89" s="27"/>
+      <c r="Y89" s="27"/>
+      <c r="Z89" s="27"/>
+      <c r="AA89" s="27"/>
+      <c r="AB89" s="27"/>
+      <c r="AC89" s="27"/>
+      <c r="AD89" s="27"/>
+      <c r="AE89" s="27"/>
+      <c r="AF89" s="27"/>
+      <c r="AG89" s="27"/>
+      <c r="AH89" s="28"/>
       <c r="AI89" s="18"/>
     </row>
     <row r="90" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -14040,207 +13833,285 @@
       <c r="B90" s="18"/>
       <c r="C90" s="17"/>
       <c r="D90" s="19"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="18"/>
-      <c r="I90" s="18"/>
-      <c r="J90" s="18"/>
-      <c r="K90" s="18"/>
-      <c r="L90" s="18"/>
-      <c r="M90" s="18"/>
-      <c r="N90" s="18"/>
-      <c r="O90" s="18"/>
-      <c r="P90" s="18"/>
-      <c r="Q90" s="18"/>
-      <c r="R90" s="18"/>
-      <c r="S90" s="18"/>
-      <c r="T90" s="18"/>
-      <c r="U90" s="18"/>
-      <c r="V90" s="18"/>
-      <c r="W90" s="18"/>
-      <c r="X90" s="18"/>
-      <c r="Y90" s="18"/>
-      <c r="Z90" s="18"/>
-      <c r="AA90" s="18"/>
-      <c r="AB90" s="18"/>
-      <c r="AC90" s="18"/>
-      <c r="AD90" s="18"/>
-      <c r="AE90" s="18"/>
-      <c r="AF90" s="18"/>
-      <c r="AG90" s="18"/>
-      <c r="AH90" s="18"/>
+      <c r="E90" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F90" s="33"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I90" s="33"/>
+      <c r="J90" s="33"/>
+      <c r="K90" s="33"/>
+      <c r="L90" s="34"/>
+      <c r="M90" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="N90" s="24"/>
+      <c r="O90" s="24"/>
+      <c r="P90" s="24"/>
+      <c r="Q90" s="24"/>
+      <c r="R90" s="24"/>
+      <c r="S90" s="24"/>
+      <c r="T90" s="24"/>
+      <c r="U90" s="24"/>
+      <c r="V90" s="24"/>
+      <c r="W90" s="24"/>
+      <c r="X90" s="24"/>
+      <c r="Y90" s="24"/>
+      <c r="Z90" s="24"/>
+      <c r="AA90" s="24"/>
+      <c r="AB90" s="24"/>
+      <c r="AC90" s="24"/>
+      <c r="AD90" s="24"/>
+      <c r="AE90" s="24"/>
+      <c r="AF90" s="24"/>
+      <c r="AG90" s="24"/>
+      <c r="AH90" s="25"/>
       <c r="AI90" s="18"/>
     </row>
     <row r="91" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C91" s="17" t="str">
+      <c r="A91" s="18"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="35"/>
+      <c r="F91" s="36"/>
+      <c r="G91" s="37"/>
+      <c r="H91" s="35"/>
+      <c r="I91" s="36"/>
+      <c r="J91" s="36"/>
+      <c r="K91" s="36"/>
+      <c r="L91" s="37"/>
+      <c r="M91" s="29"/>
+      <c r="N91" s="30"/>
+      <c r="O91" s="30"/>
+      <c r="P91" s="30"/>
+      <c r="Q91" s="30"/>
+      <c r="R91" s="30"/>
+      <c r="S91" s="30"/>
+      <c r="T91" s="30"/>
+      <c r="U91" s="30"/>
+      <c r="V91" s="30"/>
+      <c r="W91" s="30"/>
+      <c r="X91" s="30"/>
+      <c r="Y91" s="30"/>
+      <c r="Z91" s="30"/>
+      <c r="AA91" s="30"/>
+      <c r="AB91" s="30"/>
+      <c r="AC91" s="30"/>
+      <c r="AD91" s="30"/>
+      <c r="AE91" s="30"/>
+      <c r="AF91" s="30"/>
+      <c r="AG91" s="30"/>
+      <c r="AH91" s="31"/>
+      <c r="AI91" s="18"/>
+    </row>
+    <row r="92" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="18"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
+      <c r="J92" s="18"/>
+      <c r="K92" s="18"/>
+      <c r="L92" s="18"/>
+      <c r="M92" s="18"/>
+      <c r="N92" s="18"/>
+      <c r="O92" s="18"/>
+      <c r="P92" s="18"/>
+      <c r="Q92" s="18"/>
+      <c r="R92" s="18"/>
+      <c r="S92" s="18"/>
+      <c r="T92" s="18"/>
+      <c r="U92" s="18"/>
+      <c r="V92" s="18"/>
+      <c r="W92" s="18"/>
+      <c r="X92" s="18"/>
+      <c r="Y92" s="18"/>
+      <c r="Z92" s="18"/>
+      <c r="AA92" s="18"/>
+      <c r="AB92" s="18"/>
+      <c r="AC92" s="18"/>
+      <c r="AD92" s="18"/>
+      <c r="AE92" s="18"/>
+      <c r="AF92" s="18"/>
+      <c r="AG92" s="18"/>
+      <c r="AH92" s="18"/>
+      <c r="AI92" s="18"/>
+    </row>
+    <row r="93" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C93" s="17" t="str">
         <f>$B$5&amp;"5."</f>
         <v>2.5.</v>
       </c>
-      <c r="D91" s="15" t="s">
+      <c r="D93" s="15" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="92" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C92" s="17"/>
-      <c r="D92" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="93" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C93" s="17"/>
-      <c r="D93" s="15" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="94" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C94" s="17"/>
+      <c r="D94" s="15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="95" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C95" s="14"/>
-      <c r="D95" s="19" t="str">
-        <f>$C$91&amp;"1."</f>
+      <c r="C95" s="17"/>
+      <c r="D95" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="96" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C96" s="17"/>
+    </row>
+    <row r="97" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C97" s="14"/>
+      <c r="D97" s="19" t="str">
+        <f>$C$93&amp;"1."</f>
         <v>2.5.1.</v>
       </c>
-      <c r="E95" s="15" t="s">
+      <c r="E97" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="96" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E96" s="15" t="s">
+    <row r="98" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E98" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="97" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E98" s="19" t="s">
+    <row r="99" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E100" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F98" s="15" t="s">
+      <c r="F100" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="99" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F99" s="15" t="s">
+    <row r="101" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F101" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F100" s="15" t="s">
+    <row r="102" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F102" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F101" s="15" t="s">
+    <row r="103" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F103" s="15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="102" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E103" s="19" t="s">
+    <row r="104" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E105" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F103" s="15" t="s">
+      <c r="F105" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="104" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F104" s="15" t="s">
+    <row r="106" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F106" s="15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="105" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D106" s="19" t="str">
-        <f>$C$91&amp;"2."</f>
+    <row r="107" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D108" s="19" t="str">
+        <f>$C$93&amp;"2."</f>
         <v>2.5.2.</v>
       </c>
-      <c r="E106" s="15" t="s">
+      <c r="E108" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="107" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E108" s="19" t="str">
-        <f>$D$108&amp;"1."</f>
+    <row r="109" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E110" s="19" t="str">
+        <f>$D$110&amp;"1."</f>
         <v>1.</v>
       </c>
-      <c r="F108" s="15" t="s">
+      <c r="F110" s="15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="109" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F109" s="15" t="s">
+    <row r="111" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F111" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="110" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F110" s="15" t="s">
+    <row r="112" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F112" s="15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F111" s="15" t="s">
+    <row r="113" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F113" s="15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="112" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E113" s="19" t="str">
-        <f>$D$108&amp;"2."</f>
+    <row r="114" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E115" s="19" t="str">
+        <f>$D$110&amp;"2."</f>
         <v>2.</v>
       </c>
-      <c r="F113" s="15" t="s">
+      <c r="F115" s="15" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="114" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F114" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="115" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F115" s="15" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="116" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F116" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="117" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F117" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="118" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F118" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="119" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F119" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="118" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E119" s="19" t="str">
-        <f>$D$108&amp;"3."</f>
+    <row r="120" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E121" s="19" t="str">
+        <f>$D$110&amp;"3."</f>
         <v>3.</v>
       </c>
-      <c r="F119" s="15" t="s">
+      <c r="F121" s="15" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="120" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F120" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="121" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F121" s="15" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="122" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F122" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="123" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F123" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="124" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F124" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="123" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="125" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="126" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="127" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14570,11 +14441,13 @@
     <row r="451" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="452" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="453" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E88:G89"/>
-    <mergeCell ref="H86:L87"/>
+    <mergeCell ref="E90:G91"/>
     <mergeCell ref="H88:L89"/>
+    <mergeCell ref="H90:L91"/>
     <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="E1:O1"/>
     <mergeCell ref="R1:X1"/>
@@ -14586,17 +14459,17 @@
     <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="E3:O3"/>
     <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="E86:G87"/>
+    <mergeCell ref="E88:G89"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="D77" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D79" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="45" max="34" man="1"/>
-    <brk id="90" max="34" man="1"/>
+    <brk id="46" max="34" man="1"/>
+    <brk id="92" max="34" man="1"/>
   </rowBreaks>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/nablarch_sample/アプリケーション方式設計書_2全体概要.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_2全体概要.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010A490D-1DB2-493F-81A1-D01755DB0281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024EC73E-AFED-4650-ACBD-6BC557391F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="2.全体概要" sheetId="13" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2.全体概要'!$A$1:$AI$125</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2.全体概要'!$A$1:$AI$93</definedName>
     <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$79</definedName>
     <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$79</definedName>
     <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$79</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -296,145 +296,6 @@
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u21/doc/application_framework/application_framework/nablarch/big_picture.html</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラー処理概要</t>
-    <rPh sb="3" eb="7">
-      <t>ショリガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>本項では、本システムの統一的なエラー発生時の処理概要を記載する。各入力処理方式及び出力ライブラリに依存するエラー処理については、</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>各章に記載するため、個別のセクションの「エラー処理」の章を参照すること。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラーの種類</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>本システムでは、エラーの種類を下記の２種類に分類する。</t>
-  </si>
-  <si>
-    <t>①</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>業務エラー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>入力値（ユーザ入力値や外部システムからの連携値等）として不正な値が送信された場合のエラー。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>このエラーは、予期可能なエラーであり、多くは業務処理の中で行う精査処理で発生する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>精査処理の詳細は、【7.1入力値精査】を参照。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>②</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>システムエラー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>事前に予期できないエラーの事を指す。例えば、データベース等のミドルウェアに起因するエラーやプログラムバグが該当する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラー発生時の共通方針</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラーハンドリング</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラー発生時の制御は、エラーを処理するハンドラで共通的に行う。このため、個別プログラムでのエラーハンドリングは行わない。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ただし、本来システムエラーとなるデータベースの重複エラーを業務エラーに付け替える必要がある場合（業務精査として重複エラーを</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>使用する場合）や、業務エラーをトリガーとして業務処理を行う必要が有る場合はこの限りではない。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>トランザクションのロールバック</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラー発生時には現在のトランザクションをロールバックし、更新内容を全て破棄する。これにより、</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>業務データが不正な状態（データの不整合等）となることを防止する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>なお、トランザクションのロールバック処理は、透過的トランザクション機能(実行制御基盤)で行う。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>このため、個別プログラムでのトランザクション制御は必要ない。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログ出力</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ユーザからの問い合わせに対応するための証跡ログや、障害が発生したことを障害監視ツールに通知することを目的としたログ出力を行う。</t>
-  </si>
-  <si>
-    <t>ログ出力内容は入力処理方式によって異なるため、詳細は「7.13.ログ」を参照。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>必要なログ出力は共通処理の中で行うため、個別プログラムでログ出力を実装する必要はない。</t>
-    <rPh sb="0" eb="2">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>キョウツウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>コベツ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ヒツヨウ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -13171,7 +13032,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI455"/>
+  <dimension ref="A1:AI423"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -13393,7 +13254,7 @@
     <row r="44" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="45" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D45" s="15" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13945,177 +13806,42 @@
       <c r="AH92" s="18"/>
       <c r="AI92" s="18"/>
     </row>
-    <row r="93" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C93" s="17" t="str">
-        <f>$B$5&amp;"5."</f>
-        <v>2.5.</v>
-      </c>
-      <c r="D93" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="94" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C94" s="17"/>
-      <c r="D94" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="95" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C95" s="17"/>
-      <c r="D95" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="96" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C96" s="17"/>
-    </row>
-    <row r="97" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C97" s="14"/>
-      <c r="D97" s="19" t="str">
-        <f>$C$93&amp;"1."</f>
-        <v>2.5.1.</v>
-      </c>
-      <c r="E97" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="98" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E98" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="99" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E100" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F100" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="101" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F101" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="102" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F102" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="103" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F103" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="104" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E105" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F105" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="106" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F106" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="107" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D108" s="19" t="str">
-        <f>$C$93&amp;"2."</f>
-        <v>2.5.2.</v>
-      </c>
-      <c r="E108" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="109" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E110" s="19" t="str">
-        <f>$D$110&amp;"1."</f>
-        <v>1.</v>
-      </c>
-      <c r="F110" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="111" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F111" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="112" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F112" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="113" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F113" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="114" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E115" s="19" t="str">
-        <f>$D$110&amp;"2."</f>
-        <v>2.</v>
-      </c>
-      <c r="F115" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="116" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F116" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="117" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F117" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="118" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F118" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="119" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F119" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="120" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E121" s="19" t="str">
-        <f>$D$110&amp;"3."</f>
-        <v>3.</v>
-      </c>
-      <c r="F121" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="122" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F122" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="123" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F123" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="124" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F124" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="125" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="129" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="130" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="131" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14411,38 +14137,6 @@
     <row r="421" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="422" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="423" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="E90:G91"/>
@@ -14467,9 +14161,8 @@
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
-  <rowBreaks count="2" manualBreakCount="2">
+  <rowBreaks count="1" manualBreakCount="1">
     <brk id="46" max="34" man="1"/>
-    <brk id="92" max="34" man="1"/>
   </rowBreaks>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/nablarch_sample/アプリケーション方式設計書_2全体概要.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_2全体概要.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88236AC2-984B-4B42-949E-8D271233E9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024EC73E-AFED-4650-ACBD-6BC557391F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,11 +11,11 @@
     <sheet name="2.全体概要" sheetId="13" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2.全体概要'!$A$1:$AI$122</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$77</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$77</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$77</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$77</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2.全体概要'!$A$1:$AI$93</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$79</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$79</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$79</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$79</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -299,108 +299,20 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>エラー処理概要</t>
-    <rPh sb="3" eb="7">
-      <t>ショリガイヨウ</t>
+    <t>※WEBサーバー・Applicationサーバーは複数台で構成し、前段にロードバランサーを配置する。</t>
+    <rPh sb="25" eb="28">
+      <t>フクスウダイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ゼンダン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ハイチ</t>
     </rPh>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>本項では、本システムの統一的なエラー発生時の処理概要を記載する。各入力処理方式及び出力ライブラリに依存するエラー処理については、</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>各章に記載するため、個別のセクションの「エラー処理」の章を参照すること。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラーの種類</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>本システムでは、エラーの種類を下記の２種類に分類する。</t>
-  </si>
-  <si>
-    <t>①</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>業務エラー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>入力値（ユーザ入力値や外部システムからの連携値等）として不正な値が送信された場合のエラー。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>このエラーは、予期可能なエラーであり、多くは業務処理の中で行う精査処理で発生する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>精査処理の詳細は、【7.1入力値精査】を参照。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>②</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>システムエラー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>事前に予期できないエラーの事を指す。例えば、データベース等のミドルウェアに起因するエラーやプログラムバグが該当する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラー発生時の共通方針</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラーハンドリング</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラー発生時の制御は、エラーを処理するハンドラで共通的に行う。このため、個別プログラムでのエラーハンドリングは行わない。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ただし、本来システムエラーとなるデータベースの重複エラーを業務エラーに付け替える必要がある場合（業務精査として重複エラーを</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>使用する場合）や、業務エラーをトリガーとして業務処理を行う必要が有る場合はこの限りではない。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>トランザクションのロールバック</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラー発生時には現在のトランザクションをロールバックし、更新内容を全て破棄する。これにより、</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>業務データが不正な状態（データの不整合等）となることを防止する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>なお、トランザクションのロールバック処理は、透過的トランザクション機能(実行制御基盤)で行う。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>このため、個別プログラムでのトランザクション制御は必要ない。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログ出力</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ユーザからの問い合わせに対応するための証跡ログや、障害が発生したことを障害監視ツールに通知することを目的としたログ出力を行う。</t>
-  </si>
-  <si>
-    <t>ログ出力内容は入力処理方式によって異なるため、詳細は【アプリケーションログ設計書】を参照。</t>
   </si>
 </sst>
 </file>
@@ -869,13 +781,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -891,7 +803,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="828675" y="6943725"/>
+          <a:off x="828675" y="7229475"/>
           <a:ext cx="8610600" cy="3476626"/>
           <a:chOff x="63212" y="3335473"/>
           <a:chExt cx="8773832" cy="3306750"/>
@@ -2839,7 +2751,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="2771801" y="4598329"/>
-            <a:ext cx="408250" cy="898475"/>
+            <a:ext cx="484543" cy="898475"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2987,8 +2899,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3180277" y="4598073"/>
-            <a:ext cx="391095" cy="901011"/>
+            <a:off x="3257922" y="4598073"/>
+            <a:ext cx="454583" cy="901011"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3449,8 +3361,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3572809" y="4598947"/>
-            <a:ext cx="234025" cy="892351"/>
+            <a:off x="3708687" y="4598947"/>
+            <a:ext cx="285279" cy="892351"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3581,155 +3493,6 @@
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:t>HULFT</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="211" name="正方形/長方形 210">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D3000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3813701" y="4598947"/>
-            <a:ext cx="258837" cy="892351"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent5"/>
-          </a:lnRef>
-          <a:fillRef idx="2">
-            <a:schemeClr val="accent5"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="accent5"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vert="vert" wrap="square" lIns="36000" rIns="36000" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="900">
-                <a:solidFill>
-                  <a:schemeClr val="tx2">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>pgpool-Ⅱ</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -4924,8 +4687,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4079275" y="4598947"/>
-            <a:ext cx="261008" cy="892351"/>
+            <a:off x="4003672" y="4598947"/>
+            <a:ext cx="336611" cy="892351"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5777,15 +5540,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>88916</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>98441</xdr:colOff>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>92606</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>166297</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>175822</xdr:colOff>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>108960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5801,8 +5564,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="20043632">
-          <a:off x="3157327" y="7358820"/>
-          <a:ext cx="4819470" cy="2445229"/>
+          <a:off x="3413141" y="7636406"/>
+          <a:ext cx="4773206" cy="2445229"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13269,7 +13032,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI452"/>
+  <dimension ref="A1:AI423"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -13489,165 +13252,92 @@
     <row r="42" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="44" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C46" s="14" t="str">
+    <row r="45" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D45" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C48" s="14" t="str">
         <f>$B$5&amp;"2."</f>
         <v>2.2.</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D48" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D47" s="15" t="s">
+    <row r="49" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D49" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C74" s="14" t="str">
+    <row r="50" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C76" s="14" t="str">
         <f>$B$5&amp;"3."</f>
         <v>2.3.</v>
       </c>
-      <c r="D74" s="15" t="s">
+      <c r="D76" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C75" s="14"/>
-      <c r="D75" s="15" t="s">
+    <row r="77" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C77" s="14"/>
+      <c r="D77" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D76" s="15" t="s">
+    <row r="78" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D78" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D77" s="16" t="s">
+    <row r="79" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D79" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-    </row>
-    <row r="79" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="18"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="17" t="str">
-        <f>$B$5&amp;"4."</f>
-        <v>2.4.</v>
-      </c>
-      <c r="D79" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18"/>
-      <c r="K79" s="18"/>
-      <c r="L79" s="18"/>
-      <c r="M79" s="18"/>
-      <c r="N79" s="18"/>
-      <c r="O79" s="18"/>
-      <c r="P79" s="18"/>
-      <c r="Q79" s="18"/>
-      <c r="R79" s="18"/>
-      <c r="S79" s="18"/>
-      <c r="T79" s="18"/>
-      <c r="U79" s="18"/>
-      <c r="V79" s="18"/>
-      <c r="W79" s="18"/>
-      <c r="X79" s="18"/>
-      <c r="Y79" s="18"/>
-      <c r="Z79" s="18"/>
-      <c r="AA79" s="18"/>
-      <c r="AB79" s="18"/>
-      <c r="AC79" s="18"/>
-      <c r="AD79" s="18"/>
-      <c r="AE79" s="18"/>
-      <c r="AF79" s="18"/>
-      <c r="AG79" s="18"/>
-      <c r="AH79" s="18"/>
-      <c r="AI79" s="18"/>
-    </row>
-    <row r="80" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="18"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="17"/>
-      <c r="D80" s="19" t="str">
-        <f>$C$79&amp;"1."</f>
-        <v>2.4.1.</v>
-      </c>
-      <c r="E80" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="18"/>
-      <c r="L80" s="18"/>
-      <c r="M80" s="18"/>
-      <c r="N80" s="18"/>
-      <c r="O80" s="18"/>
-      <c r="P80" s="18"/>
-      <c r="Q80" s="18"/>
-      <c r="R80" s="18"/>
-      <c r="S80" s="18"/>
-      <c r="T80" s="18"/>
-      <c r="U80" s="18"/>
-      <c r="V80" s="18"/>
-      <c r="W80" s="18"/>
-      <c r="X80" s="18"/>
-      <c r="Y80" s="18"/>
-      <c r="Z80" s="18"/>
-      <c r="AA80" s="18"/>
-      <c r="AB80" s="18"/>
-      <c r="AC80" s="18"/>
-      <c r="AD80" s="18"/>
-      <c r="AE80" s="18"/>
-      <c r="AF80" s="18"/>
-      <c r="AG80" s="18"/>
-      <c r="AH80" s="18"/>
-      <c r="AI80" s="18"/>
+    <row r="80" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
     </row>
     <row r="81" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="18"/>
       <c r="B81" s="18"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="19"/>
+      <c r="C81" s="17" t="str">
+        <f>$B$5&amp;"4."</f>
+        <v>2.4.</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>21</v>
+      </c>
       <c r="E81" s="18"/>
       <c r="F81" s="18"/>
       <c r="G81" s="18"/>
@@ -13684,9 +13374,12 @@
       <c r="A82" s="18"/>
       <c r="B82" s="18"/>
       <c r="C82" s="17"/>
-      <c r="D82" s="19"/>
+      <c r="D82" s="19" t="str">
+        <f>$C$81&amp;"1."</f>
+        <v>2.4.1.</v>
+      </c>
       <c r="E82" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F82" s="18"/>
       <c r="G82" s="18"/>
@@ -13724,9 +13417,7 @@
       <c r="B83" s="18"/>
       <c r="C83" s="17"/>
       <c r="D83" s="19"/>
-      <c r="E83" s="18" t="s">
-        <v>26</v>
-      </c>
+      <c r="E83" s="18"/>
       <c r="F83" s="18"/>
       <c r="G83" s="18"/>
       <c r="H83" s="18"/>
@@ -13763,7 +13454,9 @@
       <c r="B84" s="18"/>
       <c r="C84" s="17"/>
       <c r="D84" s="19"/>
-      <c r="E84" s="18"/>
+      <c r="E84" s="18" t="s">
+        <v>22</v>
+      </c>
       <c r="F84" s="18"/>
       <c r="G84" s="18"/>
       <c r="H84" s="18"/>
@@ -13800,42 +13493,38 @@
       <c r="B85" s="18"/>
       <c r="C85" s="17"/>
       <c r="D85" s="19"/>
-      <c r="E85" s="20" t="s">
-        <v>24</v>
+      <c r="E85" s="18" t="s">
+        <v>26</v>
       </c>
-      <c r="F85" s="21"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I85" s="21"/>
-      <c r="J85" s="21"/>
-      <c r="K85" s="21"/>
-      <c r="L85" s="22"/>
-      <c r="M85" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="N85" s="21"/>
-      <c r="O85" s="21"/>
-      <c r="P85" s="21"/>
-      <c r="Q85" s="21"/>
-      <c r="R85" s="21"/>
-      <c r="S85" s="21"/>
-      <c r="T85" s="21"/>
-      <c r="U85" s="21"/>
-      <c r="V85" s="21"/>
-      <c r="W85" s="21"/>
-      <c r="X85" s="21"/>
-      <c r="Y85" s="21"/>
-      <c r="Z85" s="21"/>
-      <c r="AA85" s="21"/>
-      <c r="AB85" s="21"/>
-      <c r="AC85" s="21"/>
-      <c r="AD85" s="21"/>
-      <c r="AE85" s="21"/>
-      <c r="AF85" s="21"/>
-      <c r="AG85" s="21"/>
-      <c r="AH85" s="22"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18"/>
+      <c r="J85" s="18"/>
+      <c r="K85" s="18"/>
+      <c r="L85" s="18"/>
+      <c r="M85" s="18"/>
+      <c r="N85" s="18"/>
+      <c r="O85" s="18"/>
+      <c r="P85" s="18"/>
+      <c r="Q85" s="18"/>
+      <c r="R85" s="18"/>
+      <c r="S85" s="18"/>
+      <c r="T85" s="18"/>
+      <c r="U85" s="18"/>
+      <c r="V85" s="18"/>
+      <c r="W85" s="18"/>
+      <c r="X85" s="18"/>
+      <c r="Y85" s="18"/>
+      <c r="Z85" s="18"/>
+      <c r="AA85" s="18"/>
+      <c r="AB85" s="18"/>
+      <c r="AC85" s="18"/>
+      <c r="AD85" s="18"/>
+      <c r="AE85" s="18"/>
+      <c r="AF85" s="18"/>
+      <c r="AG85" s="18"/>
+      <c r="AH85" s="18"/>
       <c r="AI85" s="18"/>
     </row>
     <row r="86" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13843,42 +13532,36 @@
       <c r="B86" s="18"/>
       <c r="C86" s="17"/>
       <c r="D86" s="19"/>
-      <c r="E86" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F86" s="33"/>
-      <c r="G86" s="34"/>
-      <c r="H86" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="I86" s="33"/>
-      <c r="J86" s="33"/>
-      <c r="K86" s="33"/>
-      <c r="L86" s="34"/>
-      <c r="M86" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="N86" s="24"/>
-      <c r="O86" s="24"/>
-      <c r="P86" s="24"/>
-      <c r="Q86" s="24"/>
-      <c r="R86" s="24"/>
-      <c r="S86" s="24"/>
-      <c r="T86" s="24"/>
-      <c r="U86" s="24"/>
-      <c r="V86" s="24"/>
-      <c r="W86" s="24"/>
-      <c r="X86" s="24"/>
-      <c r="Y86" s="24"/>
-      <c r="Z86" s="24"/>
-      <c r="AA86" s="24"/>
-      <c r="AB86" s="24"/>
-      <c r="AC86" s="24"/>
-      <c r="AD86" s="24"/>
-      <c r="AE86" s="24"/>
-      <c r="AF86" s="24"/>
-      <c r="AG86" s="24"/>
-      <c r="AH86" s="25"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18"/>
+      <c r="J86" s="18"/>
+      <c r="K86" s="18"/>
+      <c r="L86" s="18"/>
+      <c r="M86" s="18"/>
+      <c r="N86" s="18"/>
+      <c r="O86" s="18"/>
+      <c r="P86" s="18"/>
+      <c r="Q86" s="18"/>
+      <c r="R86" s="18"/>
+      <c r="S86" s="18"/>
+      <c r="T86" s="18"/>
+      <c r="U86" s="18"/>
+      <c r="V86" s="18"/>
+      <c r="W86" s="18"/>
+      <c r="X86" s="18"/>
+      <c r="Y86" s="18"/>
+      <c r="Z86" s="18"/>
+      <c r="AA86" s="18"/>
+      <c r="AB86" s="18"/>
+      <c r="AC86" s="18"/>
+      <c r="AD86" s="18"/>
+      <c r="AE86" s="18"/>
+      <c r="AF86" s="18"/>
+      <c r="AG86" s="18"/>
+      <c r="AH86" s="18"/>
       <c r="AI86" s="18"/>
     </row>
     <row r="87" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13886,38 +13569,42 @@
       <c r="B87" s="18"/>
       <c r="C87" s="17"/>
       <c r="D87" s="19"/>
-      <c r="E87" s="39"/>
-      <c r="F87" s="40"/>
-      <c r="G87" s="41"/>
-      <c r="H87" s="39"/>
-      <c r="I87" s="40"/>
-      <c r="J87" s="40"/>
-      <c r="K87" s="40"/>
-      <c r="L87" s="41"/>
-      <c r="M87" s="26" t="s">
-        <v>31</v>
+      <c r="E87" s="20" t="s">
+        <v>24</v>
       </c>
-      <c r="N87" s="27"/>
-      <c r="O87" s="27"/>
-      <c r="P87" s="27"/>
-      <c r="Q87" s="27"/>
-      <c r="R87" s="27"/>
-      <c r="S87" s="27"/>
-      <c r="T87" s="27"/>
-      <c r="U87" s="27"/>
-      <c r="V87" s="27"/>
-      <c r="W87" s="27"/>
-      <c r="X87" s="27"/>
-      <c r="Y87" s="27"/>
-      <c r="Z87" s="27"/>
-      <c r="AA87" s="27"/>
-      <c r="AB87" s="27"/>
-      <c r="AC87" s="27"/>
-      <c r="AD87" s="27"/>
-      <c r="AE87" s="27"/>
-      <c r="AF87" s="27"/>
-      <c r="AG87" s="27"/>
-      <c r="AH87" s="28"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I87" s="21"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="22"/>
+      <c r="M87" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N87" s="21"/>
+      <c r="O87" s="21"/>
+      <c r="P87" s="21"/>
+      <c r="Q87" s="21"/>
+      <c r="R87" s="21"/>
+      <c r="S87" s="21"/>
+      <c r="T87" s="21"/>
+      <c r="U87" s="21"/>
+      <c r="V87" s="21"/>
+      <c r="W87" s="21"/>
+      <c r="X87" s="21"/>
+      <c r="Y87" s="21"/>
+      <c r="Z87" s="21"/>
+      <c r="AA87" s="21"/>
+      <c r="AB87" s="21"/>
+      <c r="AC87" s="21"/>
+      <c r="AD87" s="21"/>
+      <c r="AE87" s="21"/>
+      <c r="AF87" s="21"/>
+      <c r="AG87" s="21"/>
+      <c r="AH87" s="22"/>
       <c r="AI87" s="18"/>
     </row>
     <row r="88" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13926,19 +13613,19 @@
       <c r="C88" s="17"/>
       <c r="D88" s="19"/>
       <c r="E88" s="32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F88" s="33"/>
       <c r="G88" s="34"/>
-      <c r="H88" s="32" t="s">
-        <v>28</v>
+      <c r="H88" s="38" t="s">
+        <v>30</v>
       </c>
       <c r="I88" s="33"/>
       <c r="J88" s="33"/>
       <c r="K88" s="33"/>
       <c r="L88" s="34"/>
       <c r="M88" s="23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N88" s="24"/>
       <c r="O88" s="24"/>
@@ -13968,36 +13655,38 @@
       <c r="B89" s="18"/>
       <c r="C89" s="17"/>
       <c r="D89" s="19"/>
-      <c r="E89" s="35"/>
-      <c r="F89" s="36"/>
-      <c r="G89" s="37"/>
-      <c r="H89" s="35"/>
-      <c r="I89" s="36"/>
-      <c r="J89" s="36"/>
-      <c r="K89" s="36"/>
-      <c r="L89" s="37"/>
-      <c r="M89" s="29"/>
-      <c r="N89" s="30"/>
-      <c r="O89" s="30"/>
-      <c r="P89" s="30"/>
-      <c r="Q89" s="30"/>
-      <c r="R89" s="30"/>
-      <c r="S89" s="30"/>
-      <c r="T89" s="30"/>
-      <c r="U89" s="30"/>
-      <c r="V89" s="30"/>
-      <c r="W89" s="30"/>
-      <c r="X89" s="30"/>
-      <c r="Y89" s="30"/>
-      <c r="Z89" s="30"/>
-      <c r="AA89" s="30"/>
-      <c r="AB89" s="30"/>
-      <c r="AC89" s="30"/>
-      <c r="AD89" s="30"/>
-      <c r="AE89" s="30"/>
-      <c r="AF89" s="30"/>
-      <c r="AG89" s="30"/>
-      <c r="AH89" s="31"/>
+      <c r="E89" s="39"/>
+      <c r="F89" s="40"/>
+      <c r="G89" s="41"/>
+      <c r="H89" s="39"/>
+      <c r="I89" s="40"/>
+      <c r="J89" s="40"/>
+      <c r="K89" s="40"/>
+      <c r="L89" s="41"/>
+      <c r="M89" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="N89" s="27"/>
+      <c r="O89" s="27"/>
+      <c r="P89" s="27"/>
+      <c r="Q89" s="27"/>
+      <c r="R89" s="27"/>
+      <c r="S89" s="27"/>
+      <c r="T89" s="27"/>
+      <c r="U89" s="27"/>
+      <c r="V89" s="27"/>
+      <c r="W89" s="27"/>
+      <c r="X89" s="27"/>
+      <c r="Y89" s="27"/>
+      <c r="Z89" s="27"/>
+      <c r="AA89" s="27"/>
+      <c r="AB89" s="27"/>
+      <c r="AC89" s="27"/>
+      <c r="AD89" s="27"/>
+      <c r="AE89" s="27"/>
+      <c r="AF89" s="27"/>
+      <c r="AG89" s="27"/>
+      <c r="AH89" s="28"/>
       <c r="AI89" s="18"/>
     </row>
     <row r="90" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -14005,207 +13694,154 @@
       <c r="B90" s="18"/>
       <c r="C90" s="17"/>
       <c r="D90" s="19"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="18"/>
-      <c r="I90" s="18"/>
-      <c r="J90" s="18"/>
-      <c r="K90" s="18"/>
-      <c r="L90" s="18"/>
-      <c r="M90" s="18"/>
-      <c r="N90" s="18"/>
-      <c r="O90" s="18"/>
-      <c r="P90" s="18"/>
-      <c r="Q90" s="18"/>
-      <c r="R90" s="18"/>
-      <c r="S90" s="18"/>
-      <c r="T90" s="18"/>
-      <c r="U90" s="18"/>
-      <c r="V90" s="18"/>
-      <c r="W90" s="18"/>
-      <c r="X90" s="18"/>
-      <c r="Y90" s="18"/>
-      <c r="Z90" s="18"/>
-      <c r="AA90" s="18"/>
-      <c r="AB90" s="18"/>
-      <c r="AC90" s="18"/>
-      <c r="AD90" s="18"/>
-      <c r="AE90" s="18"/>
-      <c r="AF90" s="18"/>
-      <c r="AG90" s="18"/>
-      <c r="AH90" s="18"/>
+      <c r="E90" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F90" s="33"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I90" s="33"/>
+      <c r="J90" s="33"/>
+      <c r="K90" s="33"/>
+      <c r="L90" s="34"/>
+      <c r="M90" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="N90" s="24"/>
+      <c r="O90" s="24"/>
+      <c r="P90" s="24"/>
+      <c r="Q90" s="24"/>
+      <c r="R90" s="24"/>
+      <c r="S90" s="24"/>
+      <c r="T90" s="24"/>
+      <c r="U90" s="24"/>
+      <c r="V90" s="24"/>
+      <c r="W90" s="24"/>
+      <c r="X90" s="24"/>
+      <c r="Y90" s="24"/>
+      <c r="Z90" s="24"/>
+      <c r="AA90" s="24"/>
+      <c r="AB90" s="24"/>
+      <c r="AC90" s="24"/>
+      <c r="AD90" s="24"/>
+      <c r="AE90" s="24"/>
+      <c r="AF90" s="24"/>
+      <c r="AG90" s="24"/>
+      <c r="AH90" s="25"/>
       <c r="AI90" s="18"/>
     </row>
     <row r="91" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C91" s="17" t="str">
-        <f>$B$5&amp;"5."</f>
-        <v>2.5.</v>
-      </c>
-      <c r="D91" s="15" t="s">
-        <v>34</v>
-      </c>
+      <c r="A91" s="18"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="35"/>
+      <c r="F91" s="36"/>
+      <c r="G91" s="37"/>
+      <c r="H91" s="35"/>
+      <c r="I91" s="36"/>
+      <c r="J91" s="36"/>
+      <c r="K91" s="36"/>
+      <c r="L91" s="37"/>
+      <c r="M91" s="29"/>
+      <c r="N91" s="30"/>
+      <c r="O91" s="30"/>
+      <c r="P91" s="30"/>
+      <c r="Q91" s="30"/>
+      <c r="R91" s="30"/>
+      <c r="S91" s="30"/>
+      <c r="T91" s="30"/>
+      <c r="U91" s="30"/>
+      <c r="V91" s="30"/>
+      <c r="W91" s="30"/>
+      <c r="X91" s="30"/>
+      <c r="Y91" s="30"/>
+      <c r="Z91" s="30"/>
+      <c r="AA91" s="30"/>
+      <c r="AB91" s="30"/>
+      <c r="AC91" s="30"/>
+      <c r="AD91" s="30"/>
+      <c r="AE91" s="30"/>
+      <c r="AF91" s="30"/>
+      <c r="AG91" s="30"/>
+      <c r="AH91" s="31"/>
+      <c r="AI91" s="18"/>
     </row>
     <row r="92" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="18"/>
+      <c r="B92" s="18"/>
       <c r="C92" s="17"/>
-      <c r="D92" s="15" t="s">
-        <v>35</v>
-      </c>
+      <c r="D92" s="19"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
+      <c r="J92" s="18"/>
+      <c r="K92" s="18"/>
+      <c r="L92" s="18"/>
+      <c r="M92" s="18"/>
+      <c r="N92" s="18"/>
+      <c r="O92" s="18"/>
+      <c r="P92" s="18"/>
+      <c r="Q92" s="18"/>
+      <c r="R92" s="18"/>
+      <c r="S92" s="18"/>
+      <c r="T92" s="18"/>
+      <c r="U92" s="18"/>
+      <c r="V92" s="18"/>
+      <c r="W92" s="18"/>
+      <c r="X92" s="18"/>
+      <c r="Y92" s="18"/>
+      <c r="Z92" s="18"/>
+      <c r="AA92" s="18"/>
+      <c r="AB92" s="18"/>
+      <c r="AC92" s="18"/>
+      <c r="AD92" s="18"/>
+      <c r="AE92" s="18"/>
+      <c r="AF92" s="18"/>
+      <c r="AG92" s="18"/>
+      <c r="AH92" s="18"/>
+      <c r="AI92" s="18"/>
     </row>
-    <row r="93" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C93" s="17"/>
-      <c r="D93" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="94" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C94" s="17"/>
-    </row>
-    <row r="95" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C95" s="14"/>
-      <c r="D95" s="19" t="str">
-        <f>$C$91&amp;"1."</f>
-        <v>2.5.1.</v>
-      </c>
-      <c r="E95" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="96" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E96" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="97" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E98" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F98" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="99" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F99" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="100" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F100" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="101" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F101" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="102" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E103" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F103" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="104" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F104" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="105" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D106" s="19" t="str">
-        <f>$C$91&amp;"2."</f>
-        <v>2.5.2.</v>
-      </c>
-      <c r="E106" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="107" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E108" s="19" t="str">
-        <f>$D$108&amp;"1."</f>
-        <v>1.</v>
-      </c>
-      <c r="F108" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="109" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F109" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="110" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F110" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="111" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F111" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="112" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E113" s="19" t="str">
-        <f>$D$108&amp;"2."</f>
-        <v>2.</v>
-      </c>
-      <c r="F113" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="114" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F114" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="115" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F115" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="116" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F116" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="117" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F117" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="118" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E119" s="19" t="str">
-        <f>$D$108&amp;"3."</f>
-        <v>3.</v>
-      </c>
-      <c r="F119" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="120" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F120" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="121" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F121" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="122" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="129" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="130" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="131" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14501,40 +14137,11 @@
     <row r="421" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="422" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="423" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E88:G89"/>
-    <mergeCell ref="H86:L87"/>
+    <mergeCell ref="E90:G91"/>
     <mergeCell ref="H88:L89"/>
+    <mergeCell ref="H90:L91"/>
     <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="E1:O1"/>
     <mergeCell ref="R1:X1"/>
@@ -14546,17 +14153,16 @@
     <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="E3:O3"/>
     <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="E86:G87"/>
+    <mergeCell ref="E88:G89"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="D77" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D79" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
-  <rowBreaks count="2" manualBreakCount="2">
-    <brk id="45" max="34" man="1"/>
-    <brk id="90" max="34" man="1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="46" max="34" man="1"/>
   </rowBreaks>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/nablarch_sample/アプリケーション方式設計書_2全体概要.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_2全体概要.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024EC73E-AFED-4650-ACBD-6BC557391F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="16590" windowHeight="6570"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2.全体概要" sheetId="13" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2.全体概要'!$A$1:$AI$92</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$77</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$77</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$77</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$77</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2.全体概要'!$A$1:$AI$93</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$79</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$79</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$79</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$79</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -109,52 +121,6 @@
     <t>本システムで稼働するアプリケーションの全体図を以下に記載する。</t>
   </si>
   <si>
-    <t>https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/nablarch/big_picture.html</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>サポートが行われることになっている。</t>
-    <rPh sb="5" eb="6">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>また、Java9、Java10は本システムリリース前に公式サポートが終了し、</t>
-    <rPh sb="16" eb="17">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>コウシキ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2019年1月までOracleによるサポートが行われており、Red HatのOpenJDK 8であれば、2020年10月まで</t>
-    <rPh sb="4" eb="5">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>XXXプロジェクト</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -217,10 +183,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>5u13</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>その他のソフトウェアに関しては、役割分担上、インフラ担当に割り当たっているため、インフラ担当の成果物にて定義する。</t>
     <rPh sb="2" eb="3">
       <t>タ</t>
@@ -258,10 +220,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>OpenJDK8</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>種類およびバージョン</t>
     <rPh sb="0" eb="2">
       <t>シュルイ</t>
@@ -269,25 +227,90 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>現時点の最新バージョンを利用するため。</t>
-    <rPh sb="0" eb="3">
-      <t>ゲンジテン</t>
+    <t>5u21</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OSがRHELであるため、同じRedHat社が提供するOpenJDKビルドを使用する。</t>
+    <rPh sb="13" eb="14">
+      <t>オナ</t>
     </rPh>
-    <rPh sb="4" eb="6">
-      <t>サイシン</t>
+    <rPh sb="21" eb="22">
+      <t>シャ</t>
     </rPh>
-    <rPh sb="12" eb="14">
-      <t>リヨウ</t>
+    <rPh sb="23" eb="25">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Java11は本プロジェクトのコーディングフェーズ時点では、リリースされていない。</t>
-    <rPh sb="7" eb="8">
-      <t>ホン</t>
+    <t>RedHat OpenJDK 17</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2022年7月現在、RedHatのOpenJDKで最もサポート期間が長いバージョンは17であるため、これを選択する。</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
     </rPh>
-    <rPh sb="25" eb="27">
-      <t>ジテン</t>
+    <rPh sb="6" eb="7">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2022年7月現在最新バージョンである5u21を選択する。</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://nablarch.github.io/docs/5u21/doc/application_framework/application_framework/nablarch/big_picture.html</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※WEBサーバー・Applicationサーバーは複数台で構成し、前段にロードバランサーを配置する。</t>
+    <rPh sb="25" eb="28">
+      <t>フクスウダイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ゼンダン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ハイチ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -295,7 +318,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -531,7 +554,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -646,6 +669,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -725,9 +751,9 @@
   <cellStyles count="5">
     <cellStyle name="ハイパーリンク" xfId="4" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 3 2 3" xfId="3"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -742,6 +768,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -752,31 +781,43 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="192" name="グループ化 191"/>
+        <xdr:cNvPr id="192" name="グループ化 191">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="836839" y="6951889"/>
-          <a:ext cx="8694965" cy="3476626"/>
+          <a:off x="828675" y="7229475"/>
+          <a:ext cx="8610600" cy="3476626"/>
           <a:chOff x="63212" y="3335473"/>
           <a:chExt cx="8773832" cy="3306750"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="193" name="正方形/長方形 192"/>
+          <xdr:cNvPr id="193" name="正方形/長方形 192">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C1000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -914,7 +955,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="194" name="正方形/長方形 193"/>
+          <xdr:cNvPr id="194" name="正方形/長方形 193">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C2000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1055,7 +1102,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="195" name="正方形/長方形 194"/>
+          <xdr:cNvPr id="195" name="正方形/長方形 194">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C3000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1198,7 +1251,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="196" name="正方形/長方形 195"/>
+          <xdr:cNvPr id="196" name="正方形/長方形 195">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C4000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1362,7 +1421,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="197" name="正方形/長方形 196"/>
+          <xdr:cNvPr id="197" name="正方形/長方形 196">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C5000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1506,7 +1571,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="198" name="正方形/長方形 197"/>
+          <xdr:cNvPr id="198" name="正方形/長方形 197">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C6000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1654,7 +1725,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="199" name="正方形/長方形 198"/>
+          <xdr:cNvPr id="199" name="正方形/長方形 198">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C7000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1806,7 +1883,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="200" name="正方形/長方形 199"/>
+          <xdr:cNvPr id="200" name="正方形/長方形 199">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C8000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1997,13 +2080,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="201" name="正方形/長方形 200"/>
+          <xdr:cNvPr id="201" name="正方形/長方形 200">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C9000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
             <a:off x="124077" y="4598329"/>
-            <a:ext cx="559491" cy="898475"/>
+            <a:ext cx="728643" cy="898475"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2140,13 +2229,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="202" name="正方形/長方形 201"/>
+          <xdr:cNvPr id="202" name="正方形/長方形 201">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CA000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="683568" y="4598072"/>
-            <a:ext cx="476373" cy="901012"/>
+            <a:off x="859586" y="4598072"/>
+            <a:ext cx="822119" cy="901012"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2298,13 +2393,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="203" name="正方形/長方形 202"/>
+          <xdr:cNvPr id="203" name="正方形/長方形 202">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CB000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1159941" y="4598329"/>
-            <a:ext cx="634360" cy="898473"/>
+            <a:off x="1683419" y="4598329"/>
+            <a:ext cx="776817" cy="898473"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2441,150 +2542,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="204" name="正方形/長方形 203"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1764672" y="4598330"/>
-            <a:ext cx="702524" cy="898474"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent5"/>
-          </a:lnRef>
-          <a:fillRef idx="2">
-            <a:schemeClr val="accent5"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="accent5"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" lIns="36000" rIns="36000" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="900">
-                <a:solidFill>
-                  <a:schemeClr val="tx2">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>JDK(OpenJDK 8)</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="205" name="正方形/長方形 204"/>
+          <xdr:cNvPr id="205" name="正方形/長方形 204">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CD000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2775,13 +2739,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="206" name="正方形/長方形 205"/>
+          <xdr:cNvPr id="206" name="正方形/長方形 205">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CE000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
             <a:off x="2771801" y="4598329"/>
-            <a:ext cx="559513" cy="898475"/>
+            <a:ext cx="484543" cy="898475"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2918,13 +2888,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="207" name="正方形/長方形 206"/>
+          <xdr:cNvPr id="207" name="正方形/長方形 206">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CF000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3331314" y="4598073"/>
-            <a:ext cx="468050" cy="901011"/>
+            <a:off x="3257922" y="4598073"/>
+            <a:ext cx="454583" cy="901011"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3076,13 +3052,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="208" name="正方形/長方形 207"/>
+          <xdr:cNvPr id="208" name="正方形/長方形 207">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D0000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4864990" y="4600302"/>
-            <a:ext cx="1327523" cy="442836"/>
+            <a:off x="4350091" y="4857484"/>
+            <a:ext cx="910140" cy="198598"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3219,13 +3201,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="209" name="正方形/長方形 208"/>
+          <xdr:cNvPr id="209" name="正方形/長方形 208">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D1000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4864990" y="5043138"/>
-            <a:ext cx="1327523" cy="455945"/>
+            <a:off x="4347149" y="5064561"/>
+            <a:ext cx="1845364" cy="434522"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3355,20 +3343,26 @@
                 <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>JDK(OpenJDK 8)</a:t>
+              <a:t>JDK(OpenJDK 17)</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="210" name="正方形/長方形 209"/>
+          <xdr:cNvPr id="210" name="正方形/長方形 209">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D2000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3799364" y="4598947"/>
-            <a:ext cx="234025" cy="892351"/>
+            <a:off x="3708687" y="4598947"/>
+            <a:ext cx="285279" cy="892351"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3505,156 +3499,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="211" name="正方形/長方形 210"/>
+          <xdr:cNvPr id="212" name="正方形/長方形 211">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D4000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4033389" y="4598947"/>
-            <a:ext cx="402881" cy="892351"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent5"/>
-          </a:lnRef>
-          <a:fillRef idx="2">
-            <a:schemeClr val="accent5"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="accent5"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vert="vert" wrap="square" lIns="36000" rIns="36000" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="900">
-                <a:solidFill>
-                  <a:schemeClr val="tx2">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>pgpool-Ⅱ</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="212" name="正方形/長方形 211"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4864990" y="4220521"/>
-            <a:ext cx="1327522" cy="360040"/>
+            <a:off x="4350093" y="4598638"/>
+            <a:ext cx="910138" cy="252375"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3796,13 +3653,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="213" name="正方形/長方形 212"/>
+          <xdr:cNvPr id="213" name="正方形/長方形 212">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D5000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4860032" y="3716464"/>
-            <a:ext cx="1332480" cy="504057"/>
+            <a:off x="4338271" y="3919169"/>
+            <a:ext cx="908230" cy="663735"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3933,7 +3796,7 @@
                 <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>業務アプリケーション</a:t>
+              <a:t>業務</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
               <a:solidFill>
@@ -3946,41 +3809,47 @@
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
                 <a:solidFill>
                   <a:srgbClr val="C00000"/>
                 </a:solidFill>
                 <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>（</a:t>
+              <a:t>アプリケーション</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:rPr lang="en-US" altLang="ja-JP" sz="900">
                 <a:solidFill>
                   <a:srgbClr val="C00000"/>
                 </a:solidFill>
                 <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>Online / Batch</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>）</a:t>
+              <a:t>(Online)</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="214" name="正方形/長方形 213"/>
+          <xdr:cNvPr id="214" name="正方形/長方形 213">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D6000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4171,13 +4040,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="215" name="正方形/長方形 214"/>
+          <xdr:cNvPr id="215" name="正方形/長方形 214">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D7000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
             <a:off x="6477354" y="4586591"/>
-            <a:ext cx="559491" cy="930401"/>
+            <a:ext cx="739483" cy="930401"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4314,13 +4189,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="216" name="正方形/長方形 215"/>
+          <xdr:cNvPr id="216" name="正方形/長方形 215">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D8000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7036845" y="4586866"/>
-            <a:ext cx="468050" cy="932403"/>
+            <a:off x="7223703" y="4586866"/>
+            <a:ext cx="699976" cy="932403"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4472,13 +4353,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="217" name="正方形/長方形 216"/>
+          <xdr:cNvPr id="217" name="正方形/長方形 216">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D9000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7504894" y="4586563"/>
-            <a:ext cx="523490" cy="930669"/>
+            <a:off x="7930826" y="4586563"/>
+            <a:ext cx="818412" cy="930669"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4615,150 +4502,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="218" name="正方形/長方形 217"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8028384" y="4586563"/>
-            <a:ext cx="720080" cy="930669"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent5"/>
-          </a:lnRef>
-          <a:fillRef idx="2">
-            <a:schemeClr val="accent5"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="accent5"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" lIns="36000" rIns="36000" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="900">
-                <a:solidFill>
-                  <a:schemeClr val="tx2">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>JDK(OpenJDK 8)</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="219" name="正方形/長方形 218"/>
+          <xdr:cNvPr id="219" name="正方形/長方形 218">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DB000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4926,13 +4676,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="220" name="正方形/長方形 219"/>
+          <xdr:cNvPr id="220" name="正方形/長方形 219">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DC000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4436270" y="4598947"/>
-            <a:ext cx="428720" cy="892351"/>
+            <a:off x="4003672" y="4598947"/>
+            <a:ext cx="336611" cy="892351"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5069,7 +4825,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="221" name="正方形/長方形 220"/>
+          <xdr:cNvPr id="221" name="正方形/長方形 220">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DD000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5237,7 +4999,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="222" name="正方形/長方形 221"/>
+          <xdr:cNvPr id="222" name="正方形/長方形 221">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DE000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5403,31 +5171,401 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="154" name="正方形/長方形 153">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D64EAAE1-D7D2-4ED6-A58D-18B8856D438C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5253366" y="4592167"/>
+            <a:ext cx="940545" cy="465921"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" lIns="36000" rIns="36000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>Nablarch</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="156" name="正方形/長方形 155">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34324E4A-8E80-4C29-A4F2-A4F7E25C7321}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5246501" y="3919169"/>
+            <a:ext cx="954274" cy="663735"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" lIns="36000" rIns="36000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>業務</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>アプリケーション</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>Batch</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>）</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>259005</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>98441</xdr:colOff>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>92606</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>57439</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>175822</xdr:colOff>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>108960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="162" name="正方形/長方形 161"/>
+        <xdr:cNvPr id="162" name="正方形/長方形 161">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A2000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="20043632">
-          <a:off x="2745030" y="8207906"/>
-          <a:ext cx="4770484" cy="1873729"/>
+          <a:off x="3413141" y="7636406"/>
+          <a:ext cx="4773206" cy="2445229"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5489,20 +5627,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="グループ化 1"/>
+        <xdr:cNvPr id="2" name="グループ化 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="364671" y="1347241"/>
-          <a:ext cx="9125858" cy="4944248"/>
+          <a:off x="361950" y="1339077"/>
+          <a:ext cx="9036050" cy="4944248"/>
           <a:chOff x="339725" y="1313677"/>
           <a:chExt cx="8324850" cy="5182373"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="137" name="グループ化 136"/>
+          <xdr:cNvPr id="137" name="グループ化 136">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000089000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -5515,7 +5665,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="140" name="円/楕円 139"/>
+            <xdr:cNvPr id="140" name="円/楕円 139">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5561,7 +5717,13 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="141" name="直線コネクタ 140"/>
+            <xdr:cNvPr id="141" name="直線コネクタ 140">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="140" idx="1"/>
               <a:endCxn id="140" idx="5"/>
@@ -5594,7 +5756,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="142" name="直線コネクタ 141"/>
+            <xdr:cNvPr id="142" name="直線コネクタ 141">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="140" idx="7"/>
               <a:endCxn id="140" idx="3"/>
@@ -5628,7 +5796,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="110" name="グループ化 109"/>
+          <xdr:cNvPr id="110" name="グループ化 109">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -5641,7 +5815,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="111" name="円/楕円 110"/>
+            <xdr:cNvPr id="111" name="円/楕円 110">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5687,7 +5867,13 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="115" name="直線コネクタ 114"/>
+            <xdr:cNvPr id="115" name="直線コネクタ 114">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000073000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="111" idx="1"/>
               <a:endCxn id="111" idx="5"/>
@@ -5720,7 +5906,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="116" name="直線コネクタ 115"/>
+            <xdr:cNvPr id="116" name="直線コネクタ 115">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="111" idx="7"/>
               <a:endCxn id="111" idx="3"/>
@@ -5754,7 +5946,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="19" name="グループ化 18"/>
+          <xdr:cNvPr id="19" name="グループ化 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -5767,7 +5965,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="円/楕円 11"/>
+            <xdr:cNvPr id="12" name="円/楕円 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5813,7 +6017,13 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="14" name="直線コネクタ 13"/>
+            <xdr:cNvPr id="14" name="直線コネクタ 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="12" idx="1"/>
               <a:endCxn id="12" idx="5"/>
@@ -5846,7 +6056,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="109" name="直線コネクタ 108"/>
+            <xdr:cNvPr id="109" name="直線コネクタ 108">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="12" idx="7"/>
               <a:endCxn id="12" idx="3"/>
@@ -5880,7 +6096,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="85" name="Rectangle 37"/>
+          <xdr:cNvPr id="85" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6026,7 +6248,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="86" name="Rectangle 37"/>
+          <xdr:cNvPr id="86" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6167,7 +6395,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="87" name="Rectangle 37"/>
+          <xdr:cNvPr id="87" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6332,7 +6566,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="88" name="Rectangle 37"/>
+          <xdr:cNvPr id="88" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6494,7 +6734,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="96" name="Rectangle 37"/>
+          <xdr:cNvPr id="96" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6651,7 +6897,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="97" name="Rectangle 37"/>
+          <xdr:cNvPr id="97" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6816,7 +7068,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="101" name="フローチャート : 磁気ディスク 100"/>
+          <xdr:cNvPr id="101" name="フローチャート : 磁気ディスク 100">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6978,7 +7236,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="102" name="Rectangle 37"/>
+          <xdr:cNvPr id="102" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -7143,13 +7407,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="103" name="正方形/長方形 102"/>
+          <xdr:cNvPr id="103" name="正方形/長方形 102">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5735127" y="3472006"/>
-            <a:ext cx="443577" cy="644066"/>
+            <a:off x="5702592" y="3472006"/>
+            <a:ext cx="508648" cy="644066"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -7308,13 +7578,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="104" name="正方形/長方形 103"/>
+          <xdr:cNvPr id="104" name="正方形/長方形 103">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6266962" y="3472006"/>
-            <a:ext cx="443577" cy="644066"/>
+            <a:off x="6234426" y="3472006"/>
+            <a:ext cx="508648" cy="644066"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -7468,13 +7744,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="105" name="正方形/長方形 104"/>
+          <xdr:cNvPr id="105" name="正方形/長方形 104">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6829675" y="3472006"/>
-            <a:ext cx="443577" cy="644066"/>
+            <a:off x="6797140" y="3472006"/>
+            <a:ext cx="508648" cy="644066"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -7628,7 +7910,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="106" name="正方形/長方形 105"/>
+          <xdr:cNvPr id="106" name="正方形/長方形 105">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7771,7 +8059,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="107" name="正方形/長方形 106"/>
+          <xdr:cNvPr id="107" name="正方形/長方形 106">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7914,7 +8208,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="108" name="正方形/長方形 107"/>
+          <xdr:cNvPr id="108" name="正方形/長方形 107">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8057,7 +8357,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="112" name="正方形/長方形 111"/>
+          <xdr:cNvPr id="112" name="正方形/長方形 111">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000070000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8188,7 +8494,7 @@
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>オンラインアプリ</a:t>
+              <a:t>会員</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
@@ -8196,7 +8502,7 @@
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>1</a:t>
+              <a:t>WEB1</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -8208,7 +8514,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="113" name="正方形/長方形 112"/>
+          <xdr:cNvPr id="113" name="正方形/長方形 112">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000071000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8339,7 +8651,7 @@
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>オンラインアプリ</a:t>
+              <a:t>会員</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" sz="800">
@@ -8347,7 +8659,7 @@
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>2</a:t>
+              <a:t>WEB2</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -8359,7 +8671,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="114" name="正方形/長方形 113"/>
+          <xdr:cNvPr id="114" name="正方形/長方形 113">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000072000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8490,7 +8808,7 @@
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>オンラインアプリ</a:t>
+              <a:t>管理者</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" sz="800">
@@ -8498,7 +8816,7 @@
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>3</a:t>
+              <a:t>WEB</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -8510,7 +8828,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="118" name="正方形/長方形 117"/>
+          <xdr:cNvPr id="118" name="正方形/長方形 117">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000076000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8648,7 +8972,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="119" name="カギ線コネクタ 118"/>
+          <xdr:cNvPr id="119" name="カギ線コネクタ 118">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000077000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="118" idx="3"/>
             <a:endCxn id="105" idx="2"/>
@@ -8656,8 +8986,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipV="1">
-            <a:off x="5305513" y="4116072"/>
-            <a:ext cx="1745951" cy="329784"/>
+            <a:off x="5305512" y="4116072"/>
+            <a:ext cx="1745951" cy="328196"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector2">
             <a:avLst/>
@@ -8683,13 +9013,19 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="120" name="直線コネクタ 119"/>
+          <xdr:cNvPr id="120" name="直線コネクタ 119">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000078000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="103" idx="2"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipH="1">
+          <a:xfrm>
             <a:off x="5956916" y="4116072"/>
             <a:ext cx="1" cy="314656"/>
           </a:xfrm>
@@ -8717,14 +9053,20 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="121" name="直線コネクタ 120"/>
+          <xdr:cNvPr id="121" name="直線コネクタ 120">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="104" idx="2"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="6488751" y="4116072"/>
+          <a:xfrm>
+            <a:off x="6488750" y="4116072"/>
             <a:ext cx="1" cy="307509"/>
           </a:xfrm>
           <a:prstGeom prst="line">
@@ -8751,7 +9093,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="123" name="正方形/長方形 122"/>
+          <xdr:cNvPr id="123" name="正方形/長方形 122">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8890,7 +9238,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="125" name="正方形/長方形 124"/>
+          <xdr:cNvPr id="125" name="正方形/長方形 124">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9031,7 +9385,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="127" name="正方形/長方形 126"/>
+          <xdr:cNvPr id="127" name="正方形/長方形 126">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9170,7 +9530,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="128" name="カギ線コネクタ 127"/>
+          <xdr:cNvPr id="128" name="カギ線コネクタ 127">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="113" idx="3"/>
             <a:endCxn id="104" idx="0"/>
@@ -9178,8 +9544,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5357459" y="2760838"/>
-            <a:ext cx="1131292" cy="711168"/>
+            <a:off x="5357459" y="2759251"/>
+            <a:ext cx="1131291" cy="712755"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector2">
             <a:avLst/>
@@ -9210,7 +9576,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="131" name="カギ線コネクタ 130"/>
+          <xdr:cNvPr id="131" name="カギ線コネクタ 130">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="114" idx="3"/>
             <a:endCxn id="105" idx="0"/>
@@ -9218,8 +9590,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5357459" y="3193023"/>
-            <a:ext cx="1694005" cy="278983"/>
+            <a:off x="5357459" y="3194610"/>
+            <a:ext cx="1694005" cy="277396"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector2">
             <a:avLst/>
@@ -9248,7 +9620,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="133" name="Rectangle 37"/>
+          <xdr:cNvPr id="133" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -9389,7 +9767,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="134" name="Rectangle 37"/>
+          <xdr:cNvPr id="134" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000086000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -9573,7 +9957,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="135" name="カギ線コネクタ 134"/>
+          <xdr:cNvPr id="135" name="カギ線コネクタ 134">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000087000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="112" idx="3"/>
             <a:endCxn id="103" idx="0"/>
@@ -9581,8 +9971,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5357460" y="2350659"/>
-            <a:ext cx="599456" cy="1121347"/>
+            <a:off x="5357460" y="2349071"/>
+            <a:ext cx="599456" cy="1122935"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector2">
             <a:avLst/>
@@ -9611,7 +10001,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="138" name="右矢印 137"/>
+          <xdr:cNvPr id="138" name="右矢印 137">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9760,7 +10156,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="146" name="Rectangle 37"/>
+          <xdr:cNvPr id="146" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000092000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -9901,7 +10303,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="147" name="Rectangle 37"/>
+          <xdr:cNvPr id="147" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000093000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -10058,7 +10466,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="150" name="Rectangle 37"/>
+          <xdr:cNvPr id="150" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000096000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -10215,7 +10629,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="160" name="右矢印 159"/>
+          <xdr:cNvPr id="160" name="右矢印 159">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A0000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10364,13 +10784,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="161" name="正方形/長方形 160"/>
+          <xdr:cNvPr id="161" name="正方形/長方形 160">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm rot="20043632">
-            <a:off x="2618032" y="2610381"/>
-            <a:ext cx="4392659" cy="1832454"/>
+            <a:off x="2723540" y="2610380"/>
+            <a:ext cx="4392659" cy="1832455"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -10417,7 +10843,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="163" name="Rectangle 37"/>
+          <xdr:cNvPr id="163" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A3000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -10582,7 +11014,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="82" name="カギ線コネクタ 81"/>
+          <xdr:cNvPr id="82" name="カギ線コネクタ 81">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:endCxn id="127" idx="1"/>
           </xdr:cNvCxnSpPr>
@@ -10619,7 +11057,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="89" name="カギ線コネクタ 88"/>
+          <xdr:cNvPr id="89" name="カギ線コネクタ 88">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:endCxn id="107" idx="1"/>
           </xdr:cNvCxnSpPr>
@@ -10660,7 +11104,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="91" name="カギ線コネクタ 90"/>
+          <xdr:cNvPr id="91" name="カギ線コネクタ 90">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:endCxn id="123" idx="1"/>
           </xdr:cNvCxnSpPr>
@@ -10697,7 +11147,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
+          <xdr:cNvPr id="20" name="テキスト ボックス 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10749,7 +11205,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="117" name="テキスト ボックス 116"/>
+          <xdr:cNvPr id="117" name="テキスト ボックス 116">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000075000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10801,7 +11263,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="122" name="Rectangle 37"/>
+          <xdr:cNvPr id="122" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -10963,7 +11431,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="124" name="Rectangle 37"/>
+          <xdr:cNvPr id="124" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -11112,7 +11586,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="126" name="グループ化 125"/>
+          <xdr:cNvPr id="126" name="グループ化 125">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -11125,7 +11605,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="129" name="円/楕円 128"/>
+            <xdr:cNvPr id="129" name="円/楕円 128">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000081000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -11171,7 +11657,13 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="130" name="直線コネクタ 129"/>
+            <xdr:cNvPr id="130" name="直線コネクタ 129">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="129" idx="1"/>
               <a:endCxn id="129" idx="5"/>
@@ -11204,7 +11696,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="132" name="直線コネクタ 131"/>
+            <xdr:cNvPr id="132" name="直線コネクタ 131">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="129" idx="7"/>
               <a:endCxn id="129" idx="3"/>
@@ -11238,7 +11736,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="136" name="テキスト ボックス 135"/>
+          <xdr:cNvPr id="136" name="テキスト ボックス 135">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000088000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11290,7 +11794,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="139" name="右矢印 138"/>
+          <xdr:cNvPr id="139" name="右矢印 138">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11435,7 +11945,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="143" name="テキスト ボックス 142"/>
+          <xdr:cNvPr id="143" name="テキスト ボックス 142">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11487,7 +12003,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="144" name="グループ化 143"/>
+          <xdr:cNvPr id="144" name="グループ化 143">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000090000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -11500,7 +12022,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="145" name="円/楕円 144"/>
+            <xdr:cNvPr id="145" name="円/楕円 144">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000091000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -11546,7 +12074,13 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="151" name="直線コネクタ 150"/>
+            <xdr:cNvPr id="151" name="直線コネクタ 150">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000097000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="145" idx="1"/>
               <a:endCxn id="145" idx="5"/>
@@ -11579,7 +12113,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="152" name="直線コネクタ 151"/>
+            <xdr:cNvPr id="152" name="直線コネクタ 151">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000098000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="145" idx="7"/>
               <a:endCxn id="145" idx="3"/>
@@ -11613,7 +12153,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="153" name="テキスト ボックス 152"/>
+          <xdr:cNvPr id="153" name="テキスト ボックス 152">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000099000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11665,7 +12211,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="149" name="右矢印 148"/>
+          <xdr:cNvPr id="149" name="右矢印 148">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000095000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11814,7 +12366,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="148" name="右矢印 147"/>
+          <xdr:cNvPr id="148" name="右矢印 147">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000094000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11979,7 +12537,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="155" name="図 154" descr="çå£ãªé¡ã®ãã¬ãã©ã³ã»ãªãã¬ã¼ã¿ã¼ã®ã¤ã©ã¹ãï¼ç·æ§ï¼"/>
+        <xdr:cNvPr id="155" name="図 154" descr="çå£ãªé¡ã®ãã¬ãã©ã³ã»ãªãã¬ã¼ã¿ã¼ã®ã¤ã©ã¹ãï¼ç·æ§ï¼">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12034,7 +12598,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="165" name="図 164" descr="ãã½ã³ã³ãä½¿ãå¥³æ§ã®ã¤ã©ã¹ã"/>
+        <xdr:cNvPr id="165" name="図 164" descr="ãã½ã³ã³ãä½¿ãå¥³æ§ã®ã¤ã©ã¹ã">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A5000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12089,7 +12659,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="166" name="図 165" descr="ãã½ã³ã³ãä½¿ãã¹ãã¼ãã¦ã§ã¢ãçãäººã®ã¤ã©ã¹ãï¼ç·æ§ï¼"/>
+        <xdr:cNvPr id="166" name="図 165" descr="ãã½ã³ã³ãä½¿ãã¹ãã¼ãã¦ã§ã¢ãçãäººã®ã¤ã©ã¹ãï¼ç·æ§ï¼">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A6000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12133,7 +12709,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -12175,7 +12751,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12208,9 +12784,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12243,6 +12836,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -12418,13 +13028,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI454"/>
+  <dimension ref="A1:AI423"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="140" zoomScaleNormal="100" zoomScaleSheetLayoutView="140" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -12438,45 +13048,45 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="44" t="s">
-        <v>22</v>
+      <c r="E1" s="45" t="s">
+        <v>18</v>
       </c>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="47"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="47" t="s">
-        <v>23</v>
+      <c r="R1" s="48" t="s">
+        <v>19</v>
       </c>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="50"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="43"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="44"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -12485,43 +13095,43 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="55"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="56"/>
       <c r="P2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="8"/>
-      <c r="R2" s="56" t="s">
+      <c r="R2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="59"/>
       <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="43"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="44"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -12530,39 +13140,39 @@
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="12"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="61"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="62"/>
       <c r="Y3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="Z3" s="13"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="51"/>
-      <c r="AD3" s="51"/>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="43"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="52"/>
+      <c r="AC3" s="52"/>
+      <c r="AD3" s="52"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="44"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12642,165 +13252,92 @@
     <row r="42" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="44" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C46" s="14" t="str">
+    <row r="45" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D45" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C48" s="14" t="str">
         <f>$B$5&amp;"2."</f>
         <v>2.2.</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D48" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D47" s="15" t="s">
+    <row r="49" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D49" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C74" s="14" t="str">
+    <row r="50" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C76" s="14" t="str">
         <f>$B$5&amp;"3."</f>
         <v>2.3.</v>
       </c>
-      <c r="D74" s="15" t="s">
+      <c r="D76" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C75" s="14"/>
-      <c r="D75" s="15" t="s">
+    <row r="77" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C77" s="14"/>
+      <c r="D77" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D76" s="15" t="s">
-        <v>24</v>
+    <row r="78" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D78" s="15" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D77" s="16" t="s">
-        <v>18</v>
+    <row r="79" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D79" s="16" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-    </row>
-    <row r="79" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="18"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="17" t="str">
-        <f>$B$5&amp;"4."</f>
-        <v>2.4.</v>
-      </c>
-      <c r="D79" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18"/>
-      <c r="K79" s="18"/>
-      <c r="L79" s="18"/>
-      <c r="M79" s="18"/>
-      <c r="N79" s="18"/>
-      <c r="O79" s="18"/>
-      <c r="P79" s="18"/>
-      <c r="Q79" s="18"/>
-      <c r="R79" s="18"/>
-      <c r="S79" s="18"/>
-      <c r="T79" s="18"/>
-      <c r="U79" s="18"/>
-      <c r="V79" s="18"/>
-      <c r="W79" s="18"/>
-      <c r="X79" s="18"/>
-      <c r="Y79" s="18"/>
-      <c r="Z79" s="18"/>
-      <c r="AA79" s="18"/>
-      <c r="AB79" s="18"/>
-      <c r="AC79" s="18"/>
-      <c r="AD79" s="18"/>
-      <c r="AE79" s="18"/>
-      <c r="AF79" s="18"/>
-      <c r="AG79" s="18"/>
-      <c r="AH79" s="18"/>
-      <c r="AI79" s="18"/>
-    </row>
-    <row r="80" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="18"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="17"/>
-      <c r="D80" s="19" t="str">
-        <f>$C$79&amp;"1."</f>
-        <v>2.4.1.</v>
-      </c>
-      <c r="E80" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="18"/>
-      <c r="L80" s="18"/>
-      <c r="M80" s="18"/>
-      <c r="N80" s="18"/>
-      <c r="O80" s="18"/>
-      <c r="P80" s="18"/>
-      <c r="Q80" s="18"/>
-      <c r="R80" s="18"/>
-      <c r="S80" s="18"/>
-      <c r="T80" s="18"/>
-      <c r="U80" s="18"/>
-      <c r="V80" s="18"/>
-      <c r="W80" s="18"/>
-      <c r="X80" s="18"/>
-      <c r="Y80" s="18"/>
-      <c r="Z80" s="18"/>
-      <c r="AA80" s="18"/>
-      <c r="AB80" s="18"/>
-      <c r="AC80" s="18"/>
-      <c r="AD80" s="18"/>
-      <c r="AE80" s="18"/>
-      <c r="AF80" s="18"/>
-      <c r="AG80" s="18"/>
-      <c r="AH80" s="18"/>
-      <c r="AI80" s="18"/>
+    <row r="80" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
     </row>
     <row r="81" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="18"/>
       <c r="B81" s="18"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="19"/>
+      <c r="C81" s="17" t="str">
+        <f>$B$5&amp;"4."</f>
+        <v>2.4.</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>21</v>
+      </c>
       <c r="E81" s="18"/>
       <c r="F81" s="18"/>
       <c r="G81" s="18"/>
@@ -12837,9 +13374,12 @@
       <c r="A82" s="18"/>
       <c r="B82" s="18"/>
       <c r="C82" s="17"/>
-      <c r="D82" s="19"/>
+      <c r="D82" s="19" t="str">
+        <f>$C$81&amp;"1."</f>
+        <v>2.4.1.</v>
+      </c>
       <c r="E82" s="18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F82" s="18"/>
       <c r="G82" s="18"/>
@@ -12877,9 +13417,7 @@
       <c r="B83" s="18"/>
       <c r="C83" s="17"/>
       <c r="D83" s="19"/>
-      <c r="E83" s="18" t="s">
-        <v>31</v>
-      </c>
+      <c r="E83" s="18"/>
       <c r="F83" s="18"/>
       <c r="G83" s="18"/>
       <c r="H83" s="18"/>
@@ -12916,7 +13454,9 @@
       <c r="B84" s="18"/>
       <c r="C84" s="17"/>
       <c r="D84" s="19"/>
-      <c r="E84" s="18"/>
+      <c r="E84" s="18" t="s">
+        <v>22</v>
+      </c>
       <c r="F84" s="18"/>
       <c r="G84" s="18"/>
       <c r="H84" s="18"/>
@@ -12953,42 +13493,38 @@
       <c r="B85" s="18"/>
       <c r="C85" s="17"/>
       <c r="D85" s="19"/>
-      <c r="E85" s="20" t="s">
-        <v>28</v>
+      <c r="E85" s="18" t="s">
+        <v>26</v>
       </c>
-      <c r="F85" s="21"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="I85" s="21"/>
-      <c r="J85" s="21"/>
-      <c r="K85" s="21"/>
-      <c r="L85" s="22"/>
-      <c r="M85" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="N85" s="21"/>
-      <c r="O85" s="21"/>
-      <c r="P85" s="21"/>
-      <c r="Q85" s="21"/>
-      <c r="R85" s="21"/>
-      <c r="S85" s="21"/>
-      <c r="T85" s="21"/>
-      <c r="U85" s="21"/>
-      <c r="V85" s="21"/>
-      <c r="W85" s="21"/>
-      <c r="X85" s="21"/>
-      <c r="Y85" s="21"/>
-      <c r="Z85" s="21"/>
-      <c r="AA85" s="21"/>
-      <c r="AB85" s="21"/>
-      <c r="AC85" s="21"/>
-      <c r="AD85" s="21"/>
-      <c r="AE85" s="21"/>
-      <c r="AF85" s="21"/>
-      <c r="AG85" s="21"/>
-      <c r="AH85" s="22"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18"/>
+      <c r="J85" s="18"/>
+      <c r="K85" s="18"/>
+      <c r="L85" s="18"/>
+      <c r="M85" s="18"/>
+      <c r="N85" s="18"/>
+      <c r="O85" s="18"/>
+      <c r="P85" s="18"/>
+      <c r="Q85" s="18"/>
+      <c r="R85" s="18"/>
+      <c r="S85" s="18"/>
+      <c r="T85" s="18"/>
+      <c r="U85" s="18"/>
+      <c r="V85" s="18"/>
+      <c r="W85" s="18"/>
+      <c r="X85" s="18"/>
+      <c r="Y85" s="18"/>
+      <c r="Z85" s="18"/>
+      <c r="AA85" s="18"/>
+      <c r="AB85" s="18"/>
+      <c r="AC85" s="18"/>
+      <c r="AD85" s="18"/>
+      <c r="AE85" s="18"/>
+      <c r="AF85" s="18"/>
+      <c r="AG85" s="18"/>
+      <c r="AH85" s="18"/>
       <c r="AI85" s="18"/>
     </row>
     <row r="86" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12996,42 +13532,36 @@
       <c r="B86" s="18"/>
       <c r="C86" s="17"/>
       <c r="D86" s="19"/>
-      <c r="E86" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F86" s="33"/>
-      <c r="G86" s="34"/>
-      <c r="H86" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="I86" s="33"/>
-      <c r="J86" s="33"/>
-      <c r="K86" s="33"/>
-      <c r="L86" s="34"/>
-      <c r="M86" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="N86" s="24"/>
-      <c r="O86" s="24"/>
-      <c r="P86" s="24"/>
-      <c r="Q86" s="24"/>
-      <c r="R86" s="24"/>
-      <c r="S86" s="24"/>
-      <c r="T86" s="24"/>
-      <c r="U86" s="24"/>
-      <c r="V86" s="24"/>
-      <c r="W86" s="24"/>
-      <c r="X86" s="24"/>
-      <c r="Y86" s="24"/>
-      <c r="Z86" s="24"/>
-      <c r="AA86" s="24"/>
-      <c r="AB86" s="24"/>
-      <c r="AC86" s="24"/>
-      <c r="AD86" s="24"/>
-      <c r="AE86" s="24"/>
-      <c r="AF86" s="24"/>
-      <c r="AG86" s="24"/>
-      <c r="AH86" s="25"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18"/>
+      <c r="J86" s="18"/>
+      <c r="K86" s="18"/>
+      <c r="L86" s="18"/>
+      <c r="M86" s="18"/>
+      <c r="N86" s="18"/>
+      <c r="O86" s="18"/>
+      <c r="P86" s="18"/>
+      <c r="Q86" s="18"/>
+      <c r="R86" s="18"/>
+      <c r="S86" s="18"/>
+      <c r="T86" s="18"/>
+      <c r="U86" s="18"/>
+      <c r="V86" s="18"/>
+      <c r="W86" s="18"/>
+      <c r="X86" s="18"/>
+      <c r="Y86" s="18"/>
+      <c r="Z86" s="18"/>
+      <c r="AA86" s="18"/>
+      <c r="AB86" s="18"/>
+      <c r="AC86" s="18"/>
+      <c r="AD86" s="18"/>
+      <c r="AE86" s="18"/>
+      <c r="AF86" s="18"/>
+      <c r="AG86" s="18"/>
+      <c r="AH86" s="18"/>
       <c r="AI86" s="18"/>
     </row>
     <row r="87" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13039,38 +13569,42 @@
       <c r="B87" s="18"/>
       <c r="C87" s="17"/>
       <c r="D87" s="19"/>
-      <c r="E87" s="38"/>
-      <c r="F87" s="39"/>
-      <c r="G87" s="40"/>
-      <c r="H87" s="38"/>
-      <c r="I87" s="39"/>
-      <c r="J87" s="39"/>
-      <c r="K87" s="39"/>
-      <c r="L87" s="40"/>
-      <c r="M87" s="26" t="s">
-        <v>19</v>
+      <c r="E87" s="20" t="s">
+        <v>24</v>
       </c>
-      <c r="N87" s="27"/>
-      <c r="O87" s="27"/>
-      <c r="P87" s="27"/>
-      <c r="Q87" s="27"/>
-      <c r="R87" s="27"/>
-      <c r="S87" s="27"/>
-      <c r="T87" s="27"/>
-      <c r="U87" s="27"/>
-      <c r="V87" s="27"/>
-      <c r="W87" s="27"/>
-      <c r="X87" s="27"/>
-      <c r="Y87" s="27"/>
-      <c r="Z87" s="27"/>
-      <c r="AA87" s="27"/>
-      <c r="AB87" s="27"/>
-      <c r="AC87" s="27"/>
-      <c r="AD87" s="27"/>
-      <c r="AE87" s="27"/>
-      <c r="AF87" s="27"/>
-      <c r="AG87" s="27"/>
-      <c r="AH87" s="28"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I87" s="21"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="22"/>
+      <c r="M87" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N87" s="21"/>
+      <c r="O87" s="21"/>
+      <c r="P87" s="21"/>
+      <c r="Q87" s="21"/>
+      <c r="R87" s="21"/>
+      <c r="S87" s="21"/>
+      <c r="T87" s="21"/>
+      <c r="U87" s="21"/>
+      <c r="V87" s="21"/>
+      <c r="W87" s="21"/>
+      <c r="X87" s="21"/>
+      <c r="Y87" s="21"/>
+      <c r="Z87" s="21"/>
+      <c r="AA87" s="21"/>
+      <c r="AB87" s="21"/>
+      <c r="AC87" s="21"/>
+      <c r="AD87" s="21"/>
+      <c r="AE87" s="21"/>
+      <c r="AF87" s="21"/>
+      <c r="AG87" s="21"/>
+      <c r="AH87" s="22"/>
       <c r="AI87" s="18"/>
     </row>
     <row r="88" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13078,38 +13612,42 @@
       <c r="B88" s="18"/>
       <c r="C88" s="17"/>
       <c r="D88" s="19"/>
-      <c r="E88" s="38"/>
-      <c r="F88" s="39"/>
-      <c r="G88" s="40"/>
-      <c r="H88" s="38"/>
-      <c r="I88" s="39"/>
-      <c r="J88" s="39"/>
-      <c r="K88" s="39"/>
-      <c r="L88" s="40"/>
-      <c r="M88" s="26" t="s">
-        <v>20</v>
+      <c r="E88" s="32" t="s">
+        <v>23</v>
       </c>
-      <c r="N88" s="27"/>
-      <c r="O88" s="27"/>
-      <c r="P88" s="27"/>
-      <c r="Q88" s="27"/>
-      <c r="R88" s="27"/>
-      <c r="S88" s="27"/>
-      <c r="T88" s="27"/>
-      <c r="U88" s="27"/>
-      <c r="V88" s="27"/>
-      <c r="W88" s="27"/>
-      <c r="X88" s="27"/>
-      <c r="Y88" s="27"/>
-      <c r="Z88" s="27"/>
-      <c r="AA88" s="27"/>
-      <c r="AB88" s="27"/>
-      <c r="AC88" s="27"/>
-      <c r="AD88" s="27"/>
-      <c r="AE88" s="27"/>
-      <c r="AF88" s="27"/>
-      <c r="AG88" s="27"/>
-      <c r="AH88" s="28"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="I88" s="33"/>
+      <c r="J88" s="33"/>
+      <c r="K88" s="33"/>
+      <c r="L88" s="34"/>
+      <c r="M88" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="N88" s="24"/>
+      <c r="O88" s="24"/>
+      <c r="P88" s="24"/>
+      <c r="Q88" s="24"/>
+      <c r="R88" s="24"/>
+      <c r="S88" s="24"/>
+      <c r="T88" s="24"/>
+      <c r="U88" s="24"/>
+      <c r="V88" s="24"/>
+      <c r="W88" s="24"/>
+      <c r="X88" s="24"/>
+      <c r="Y88" s="24"/>
+      <c r="Z88" s="24"/>
+      <c r="AA88" s="24"/>
+      <c r="AB88" s="24"/>
+      <c r="AC88" s="24"/>
+      <c r="AD88" s="24"/>
+      <c r="AE88" s="24"/>
+      <c r="AF88" s="24"/>
+      <c r="AG88" s="24"/>
+      <c r="AH88" s="25"/>
       <c r="AI88" s="18"/>
     </row>
     <row r="89" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13117,38 +13655,38 @@
       <c r="B89" s="18"/>
       <c r="C89" s="17"/>
       <c r="D89" s="19"/>
-      <c r="E89" s="35"/>
-      <c r="F89" s="36"/>
-      <c r="G89" s="37"/>
-      <c r="H89" s="35"/>
-      <c r="I89" s="36"/>
-      <c r="J89" s="36"/>
-      <c r="K89" s="36"/>
-      <c r="L89" s="37"/>
-      <c r="M89" s="29" t="s">
-        <v>35</v>
+      <c r="E89" s="39"/>
+      <c r="F89" s="40"/>
+      <c r="G89" s="41"/>
+      <c r="H89" s="39"/>
+      <c r="I89" s="40"/>
+      <c r="J89" s="40"/>
+      <c r="K89" s="40"/>
+      <c r="L89" s="41"/>
+      <c r="M89" s="26" t="s">
+        <v>31</v>
       </c>
-      <c r="N89" s="30"/>
-      <c r="O89" s="30"/>
-      <c r="P89" s="30"/>
-      <c r="Q89" s="30"/>
-      <c r="R89" s="30"/>
-      <c r="S89" s="30"/>
-      <c r="T89" s="30"/>
-      <c r="U89" s="30"/>
-      <c r="V89" s="30"/>
-      <c r="W89" s="30"/>
-      <c r="X89" s="30"/>
-      <c r="Y89" s="30"/>
-      <c r="Z89" s="30"/>
-      <c r="AA89" s="30"/>
-      <c r="AB89" s="30"/>
-      <c r="AC89" s="30"/>
-      <c r="AD89" s="30"/>
-      <c r="AE89" s="30"/>
-      <c r="AF89" s="30"/>
-      <c r="AG89" s="30"/>
-      <c r="AH89" s="31"/>
+      <c r="N89" s="27"/>
+      <c r="O89" s="27"/>
+      <c r="P89" s="27"/>
+      <c r="Q89" s="27"/>
+      <c r="R89" s="27"/>
+      <c r="S89" s="27"/>
+      <c r="T89" s="27"/>
+      <c r="U89" s="27"/>
+      <c r="V89" s="27"/>
+      <c r="W89" s="27"/>
+      <c r="X89" s="27"/>
+      <c r="Y89" s="27"/>
+      <c r="Z89" s="27"/>
+      <c r="AA89" s="27"/>
+      <c r="AB89" s="27"/>
+      <c r="AC89" s="27"/>
+      <c r="AD89" s="27"/>
+      <c r="AE89" s="27"/>
+      <c r="AF89" s="27"/>
+      <c r="AG89" s="27"/>
+      <c r="AH89" s="28"/>
       <c r="AI89" s="18"/>
     </row>
     <row r="90" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13157,19 +13695,19 @@
       <c r="C90" s="17"/>
       <c r="D90" s="19"/>
       <c r="E90" s="32" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F90" s="33"/>
       <c r="G90" s="34"/>
       <c r="H90" s="32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I90" s="33"/>
       <c r="J90" s="33"/>
       <c r="K90" s="33"/>
       <c r="L90" s="34"/>
       <c r="M90" s="23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N90" s="24"/>
       <c r="O90" s="24"/>
@@ -13268,12 +13806,8 @@
       <c r="AH92" s="18"/>
       <c r="AI92" s="18"/>
     </row>
-    <row r="93" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C93" s="14"/>
-    </row>
-    <row r="94" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C94" s="14"/>
-    </row>
+    <row r="93" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="95" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="96" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="97" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13603,41 +14137,10 @@
     <row r="421" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="422" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="423" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="E90:G91"/>
-    <mergeCell ref="H86:L89"/>
+    <mergeCell ref="H88:L89"/>
     <mergeCell ref="H90:L91"/>
     <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="E1:O1"/>
@@ -13650,16 +14153,16 @@
     <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="E3:O3"/>
     <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="E86:G89"/>
+    <mergeCell ref="E88:G89"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="D77" r:id="rId1"/>
+    <hyperlink ref="D79" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="45" max="34" man="1"/>
+    <brk id="46" max="34" man="1"/>
   </rowBreaks>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/nablarch_sample/アプリケーション方式設計書_2全体概要.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_2全体概要.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024EC73E-AFED-4650-ACBD-6BC557391F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9498EE-5318-43D5-A81F-C80659FFBEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2.全体概要" sheetId="13" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2.全体概要'!$A$1:$AI$93</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$79</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$79</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$79</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$79</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2.全体概要'!$A$1:$AI$91</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$78</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$78</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$78</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'2.全体概要'!$A$1:$AI$78</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -227,10 +227,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>5u21</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>OSがRHELであるため、同じRedHat社が提供するOpenJDKビルドを使用する。</t>
     <rPh sb="13" eb="14">
       <t>オナ</t>
@@ -247,11 +243,27 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>RedHat OpenJDK 17</t>
+    <t>※WEBサーバー・Applicationサーバーは複数台で構成し、前段にロードバランサーを配置する。</t>
+    <rPh sb="25" eb="28">
+      <t>フクスウダイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ゼンダン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ハイチ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2022年7月現在、RedHatのOpenJDKで最もサポート期間が長いバージョンは17であるため、これを選択する。</t>
+    <t>RedHat OpenJDK 21</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2024年6月現在、RedHatのOpenJDKで最もサポート期間が長いバージョンは21であるため、これを選択する。</t>
     <rPh sb="4" eb="5">
       <t>ネン</t>
     </rPh>
@@ -276,7 +288,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2022年7月現在最新バージョンである5u21を選択する。</t>
+    <t>6u1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2024年6月現在最新バージョンである6u1を選択する。</t>
     <rPh sb="4" eb="5">
       <t>ネン</t>
     </rPh>
@@ -289,29 +305,13 @@
     <rPh sb="9" eb="11">
       <t>サイシン</t>
     </rPh>
-    <rPh sb="24" eb="26">
+    <rPh sb="23" eb="25">
       <t>センタク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>https://nablarch.github.io/docs/5u21/doc/application_framework/application_framework/nablarch/big_picture.html</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※WEBサーバー・Applicationサーバーは複数台で構成し、前段にロードバランサーを配置する。</t>
-    <rPh sb="25" eb="28">
-      <t>フクスウダイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>コウセイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ゼンダン</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ハイチ</t>
-    </rPh>
+    <t>https://nablarch.github.io/docs/6u1/doc/application_framework/application_framework/nablarch/big_picture.html</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -781,13 +781,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -803,8 +803,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="828675" y="7229475"/>
-          <a:ext cx="8610600" cy="3476626"/>
+          <a:off x="762000" y="6934200"/>
+          <a:ext cx="7921625" cy="3397251"/>
           <a:chOff x="63212" y="3335473"/>
           <a:chExt cx="8773832" cy="3306750"/>
         </a:xfrm>
@@ -5542,13 +5542,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>98441</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>92606</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>175822</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>108960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5638,8 +5638,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="361950" y="1339077"/>
-          <a:ext cx="9036050" cy="4944248"/>
+          <a:off x="339725" y="1313677"/>
+          <a:ext cx="8302625" cy="4833123"/>
           <a:chOff x="339725" y="1313677"/>
           <a:chExt cx="8324850" cy="5182373"/>
         </a:xfrm>
@@ -13032,16 +13032,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI423"/>
+  <dimension ref="A1:AI422"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="3.625" style="15"/>
+    <col min="1" max="16384" width="3.6328125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13088,7 +13088,7 @@
       <c r="AH1" s="43"/>
       <c r="AI1" s="44"/>
     </row>
-    <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -13133,7 +13133,7 @@
       <c r="AH2" s="43"/>
       <c r="AI2" s="44"/>
     </row>
-    <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -13174,8 +13174,8 @@
       <c r="AH3" s="43"/>
       <c r="AI3" s="44"/>
     </row>
-    <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="14" t="s">
         <v>11</v>
       </c>
@@ -13183,8 +13183,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="14" t="str">
         <f>$B$5&amp;"1."</f>
         <v>2.1.</v>
@@ -13193,152 +13193,193 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="14"/>
       <c r="D8" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="14"/>
     </row>
-    <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="14"/>
     </row>
-    <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18"/>
     </row>
-    <row r="19" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23"/>
     </row>
-    <row r="24" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30"/>
     </row>
-    <row r="31" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D34"/>
       <c r="F34"/>
     </row>
-    <row r="35" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35"/>
     </row>
-    <row r="36" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36"/>
     </row>
-    <row r="37" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D45" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="14" t="str">
+        <f>$B$5&amp;"2."</f>
+        <v>2.2.</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D48" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C75" s="14" t="str">
+        <f>$B$5&amp;"3."</f>
+        <v>2.3.</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C76" s="14"/>
+      <c r="D76" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D77" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D78" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C48" s="14" t="str">
-        <f>$B$5&amp;"2."</f>
-        <v>2.2.</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>14</v>
-      </c>
+    <row r="79" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
     </row>
-    <row r="49" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D49" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C76" s="14" t="str">
-        <f>$B$5&amp;"3."</f>
-        <v>2.3.</v>
-      </c>
-      <c r="D76" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C77" s="14"/>
-      <c r="D77" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D78" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="79" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D79" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="80" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-    </row>
-    <row r="81" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="18"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="17" t="str">
+    <row r="80" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="18"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="17" t="str">
         <f>$B$5&amp;"4."</f>
         <v>2.4.</v>
       </c>
-      <c r="D81" s="18" t="s">
+      <c r="D80" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E81" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="18"/>
+      <c r="L80" s="18"/>
+      <c r="M80" s="18"/>
+      <c r="N80" s="18"/>
+      <c r="O80" s="18"/>
+      <c r="P80" s="18"/>
+      <c r="Q80" s="18"/>
+      <c r="R80" s="18"/>
+      <c r="S80" s="18"/>
+      <c r="T80" s="18"/>
+      <c r="U80" s="18"/>
+      <c r="V80" s="18"/>
+      <c r="W80" s="18"/>
+      <c r="X80" s="18"/>
+      <c r="Y80" s="18"/>
+      <c r="Z80" s="18"/>
+      <c r="AA80" s="18"/>
+      <c r="AB80" s="18"/>
+      <c r="AC80" s="18"/>
+      <c r="AD80" s="18"/>
+      <c r="AE80" s="18"/>
+      <c r="AF80" s="18"/>
+      <c r="AG80" s="18"/>
+      <c r="AH80" s="18"/>
+      <c r="AI80" s="18"/>
+    </row>
+    <row r="81" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="18"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="19" t="str">
+        <f>$C$80&amp;"1."</f>
+        <v>2.4.1.</v>
+      </c>
+      <c r="E81" s="18" t="s">
+        <v>21</v>
+      </c>
       <c r="F81" s="18"/>
       <c r="G81" s="18"/>
       <c r="H81" s="18"/>
@@ -13370,17 +13411,12 @@
       <c r="AH81" s="18"/>
       <c r="AI81" s="18"/>
     </row>
-    <row r="82" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="18"/>
       <c r="B82" s="18"/>
       <c r="C82" s="17"/>
-      <c r="D82" s="19" t="str">
-        <f>$C$81&amp;"1."</f>
-        <v>2.4.1.</v>
-      </c>
-      <c r="E82" s="18" t="s">
-        <v>21</v>
-      </c>
+      <c r="D82" s="19"/>
+      <c r="E82" s="18"/>
       <c r="F82" s="18"/>
       <c r="G82" s="18"/>
       <c r="H82" s="18"/>
@@ -13412,12 +13448,14 @@
       <c r="AH82" s="18"/>
       <c r="AI82" s="18"/>
     </row>
-    <row r="83" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="18"/>
       <c r="B83" s="18"/>
       <c r="C83" s="17"/>
       <c r="D83" s="19"/>
-      <c r="E83" s="18"/>
+      <c r="E83" s="18" t="s">
+        <v>22</v>
+      </c>
       <c r="F83" s="18"/>
       <c r="G83" s="18"/>
       <c r="H83" s="18"/>
@@ -13449,13 +13487,13 @@
       <c r="AH83" s="18"/>
       <c r="AI83" s="18"/>
     </row>
-    <row r="84" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="18"/>
       <c r="B84" s="18"/>
       <c r="C84" s="17"/>
       <c r="D84" s="19"/>
       <c r="E84" s="18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F84" s="18"/>
       <c r="G84" s="18"/>
@@ -13488,14 +13526,12 @@
       <c r="AH84" s="18"/>
       <c r="AI84" s="18"/>
     </row>
-    <row r="85" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="18"/>
       <c r="B85" s="18"/>
       <c r="C85" s="17"/>
       <c r="D85" s="19"/>
-      <c r="E85" s="18" t="s">
-        <v>26</v>
-      </c>
+      <c r="E85" s="18"/>
       <c r="F85" s="18"/>
       <c r="G85" s="18"/>
       <c r="H85" s="18"/>
@@ -13527,621 +13563,584 @@
       <c r="AH85" s="18"/>
       <c r="AI85" s="18"/>
     </row>
-    <row r="86" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="18"/>
       <c r="B86" s="18"/>
       <c r="C86" s="17"/>
       <c r="D86" s="19"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="18"/>
-      <c r="H86" s="18"/>
-      <c r="I86" s="18"/>
-      <c r="J86" s="18"/>
-      <c r="K86" s="18"/>
-      <c r="L86" s="18"/>
-      <c r="M86" s="18"/>
-      <c r="N86" s="18"/>
-      <c r="O86" s="18"/>
-      <c r="P86" s="18"/>
-      <c r="Q86" s="18"/>
-      <c r="R86" s="18"/>
-      <c r="S86" s="18"/>
-      <c r="T86" s="18"/>
-      <c r="U86" s="18"/>
-      <c r="V86" s="18"/>
-      <c r="W86" s="18"/>
-      <c r="X86" s="18"/>
-      <c r="Y86" s="18"/>
-      <c r="Z86" s="18"/>
-      <c r="AA86" s="18"/>
-      <c r="AB86" s="18"/>
-      <c r="AC86" s="18"/>
-      <c r="AD86" s="18"/>
-      <c r="AE86" s="18"/>
-      <c r="AF86" s="18"/>
-      <c r="AG86" s="18"/>
-      <c r="AH86" s="18"/>
+      <c r="E86" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F86" s="21"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I86" s="21"/>
+      <c r="J86" s="21"/>
+      <c r="K86" s="21"/>
+      <c r="L86" s="22"/>
+      <c r="M86" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N86" s="21"/>
+      <c r="O86" s="21"/>
+      <c r="P86" s="21"/>
+      <c r="Q86" s="21"/>
+      <c r="R86" s="21"/>
+      <c r="S86" s="21"/>
+      <c r="T86" s="21"/>
+      <c r="U86" s="21"/>
+      <c r="V86" s="21"/>
+      <c r="W86" s="21"/>
+      <c r="X86" s="21"/>
+      <c r="Y86" s="21"/>
+      <c r="Z86" s="21"/>
+      <c r="AA86" s="21"/>
+      <c r="AB86" s="21"/>
+      <c r="AC86" s="21"/>
+      <c r="AD86" s="21"/>
+      <c r="AE86" s="21"/>
+      <c r="AF86" s="21"/>
+      <c r="AG86" s="21"/>
+      <c r="AH86" s="22"/>
       <c r="AI86" s="18"/>
     </row>
-    <row r="87" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="18"/>
       <c r="B87" s="18"/>
       <c r="C87" s="17"/>
       <c r="D87" s="19"/>
-      <c r="E87" s="20" t="s">
-        <v>24</v>
+      <c r="E87" s="32" t="s">
+        <v>23</v>
       </c>
-      <c r="F87" s="21"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="20" t="s">
-        <v>27</v>
+      <c r="F87" s="33"/>
+      <c r="G87" s="34"/>
+      <c r="H87" s="38" t="s">
+        <v>30</v>
       </c>
-      <c r="I87" s="21"/>
-      <c r="J87" s="21"/>
-      <c r="K87" s="21"/>
-      <c r="L87" s="22"/>
-      <c r="M87" s="20" t="s">
-        <v>9</v>
+      <c r="I87" s="33"/>
+      <c r="J87" s="33"/>
+      <c r="K87" s="33"/>
+      <c r="L87" s="34"/>
+      <c r="M87" s="23" t="s">
+        <v>28</v>
       </c>
-      <c r="N87" s="21"/>
-      <c r="O87" s="21"/>
-      <c r="P87" s="21"/>
-      <c r="Q87" s="21"/>
-      <c r="R87" s="21"/>
-      <c r="S87" s="21"/>
-      <c r="T87" s="21"/>
-      <c r="U87" s="21"/>
-      <c r="V87" s="21"/>
-      <c r="W87" s="21"/>
-      <c r="X87" s="21"/>
-      <c r="Y87" s="21"/>
-      <c r="Z87" s="21"/>
-      <c r="AA87" s="21"/>
-      <c r="AB87" s="21"/>
-      <c r="AC87" s="21"/>
-      <c r="AD87" s="21"/>
-      <c r="AE87" s="21"/>
-      <c r="AF87" s="21"/>
-      <c r="AG87" s="21"/>
-      <c r="AH87" s="22"/>
+      <c r="N87" s="24"/>
+      <c r="O87" s="24"/>
+      <c r="P87" s="24"/>
+      <c r="Q87" s="24"/>
+      <c r="R87" s="24"/>
+      <c r="S87" s="24"/>
+      <c r="T87" s="24"/>
+      <c r="U87" s="24"/>
+      <c r="V87" s="24"/>
+      <c r="W87" s="24"/>
+      <c r="X87" s="24"/>
+      <c r="Y87" s="24"/>
+      <c r="Z87" s="24"/>
+      <c r="AA87" s="24"/>
+      <c r="AB87" s="24"/>
+      <c r="AC87" s="24"/>
+      <c r="AD87" s="24"/>
+      <c r="AE87" s="24"/>
+      <c r="AF87" s="24"/>
+      <c r="AG87" s="24"/>
+      <c r="AH87" s="25"/>
       <c r="AI87" s="18"/>
     </row>
-    <row r="88" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="18"/>
       <c r="B88" s="18"/>
       <c r="C88" s="17"/>
       <c r="D88" s="19"/>
-      <c r="E88" s="32" t="s">
-        <v>23</v>
+      <c r="E88" s="39"/>
+      <c r="F88" s="40"/>
+      <c r="G88" s="41"/>
+      <c r="H88" s="39"/>
+      <c r="I88" s="40"/>
+      <c r="J88" s="40"/>
+      <c r="K88" s="40"/>
+      <c r="L88" s="41"/>
+      <c r="M88" s="26" t="s">
+        <v>31</v>
       </c>
-      <c r="F88" s="33"/>
-      <c r="G88" s="34"/>
-      <c r="H88" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="I88" s="33"/>
-      <c r="J88" s="33"/>
-      <c r="K88" s="33"/>
-      <c r="L88" s="34"/>
-      <c r="M88" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="N88" s="24"/>
-      <c r="O88" s="24"/>
-      <c r="P88" s="24"/>
-      <c r="Q88" s="24"/>
-      <c r="R88" s="24"/>
-      <c r="S88" s="24"/>
-      <c r="T88" s="24"/>
-      <c r="U88" s="24"/>
-      <c r="V88" s="24"/>
-      <c r="W88" s="24"/>
-      <c r="X88" s="24"/>
-      <c r="Y88" s="24"/>
-      <c r="Z88" s="24"/>
-      <c r="AA88" s="24"/>
-      <c r="AB88" s="24"/>
-      <c r="AC88" s="24"/>
-      <c r="AD88" s="24"/>
-      <c r="AE88" s="24"/>
-      <c r="AF88" s="24"/>
-      <c r="AG88" s="24"/>
-      <c r="AH88" s="25"/>
+      <c r="N88" s="27"/>
+      <c r="O88" s="27"/>
+      <c r="P88" s="27"/>
+      <c r="Q88" s="27"/>
+      <c r="R88" s="27"/>
+      <c r="S88" s="27"/>
+      <c r="T88" s="27"/>
+      <c r="U88" s="27"/>
+      <c r="V88" s="27"/>
+      <c r="W88" s="27"/>
+      <c r="X88" s="27"/>
+      <c r="Y88" s="27"/>
+      <c r="Z88" s="27"/>
+      <c r="AA88" s="27"/>
+      <c r="AB88" s="27"/>
+      <c r="AC88" s="27"/>
+      <c r="AD88" s="27"/>
+      <c r="AE88" s="27"/>
+      <c r="AF88" s="27"/>
+      <c r="AG88" s="27"/>
+      <c r="AH88" s="28"/>
       <c r="AI88" s="18"/>
     </row>
-    <row r="89" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="18"/>
       <c r="B89" s="18"/>
       <c r="C89" s="17"/>
       <c r="D89" s="19"/>
-      <c r="E89" s="39"/>
-      <c r="F89" s="40"/>
-      <c r="G89" s="41"/>
-      <c r="H89" s="39"/>
-      <c r="I89" s="40"/>
-      <c r="J89" s="40"/>
-      <c r="K89" s="40"/>
-      <c r="L89" s="41"/>
-      <c r="M89" s="26" t="s">
-        <v>31</v>
+      <c r="E89" s="32" t="s">
+        <v>25</v>
       </c>
-      <c r="N89" s="27"/>
-      <c r="O89" s="27"/>
-      <c r="P89" s="27"/>
-      <c r="Q89" s="27"/>
-      <c r="R89" s="27"/>
-      <c r="S89" s="27"/>
-      <c r="T89" s="27"/>
-      <c r="U89" s="27"/>
-      <c r="V89" s="27"/>
-      <c r="W89" s="27"/>
-      <c r="X89" s="27"/>
-      <c r="Y89" s="27"/>
-      <c r="Z89" s="27"/>
-      <c r="AA89" s="27"/>
-      <c r="AB89" s="27"/>
-      <c r="AC89" s="27"/>
-      <c r="AD89" s="27"/>
-      <c r="AE89" s="27"/>
-      <c r="AF89" s="27"/>
-      <c r="AG89" s="27"/>
-      <c r="AH89" s="28"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="I89" s="33"/>
+      <c r="J89" s="33"/>
+      <c r="K89" s="33"/>
+      <c r="L89" s="34"/>
+      <c r="M89" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="N89" s="24"/>
+      <c r="O89" s="24"/>
+      <c r="P89" s="24"/>
+      <c r="Q89" s="24"/>
+      <c r="R89" s="24"/>
+      <c r="S89" s="24"/>
+      <c r="T89" s="24"/>
+      <c r="U89" s="24"/>
+      <c r="V89" s="24"/>
+      <c r="W89" s="24"/>
+      <c r="X89" s="24"/>
+      <c r="Y89" s="24"/>
+      <c r="Z89" s="24"/>
+      <c r="AA89" s="24"/>
+      <c r="AB89" s="24"/>
+      <c r="AC89" s="24"/>
+      <c r="AD89" s="24"/>
+      <c r="AE89" s="24"/>
+      <c r="AF89" s="24"/>
+      <c r="AG89" s="24"/>
+      <c r="AH89" s="25"/>
       <c r="AI89" s="18"/>
     </row>
-    <row r="90" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="18"/>
       <c r="B90" s="18"/>
       <c r="C90" s="17"/>
       <c r="D90" s="19"/>
-      <c r="E90" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="F90" s="33"/>
-      <c r="G90" s="34"/>
-      <c r="H90" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="I90" s="33"/>
-      <c r="J90" s="33"/>
-      <c r="K90" s="33"/>
-      <c r="L90" s="34"/>
-      <c r="M90" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="N90" s="24"/>
-      <c r="O90" s="24"/>
-      <c r="P90" s="24"/>
-      <c r="Q90" s="24"/>
-      <c r="R90" s="24"/>
-      <c r="S90" s="24"/>
-      <c r="T90" s="24"/>
-      <c r="U90" s="24"/>
-      <c r="V90" s="24"/>
-      <c r="W90" s="24"/>
-      <c r="X90" s="24"/>
-      <c r="Y90" s="24"/>
-      <c r="Z90" s="24"/>
-      <c r="AA90" s="24"/>
-      <c r="AB90" s="24"/>
-      <c r="AC90" s="24"/>
-      <c r="AD90" s="24"/>
-      <c r="AE90" s="24"/>
-      <c r="AF90" s="24"/>
-      <c r="AG90" s="24"/>
-      <c r="AH90" s="25"/>
+      <c r="E90" s="35"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="37"/>
+      <c r="H90" s="35"/>
+      <c r="I90" s="36"/>
+      <c r="J90" s="36"/>
+      <c r="K90" s="36"/>
+      <c r="L90" s="37"/>
+      <c r="M90" s="29"/>
+      <c r="N90" s="30"/>
+      <c r="O90" s="30"/>
+      <c r="P90" s="30"/>
+      <c r="Q90" s="30"/>
+      <c r="R90" s="30"/>
+      <c r="S90" s="30"/>
+      <c r="T90" s="30"/>
+      <c r="U90" s="30"/>
+      <c r="V90" s="30"/>
+      <c r="W90" s="30"/>
+      <c r="X90" s="30"/>
+      <c r="Y90" s="30"/>
+      <c r="Z90" s="30"/>
+      <c r="AA90" s="30"/>
+      <c r="AB90" s="30"/>
+      <c r="AC90" s="30"/>
+      <c r="AD90" s="30"/>
+      <c r="AE90" s="30"/>
+      <c r="AF90" s="30"/>
+      <c r="AG90" s="30"/>
+      <c r="AH90" s="31"/>
       <c r="AI90" s="18"/>
     </row>
-    <row r="91" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="18"/>
       <c r="B91" s="18"/>
       <c r="C91" s="17"/>
       <c r="D91" s="19"/>
-      <c r="E91" s="35"/>
-      <c r="F91" s="36"/>
-      <c r="G91" s="37"/>
-      <c r="H91" s="35"/>
-      <c r="I91" s="36"/>
-      <c r="J91" s="36"/>
-      <c r="K91" s="36"/>
-      <c r="L91" s="37"/>
-      <c r="M91" s="29"/>
-      <c r="N91" s="30"/>
-      <c r="O91" s="30"/>
-      <c r="P91" s="30"/>
-      <c r="Q91" s="30"/>
-      <c r="R91" s="30"/>
-      <c r="S91" s="30"/>
-      <c r="T91" s="30"/>
-      <c r="U91" s="30"/>
-      <c r="V91" s="30"/>
-      <c r="W91" s="30"/>
-      <c r="X91" s="30"/>
-      <c r="Y91" s="30"/>
-      <c r="Z91" s="30"/>
-      <c r="AA91" s="30"/>
-      <c r="AB91" s="30"/>
-      <c r="AC91" s="30"/>
-      <c r="AD91" s="30"/>
-      <c r="AE91" s="30"/>
-      <c r="AF91" s="30"/>
-      <c r="AG91" s="30"/>
-      <c r="AH91" s="31"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="18"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="18"/>
+      <c r="J91" s="18"/>
+      <c r="K91" s="18"/>
+      <c r="L91" s="18"/>
+      <c r="M91" s="18"/>
+      <c r="N91" s="18"/>
+      <c r="O91" s="18"/>
+      <c r="P91" s="18"/>
+      <c r="Q91" s="18"/>
+      <c r="R91" s="18"/>
+      <c r="S91" s="18"/>
+      <c r="T91" s="18"/>
+      <c r="U91" s="18"/>
+      <c r="V91" s="18"/>
+      <c r="W91" s="18"/>
+      <c r="X91" s="18"/>
+      <c r="Y91" s="18"/>
+      <c r="Z91" s="18"/>
+      <c r="AA91" s="18"/>
+      <c r="AB91" s="18"/>
+      <c r="AC91" s="18"/>
+      <c r="AD91" s="18"/>
+      <c r="AE91" s="18"/>
+      <c r="AF91" s="18"/>
+      <c r="AG91" s="18"/>
+      <c r="AH91" s="18"/>
       <c r="AI91" s="18"/>
     </row>
-    <row r="92" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="18"/>
-      <c r="B92" s="18"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="18"/>
-      <c r="I92" s="18"/>
-      <c r="J92" s="18"/>
-      <c r="K92" s="18"/>
-      <c r="L92" s="18"/>
-      <c r="M92" s="18"/>
-      <c r="N92" s="18"/>
-      <c r="O92" s="18"/>
-      <c r="P92" s="18"/>
-      <c r="Q92" s="18"/>
-      <c r="R92" s="18"/>
-      <c r="S92" s="18"/>
-      <c r="T92" s="18"/>
-      <c r="U92" s="18"/>
-      <c r="V92" s="18"/>
-      <c r="W92" s="18"/>
-      <c r="X92" s="18"/>
-      <c r="Y92" s="18"/>
-      <c r="Z92" s="18"/>
-      <c r="AA92" s="18"/>
-      <c r="AB92" s="18"/>
-      <c r="AC92" s="18"/>
-      <c r="AD92" s="18"/>
-      <c r="AE92" s="18"/>
-      <c r="AF92" s="18"/>
-      <c r="AG92" s="18"/>
-      <c r="AH92" s="18"/>
-      <c r="AI92" s="18"/>
-    </row>
-    <row r="93" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E90:G91"/>
-    <mergeCell ref="H88:L89"/>
-    <mergeCell ref="H90:L91"/>
+    <mergeCell ref="E89:G90"/>
+    <mergeCell ref="H87:L88"/>
+    <mergeCell ref="H89:L90"/>
     <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="E1:O1"/>
     <mergeCell ref="R1:X1"/>
@@ -14153,16 +14152,16 @@
     <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="E3:O3"/>
     <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="E88:G89"/>
+    <mergeCell ref="E87:G88"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="D79" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D78" r:id="rId1" display="https://nablarch.github.io/docs/5u21/doc/application_framework/application_framework/nablarch/big_picture.html" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="46" max="34" man="1"/>
+    <brk id="45" max="34" man="1"/>
   </rowBreaks>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/nablarch_sample/アプリケーション方式設計書_2全体概要.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_2全体概要.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024EC73E-AFED-4650-ACBD-6BC557391F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1F824C-2EBB-4943-82D8-8D19382EC710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2.全体概要" sheetId="13" r:id="rId1"/>
@@ -227,10 +227,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>5u21</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>OSがRHELであるため、同じRedHat社が提供するOpenJDKビルドを使用する。</t>
     <rPh sb="13" eb="14">
       <t>オナ</t>
@@ -247,11 +243,31 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>RedHat OpenJDK 17</t>
+    <t>※WEBサーバー・Applicationサーバーは複数台で構成し、前段にロードバランサーを配置する。</t>
+    <rPh sb="25" eb="28">
+      <t>フクスウダイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ゼンダン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ハイチ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2022年7月現在、RedHatのOpenJDKで最もサポート期間が長いバージョンは17であるため、これを選択する。</t>
+    <t>https://nablarch.github.io/docs/6u2/doc/application_framework/application_framework/nablarch/big_picture.html</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RedHat OpenJDK 21</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2024年9月現在、RedHatのOpenJDKで最もサポート期間が長いバージョンは21であるため、これを選択する。</t>
     <rPh sb="4" eb="5">
       <t>ネン</t>
     </rPh>
@@ -276,7 +292,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2022年7月現在最新バージョンである5u21を選択する。</t>
+    <t>2024年9月現在最新バージョンである6u2を選択する。</t>
     <rPh sb="4" eb="5">
       <t>ネン</t>
     </rPh>
@@ -289,29 +305,13 @@
     <rPh sb="9" eb="11">
       <t>サイシン</t>
     </rPh>
-    <rPh sb="24" eb="26">
+    <rPh sb="23" eb="25">
       <t>センタク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>https://nablarch.github.io/docs/5u21/doc/application_framework/application_framework/nablarch/big_picture.html</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※WEBサーバー・Applicationサーバーは複数台で構成し、前段にロードバランサーを配置する。</t>
-    <rPh sb="25" eb="28">
-      <t>フクスウダイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>コウセイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ゼンダン</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ハイチ</t>
-    </rPh>
+    <t>6u2</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3343,7 +3343,7 @@
                 <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>JDK(OpenJDK 17)</a:t>
+              <a:t>JDK(OpenJDK 21)</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -13254,7 +13254,7 @@
     <row r="44" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="45" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D45" s="15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13321,7 +13321,7 @@
     </row>
     <row r="79" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D79" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="3:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13618,14 +13618,14 @@
       <c r="F88" s="33"/>
       <c r="G88" s="34"/>
       <c r="H88" s="38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I88" s="33"/>
       <c r="J88" s="33"/>
       <c r="K88" s="33"/>
       <c r="L88" s="34"/>
       <c r="M88" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N88" s="24"/>
       <c r="O88" s="24"/>
@@ -13664,7 +13664,7 @@
       <c r="K89" s="40"/>
       <c r="L89" s="41"/>
       <c r="M89" s="26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N89" s="27"/>
       <c r="O89" s="27"/>
@@ -13700,14 +13700,14 @@
       <c r="F90" s="33"/>
       <c r="G90" s="34"/>
       <c r="H90" s="32" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I90" s="33"/>
       <c r="J90" s="33"/>
       <c r="K90" s="33"/>
       <c r="L90" s="34"/>
       <c r="M90" s="23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N90" s="24"/>
       <c r="O90" s="24"/>
@@ -14157,7 +14157,7 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="D79" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D79" r:id="rId1" display="https://nablarch.github.io/docs/5u21/doc/application_framework/application_framework/nablarch/big_picture.html" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
